--- a/name/vnindex/20230206/VNINDEX_HOSE_5p_20230206.xlsx
+++ b/name/vnindex/20230206/VNINDEX_HOSE_5p_20230206.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2407 +454,5807 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1675674900000</v>
+        <v>1675674840000</v>
       </c>
       <c r="B2">
-        <v>6919900</v>
+        <v>2829300</v>
       </c>
       <c r="C2">
-        <v>4476700</v>
+        <v>1217000</v>
       </c>
       <c r="D2">
-        <v>4445300</v>
+        <v>4431200</v>
       </c>
       <c r="E2">
-        <v>115800472000</v>
+        <v>43242712000</v>
       </c>
       <c r="F2">
-        <v>74443120000</v>
+        <v>22858423000</v>
       </c>
       <c r="G2">
-        <v>51409957000</v>
+        <v>50965896000</v>
       </c>
       <c r="H2">
-        <v>15841900</v>
+        <v>8477500</v>
       </c>
       <c r="I2">
-        <v>241653549000</v>
+        <v>117067031000</v>
       </c>
       <c r="J2" t="str">
-        <v>2023-02-06T09:15:00.000Z</v>
+        <v>2023-02-06T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>241653549000</v>
+        <v>117067031000</v>
       </c>
       <c r="L2">
-        <v>15841900</v>
+        <v>8477500</v>
       </c>
       <c r="M2">
-        <v>-2443200</v>
+        <v>-1612300</v>
       </c>
       <c r="N2">
-        <v>-41357352000</v>
+        <v>-20384289000</v>
       </c>
       <c r="O2">
-        <v>-2443200</v>
+        <v>-1612300</v>
       </c>
       <c r="P2">
-        <v>-41357352000</v>
+        <v>-20384289000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1675675200000</v>
+        <v>1675674960000</v>
       </c>
       <c r="B3">
-        <v>6581000</v>
+        <v>1827700</v>
       </c>
       <c r="C3">
-        <v>4380300</v>
+        <v>1487800</v>
       </c>
       <c r="D3">
-        <v>102900</v>
+        <v>13400</v>
       </c>
       <c r="E3">
-        <v>110482562000</v>
+        <v>32512783000</v>
       </c>
       <c r="F3">
-        <v>76708319000</v>
+        <v>22371674000</v>
       </c>
       <c r="G3">
-        <v>2717827000</v>
+        <v>431181000</v>
       </c>
       <c r="H3">
-        <v>11064200</v>
+        <v>3328900</v>
       </c>
       <c r="I3">
-        <v>189908708000</v>
+        <v>55315638000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-02-06T09:20:00.000Z</v>
+        <v>2023-02-06T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>431562257000</v>
+        <v>172382669000</v>
       </c>
       <c r="L3">
-        <v>26906100</v>
+        <v>11806400</v>
       </c>
       <c r="M3">
-        <v>-2200700</v>
+        <v>-339900</v>
       </c>
       <c r="N3">
-        <v>-33774243000</v>
+        <v>-10141109000</v>
       </c>
       <c r="O3">
-        <v>-4643900</v>
+        <v>-1952200</v>
       </c>
       <c r="P3">
-        <v>-75131595000</v>
+        <v>-30525398000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1675675500000</v>
+        <v>1675675080000</v>
       </c>
       <c r="B4">
-        <v>4856800</v>
+        <v>2262900</v>
       </c>
       <c r="C4">
-        <v>6559400</v>
+        <v>1771900</v>
       </c>
       <c r="D4">
-        <v>58500</v>
+        <v>700</v>
       </c>
       <c r="E4">
-        <v>82768656000</v>
+        <v>40044977000</v>
       </c>
       <c r="F4">
-        <v>98865090000</v>
+        <v>29213023000</v>
       </c>
       <c r="G4">
-        <v>748628000</v>
+        <v>12880000</v>
       </c>
       <c r="H4">
-        <v>11474700</v>
+        <v>4035500</v>
       </c>
       <c r="I4">
-        <v>182382374000</v>
+        <v>69270880000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-02-06T09:25:00.000Z</v>
+        <v>2023-02-06T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>613944631000</v>
+        <v>241653549000</v>
       </c>
       <c r="L4">
-        <v>38380800</v>
+        <v>15841900</v>
       </c>
       <c r="M4">
-        <v>1702600</v>
+        <v>-491000</v>
       </c>
       <c r="N4">
-        <v>16096434000</v>
+        <v>-10831954000</v>
       </c>
       <c r="O4">
-        <v>-2941300</v>
+        <v>-2443200</v>
       </c>
       <c r="P4">
-        <v>-59035161000</v>
+        <v>-41357352000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1675675800000</v>
+        <v>1675675200000</v>
       </c>
       <c r="B5">
-        <v>6081100</v>
+        <v>2382200</v>
       </c>
       <c r="C5">
-        <v>3998000</v>
+        <v>1801600</v>
       </c>
       <c r="D5">
-        <v>72100</v>
+        <v>12300</v>
       </c>
       <c r="E5">
-        <v>103261320000</v>
+        <v>42523988000</v>
       </c>
       <c r="F5">
-        <v>63030011000</v>
+        <v>28273493000</v>
       </c>
       <c r="G5">
-        <v>1698083000</v>
+        <v>238159000</v>
       </c>
       <c r="H5">
-        <v>10151200</v>
+        <v>4196100</v>
       </c>
       <c r="I5">
-        <v>167989414000</v>
+        <v>71035640000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-02-06T09:30:00.000Z</v>
+        <v>2023-02-06T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>781934045000</v>
+        <v>312689189000</v>
       </c>
       <c r="L5">
-        <v>48532000</v>
+        <v>20038000</v>
       </c>
       <c r="M5">
-        <v>-2083100</v>
+        <v>-580600</v>
       </c>
       <c r="N5">
-        <v>-40231309000</v>
+        <v>-14250495000</v>
       </c>
       <c r="O5">
-        <v>-5024400</v>
+        <v>-3023800</v>
       </c>
       <c r="P5">
-        <v>-99266470000</v>
+        <v>-55607847000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1675676100000</v>
+        <v>1675675320000</v>
       </c>
       <c r="B6">
-        <v>6160600</v>
+        <v>2766400</v>
       </c>
       <c r="C6">
-        <v>4387800</v>
+        <v>1661100</v>
       </c>
       <c r="D6">
-        <v>54900</v>
+        <v>62900</v>
       </c>
       <c r="E6">
-        <v>112235514000</v>
+        <v>46031415000</v>
       </c>
       <c r="F6">
-        <v>78008824000</v>
+        <v>32104701000</v>
       </c>
       <c r="G6">
-        <v>917991000</v>
+        <v>2248341000</v>
       </c>
       <c r="H6">
-        <v>10603300</v>
+        <v>4490400</v>
       </c>
       <c r="I6">
-        <v>191162329000</v>
+        <v>80384457000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-02-06T09:35:00.000Z</v>
+        <v>2023-02-06T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>973096374000</v>
+        <v>393073646000</v>
       </c>
       <c r="L6">
-        <v>59135300</v>
+        <v>24528400</v>
       </c>
       <c r="M6">
-        <v>-1772800</v>
+        <v>-1105300</v>
       </c>
       <c r="N6">
-        <v>-34226690000</v>
+        <v>-13926714000</v>
       </c>
       <c r="O6">
-        <v>-6797200</v>
+        <v>-4129100</v>
       </c>
       <c r="P6">
-        <v>-133493160000</v>
+        <v>-69534561000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1675676400000</v>
+        <v>1675675440000</v>
       </c>
       <c r="B7">
-        <v>2954700</v>
+        <v>2603300</v>
       </c>
       <c r="C7">
-        <v>6243600</v>
+        <v>1878700</v>
       </c>
       <c r="D7">
-        <v>33300</v>
+        <v>34500</v>
       </c>
       <c r="E7">
-        <v>46655976000</v>
+        <v>42620907000</v>
       </c>
       <c r="F7">
-        <v>106423747000</v>
+        <v>32050147000</v>
       </c>
       <c r="G7">
-        <v>422032000</v>
+        <v>325942000</v>
       </c>
       <c r="H7">
-        <v>9231600</v>
+        <v>4516500</v>
       </c>
       <c r="I7">
-        <v>153501755000</v>
+        <v>74996996000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-02-06T09:40:00.000Z</v>
+        <v>2023-02-06T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1126598129000</v>
+        <v>468070642000</v>
       </c>
       <c r="L7">
-        <v>68366900</v>
+        <v>29044900</v>
       </c>
       <c r="M7">
-        <v>3288900</v>
+        <v>-724600</v>
       </c>
       <c r="N7">
-        <v>59767771000</v>
+        <v>-10570760000</v>
       </c>
       <c r="O7">
-        <v>-3508300</v>
+        <v>-4853700</v>
       </c>
       <c r="P7">
-        <v>-73725389000</v>
+        <v>-80105321000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1675676700000</v>
+        <v>1675675560000</v>
       </c>
       <c r="B8">
-        <v>1674600</v>
+        <v>1926900</v>
       </c>
       <c r="C8">
-        <v>2732600</v>
+        <v>2461100</v>
       </c>
       <c r="D8">
-        <v>13100</v>
+        <v>42000</v>
       </c>
       <c r="E8">
-        <v>32674619000</v>
+        <v>29236031000</v>
       </c>
       <c r="F8">
-        <v>45415245000</v>
+        <v>35132334000</v>
       </c>
       <c r="G8">
-        <v>348010000</v>
+        <v>395380000</v>
       </c>
       <c r="H8">
-        <v>4420300</v>
+        <v>4430000</v>
       </c>
       <c r="I8">
-        <v>78437874000</v>
+        <v>64763745000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-02-06T09:45:00.000Z</v>
+        <v>2023-02-06T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1205036003000</v>
+        <v>532834387000</v>
       </c>
       <c r="L8">
-        <v>72787200</v>
+        <v>33474900</v>
       </c>
       <c r="M8">
-        <v>1058000</v>
+        <v>534200</v>
       </c>
       <c r="N8">
-        <v>12740626000</v>
+        <v>5896303000</v>
       </c>
       <c r="O8">
-        <v>-2450300</v>
+        <v>-4319500</v>
       </c>
       <c r="P8">
-        <v>-60984763000</v>
+        <v>-74209018000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1675677000000</v>
+        <v>1675675680000</v>
       </c>
       <c r="B9">
-        <v>3353100</v>
+        <v>1759000</v>
       </c>
       <c r="C9">
-        <v>7370800</v>
+        <v>3137200</v>
       </c>
       <c r="D9">
-        <v>12800</v>
+        <v>9700</v>
       </c>
       <c r="E9">
-        <v>60827274000</v>
+        <v>32838877000</v>
       </c>
       <c r="F9">
-        <v>122000535000</v>
+        <v>48012734000</v>
       </c>
       <c r="G9">
-        <v>164211000</v>
+        <v>258633000</v>
       </c>
       <c r="H9">
-        <v>10736700</v>
+        <v>4905900</v>
       </c>
       <c r="I9">
-        <v>182992020000</v>
+        <v>81110244000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-02-06T09:50:00.000Z</v>
+        <v>2023-02-06T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1388028023000</v>
+        <v>613944631000</v>
       </c>
       <c r="L9">
-        <v>83523900</v>
+        <v>38380800</v>
       </c>
       <c r="M9">
-        <v>4017700</v>
+        <v>1378200</v>
       </c>
       <c r="N9">
-        <v>61173261000</v>
+        <v>15173857000</v>
       </c>
       <c r="O9">
-        <v>1567400</v>
+        <v>-2941300</v>
       </c>
       <c r="P9">
-        <v>188498000</v>
+        <v>-59035161000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1675677300000</v>
+        <v>1675675800000</v>
       </c>
       <c r="B10">
-        <v>3061900</v>
+        <v>2135200</v>
       </c>
       <c r="C10">
-        <v>7286700</v>
+        <v>1621500</v>
       </c>
       <c r="D10">
-        <v>22700</v>
+        <v>10400</v>
       </c>
       <c r="E10">
-        <v>45128111000</v>
+        <v>37045474000</v>
       </c>
       <c r="F10">
-        <v>119556244000</v>
+        <v>25743628000</v>
       </c>
       <c r="G10">
-        <v>136575000</v>
+        <v>213061000</v>
       </c>
       <c r="H10">
-        <v>10371300</v>
+        <v>3767100</v>
       </c>
       <c r="I10">
-        <v>164820930000</v>
+        <v>63002163000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-02-06T09:55:00.000Z</v>
+        <v>2023-02-06T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1552848953000</v>
+        <v>676946794000</v>
       </c>
       <c r="L10">
-        <v>93895200</v>
+        <v>42147900</v>
       </c>
       <c r="M10">
-        <v>4224800</v>
+        <v>-513700</v>
       </c>
       <c r="N10">
-        <v>74428133000</v>
+        <v>-11301846000</v>
       </c>
       <c r="O10">
-        <v>5792200</v>
+        <v>-3455000</v>
       </c>
       <c r="P10">
-        <v>74616631000</v>
+        <v>-70337007000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1675677600000</v>
+        <v>1675675920000</v>
       </c>
       <c r="B11">
-        <v>3989200</v>
+        <v>2784900</v>
       </c>
       <c r="C11">
-        <v>3417000</v>
+        <v>1504000</v>
       </c>
       <c r="D11">
-        <v>44000</v>
+        <v>3000</v>
       </c>
       <c r="E11">
-        <v>68104102000</v>
+        <v>46527791000</v>
       </c>
       <c r="F11">
-        <v>55822018000</v>
+        <v>24497435000</v>
       </c>
       <c r="G11">
-        <v>1071114000</v>
+        <v>63350000</v>
       </c>
       <c r="H11">
-        <v>7450200</v>
+        <v>4291900</v>
       </c>
       <c r="I11">
-        <v>124997234000</v>
+        <v>71088576000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-02-06T10:00:00.000Z</v>
+        <v>2023-02-06T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1677846187000</v>
+        <v>748035370000</v>
       </c>
       <c r="L11">
-        <v>101345400</v>
+        <v>46439800</v>
       </c>
       <c r="M11">
-        <v>-572200</v>
+        <v>-1280900</v>
       </c>
       <c r="N11">
-        <v>-12282084000</v>
+        <v>-22030356000</v>
       </c>
       <c r="O11">
-        <v>5220000</v>
+        <v>-4735900</v>
       </c>
       <c r="P11">
-        <v>62334547000</v>
+        <v>-92367363000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1675677900000</v>
+        <v>1675676040000</v>
       </c>
       <c r="B12">
-        <v>3680600</v>
+        <v>2215400</v>
       </c>
       <c r="C12">
-        <v>4500900</v>
+        <v>1792400</v>
       </c>
       <c r="D12">
-        <v>56500</v>
+        <v>72900</v>
       </c>
       <c r="E12">
-        <v>57857148000</v>
+        <v>39936889000</v>
       </c>
       <c r="F12">
-        <v>87158626000</v>
+        <v>26872935000</v>
       </c>
       <c r="G12">
-        <v>502326000</v>
+        <v>1705174000</v>
       </c>
       <c r="H12">
-        <v>8238000</v>
+        <v>4080700</v>
       </c>
       <c r="I12">
-        <v>145518100000</v>
+        <v>68514998000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-02-06T10:05:00.000Z</v>
+        <v>2023-02-06T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1823364287000</v>
+        <v>816550368000</v>
       </c>
       <c r="L12">
-        <v>109583400</v>
+        <v>50520500</v>
       </c>
       <c r="M12">
-        <v>820300</v>
+        <v>-423000</v>
       </c>
       <c r="N12">
-        <v>29301478000</v>
+        <v>-13063954000</v>
       </c>
       <c r="O12">
-        <v>6040300</v>
+        <v>-5158900</v>
       </c>
       <c r="P12">
-        <v>91636025000</v>
+        <v>-105431317000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1675678200000</v>
+        <v>1675676160000</v>
       </c>
       <c r="B13">
-        <v>3525400</v>
+        <v>1991300</v>
       </c>
       <c r="C13">
-        <v>3001600</v>
+        <v>1473000</v>
       </c>
       <c r="D13">
-        <v>21800</v>
+        <v>20000</v>
       </c>
       <c r="E13">
-        <v>67387095000</v>
+        <v>32576352000</v>
       </c>
       <c r="F13">
-        <v>60078048000</v>
+        <v>25636399000</v>
       </c>
       <c r="G13">
-        <v>451591000</v>
+        <v>231387000</v>
       </c>
       <c r="H13">
-        <v>6548800</v>
+        <v>3484300</v>
       </c>
       <c r="I13">
-        <v>127916734000</v>
+        <v>58444138000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-02-06T10:10:00.000Z</v>
+        <v>2023-02-06T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1951281021000</v>
+        <v>874994506000</v>
       </c>
       <c r="L13">
-        <v>116132200</v>
+        <v>54004800</v>
       </c>
       <c r="M13">
-        <v>-523800</v>
+        <v>-518300</v>
       </c>
       <c r="N13">
-        <v>-7309047000</v>
+        <v>-6939953000</v>
       </c>
       <c r="O13">
-        <v>5516500</v>
+        <v>-5677200</v>
       </c>
       <c r="P13">
-        <v>84326978000</v>
+        <v>-112371270000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1675678500000</v>
+        <v>1675676280000</v>
       </c>
       <c r="B14">
-        <v>3850300</v>
+        <v>3114900</v>
       </c>
       <c r="C14">
-        <v>1891000</v>
+        <v>1994900</v>
       </c>
       <c r="D14">
-        <v>33000</v>
+        <v>20700</v>
       </c>
       <c r="E14">
-        <v>63560365000</v>
+        <v>59410328000</v>
       </c>
       <c r="F14">
-        <v>39433704000</v>
+        <v>38288438000</v>
       </c>
       <c r="G14">
-        <v>657873000</v>
+        <v>403102000</v>
       </c>
       <c r="H14">
-        <v>5774300</v>
+        <v>5130500</v>
       </c>
       <c r="I14">
-        <v>103651942000</v>
+        <v>98101868000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-02-06T10:15:00.000Z</v>
+        <v>2023-02-06T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>2054932963000</v>
+        <v>973096374000</v>
       </c>
       <c r="L14">
-        <v>121906500</v>
+        <v>59135300</v>
       </c>
       <c r="M14">
-        <v>-1959300</v>
+        <v>-1120000</v>
       </c>
       <c r="N14">
-        <v>-24126661000</v>
+        <v>-21121890000</v>
       </c>
       <c r="O14">
-        <v>3557200</v>
+        <v>-6797200</v>
       </c>
       <c r="P14">
-        <v>60200317000</v>
+        <v>-133493160000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1675678800000</v>
+        <v>1675676400000</v>
       </c>
       <c r="B15">
-        <v>2074300</v>
+        <v>1070600</v>
       </c>
       <c r="C15">
-        <v>2229900</v>
+        <v>1945600</v>
       </c>
       <c r="D15">
-        <v>1400</v>
+        <v>16200</v>
       </c>
       <c r="E15">
-        <v>35900631000</v>
+        <v>17411558000</v>
       </c>
       <c r="F15">
-        <v>44332372000</v>
+        <v>35299940000</v>
       </c>
       <c r="G15">
-        <v>20510000</v>
+        <v>238165000</v>
       </c>
       <c r="H15">
-        <v>4305600</v>
+        <v>3032400</v>
       </c>
       <c r="I15">
-        <v>80253513000</v>
+        <v>52949663000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-02-06T10:20:00.000Z</v>
+        <v>2023-02-06T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>2135186476000</v>
+        <v>1026046037000</v>
       </c>
       <c r="L15">
-        <v>126212100</v>
+        <v>62167700</v>
       </c>
       <c r="M15">
-        <v>155600</v>
+        <v>875000</v>
       </c>
       <c r="N15">
-        <v>8431741000</v>
+        <v>17888382000</v>
       </c>
       <c r="O15">
-        <v>3712800</v>
+        <v>-5922200</v>
       </c>
       <c r="P15">
-        <v>68632058000</v>
+        <v>-115604778000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1675679100000</v>
+        <v>1675676520000</v>
       </c>
       <c r="B16">
-        <v>2002900</v>
+        <v>1049100</v>
       </c>
       <c r="C16">
-        <v>2800100</v>
+        <v>2806100</v>
       </c>
       <c r="D16">
-        <v>7500</v>
+        <v>16800</v>
       </c>
       <c r="E16">
-        <v>42983824000</v>
+        <v>17604404000</v>
       </c>
       <c r="F16">
-        <v>54250732000</v>
+        <v>45594834000</v>
       </c>
       <c r="G16">
-        <v>216749000</v>
+        <v>161052000</v>
       </c>
       <c r="H16">
-        <v>4810500</v>
+        <v>3872000</v>
       </c>
       <c r="I16">
-        <v>97451305000</v>
+        <v>63360290000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-02-06T10:25:00.000Z</v>
+        <v>2023-02-06T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>2232637781000</v>
+        <v>1089406327000</v>
       </c>
       <c r="L16">
-        <v>131022600</v>
+        <v>66039700</v>
       </c>
       <c r="M16">
-        <v>797200</v>
+        <v>1757000</v>
       </c>
       <c r="N16">
-        <v>11266908000</v>
+        <v>27990430000</v>
       </c>
       <c r="O16">
-        <v>4510000</v>
+        <v>-4165200</v>
       </c>
       <c r="P16">
-        <v>79898966000</v>
+        <v>-87614348000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1675679400000</v>
+        <v>1675676640000</v>
       </c>
       <c r="B17">
-        <v>1258500</v>
+        <v>1450800</v>
       </c>
       <c r="C17">
-        <v>3856600</v>
+        <v>3069800</v>
       </c>
       <c r="D17">
-        <v>14900</v>
+        <v>5400</v>
       </c>
       <c r="E17">
-        <v>22819172000</v>
+        <v>24238305000</v>
       </c>
       <c r="F17">
-        <v>74531456000</v>
+        <v>50963435000</v>
       </c>
       <c r="G17">
-        <v>411942000</v>
+        <v>165705000</v>
       </c>
       <c r="H17">
-        <v>5130000</v>
+        <v>4526000</v>
       </c>
       <c r="I17">
-        <v>97762570000</v>
+        <v>75367445000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-02-06T10:30:00.000Z</v>
+        <v>2023-02-06T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>2330400351000</v>
+        <v>1164773772000</v>
       </c>
       <c r="L17">
-        <v>136152600</v>
+        <v>70565700</v>
       </c>
       <c r="M17">
-        <v>2598100</v>
+        <v>1619000</v>
       </c>
       <c r="N17">
-        <v>51712284000</v>
+        <v>26725130000</v>
       </c>
       <c r="O17">
-        <v>7108100</v>
+        <v>-2546200</v>
       </c>
       <c r="P17">
-        <v>131611250000</v>
+        <v>-60889218000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1675679700000</v>
+        <v>1675676760000</v>
       </c>
       <c r="B18">
-        <v>1664100</v>
+        <v>222500</v>
       </c>
       <c r="C18">
-        <v>4662400</v>
+        <v>444100</v>
       </c>
       <c r="D18">
-        <v>46900</v>
+        <v>1000</v>
       </c>
       <c r="E18">
-        <v>31956406000</v>
+        <v>4406656000</v>
       </c>
       <c r="F18">
-        <v>83779592000</v>
+        <v>8145768000</v>
       </c>
       <c r="G18">
-        <v>399039000</v>
+        <v>42950000</v>
       </c>
       <c r="H18">
-        <v>6373400</v>
+        <v>667600</v>
       </c>
       <c r="I18">
-        <v>116135037000</v>
+        <v>12595374000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-02-06T10:35:00.000Z</v>
+        <v>2023-02-06T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>2446535388000</v>
+        <v>1177369146000</v>
       </c>
       <c r="L18">
-        <v>142526000</v>
+        <v>71233300</v>
       </c>
       <c r="M18">
-        <v>2998300</v>
+        <v>221600</v>
       </c>
       <c r="N18">
-        <v>51823186000</v>
+        <v>3739112000</v>
       </c>
       <c r="O18">
-        <v>10106400</v>
+        <v>-2324600</v>
       </c>
       <c r="P18">
-        <v>183434436000</v>
+        <v>-57150106000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1675680000000</v>
+        <v>1675676880000</v>
       </c>
       <c r="B19">
-        <v>3319800</v>
+        <v>836300</v>
       </c>
       <c r="C19">
-        <v>2750000</v>
+        <v>710600</v>
       </c>
       <c r="D19">
-        <v>5700</v>
+        <v>7000</v>
       </c>
       <c r="E19">
-        <v>63425707000</v>
+        <v>15669672000</v>
       </c>
       <c r="F19">
-        <v>49152978000</v>
+        <v>11835015000</v>
       </c>
       <c r="G19">
-        <v>86200000</v>
+        <v>162170000</v>
       </c>
       <c r="H19">
-        <v>6075500</v>
+        <v>1553900</v>
       </c>
       <c r="I19">
-        <v>112664885000</v>
+        <v>27666857000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-02-06T10:40:00.000Z</v>
+        <v>2023-02-06T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>2559200273000</v>
+        <v>1205036003000</v>
       </c>
       <c r="L19">
-        <v>148601500</v>
+        <v>72787200</v>
       </c>
       <c r="M19">
-        <v>-569800</v>
+        <v>-125700</v>
       </c>
       <c r="N19">
-        <v>-14272729000</v>
+        <v>-3834657000</v>
       </c>
       <c r="O19">
-        <v>9536600</v>
+        <v>-2450300</v>
       </c>
       <c r="P19">
-        <v>169161707000</v>
+        <v>-60984763000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1675680300000</v>
+        <v>1675677000000</v>
       </c>
       <c r="B20">
-        <v>1501700</v>
+        <v>1587400</v>
       </c>
       <c r="C20">
-        <v>3066500</v>
+        <v>2307100</v>
       </c>
       <c r="D20">
-        <v>3700</v>
+        <v>1400</v>
       </c>
       <c r="E20">
-        <v>35392826000</v>
+        <v>25263317000</v>
       </c>
       <c r="F20">
-        <v>61524775000</v>
+        <v>37500602000</v>
       </c>
       <c r="G20">
-        <v>148380000</v>
+        <v>15466000</v>
       </c>
       <c r="H20">
-        <v>4571900</v>
+        <v>3895900</v>
       </c>
       <c r="I20">
-        <v>97065981000</v>
+        <v>62779385000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-02-06T10:45:00.000Z</v>
+        <v>2023-02-06T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>2656266254000</v>
+        <v>1267815388000</v>
       </c>
       <c r="L20">
-        <v>153173400</v>
+        <v>76683100</v>
       </c>
       <c r="M20">
-        <v>1564800</v>
+        <v>719700</v>
       </c>
       <c r="N20">
-        <v>26131949000</v>
+        <v>12237285000</v>
       </c>
       <c r="O20">
-        <v>11101400</v>
+        <v>-1730600</v>
       </c>
       <c r="P20">
-        <v>195293656000</v>
+        <v>-48747478000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1675680600000</v>
+        <v>1675677120000</v>
       </c>
       <c r="B21">
-        <v>1555200</v>
+        <v>1119800</v>
       </c>
       <c r="C21">
-        <v>3738200</v>
+        <v>3510100</v>
       </c>
       <c r="D21">
-        <v>13800</v>
+        <v>8000</v>
       </c>
       <c r="E21">
-        <v>27458655000</v>
+        <v>24056141000</v>
       </c>
       <c r="F21">
-        <v>69731375000</v>
+        <v>58588887000</v>
       </c>
       <c r="G21">
-        <v>69960000</v>
+        <v>127170000</v>
       </c>
       <c r="H21">
-        <v>5307200</v>
+        <v>4637900</v>
       </c>
       <c r="I21">
-        <v>97259990000</v>
+        <v>82772198000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-02-06T10:50:00.000Z</v>
+        <v>2023-02-06T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2753526244000</v>
+        <v>1350587586000</v>
       </c>
       <c r="L21">
-        <v>158480600</v>
+        <v>81321000</v>
       </c>
       <c r="M21">
-        <v>2183000</v>
+        <v>2390300</v>
       </c>
       <c r="N21">
-        <v>42272720000</v>
+        <v>34532746000</v>
       </c>
       <c r="O21">
-        <v>13284400</v>
+        <v>659700</v>
       </c>
       <c r="P21">
-        <v>237566376000</v>
+        <v>-14214732000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1675680900000</v>
+        <v>1675677240000</v>
       </c>
       <c r="B22">
-        <v>2655200</v>
+        <v>1323000</v>
       </c>
       <c r="C22">
-        <v>3561000</v>
+        <v>2853000</v>
       </c>
       <c r="D22">
-        <v>7600</v>
+        <v>10600</v>
       </c>
       <c r="E22">
-        <v>57501313000</v>
+        <v>22684878000</v>
       </c>
       <c r="F22">
-        <v>64472011000</v>
+        <v>47234737000</v>
       </c>
       <c r="G22">
-        <v>270630000</v>
+        <v>49415000</v>
       </c>
       <c r="H22">
-        <v>6223800</v>
+        <v>4186600</v>
       </c>
       <c r="I22">
-        <v>122243954000</v>
+        <v>69969030000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-02-06T10:55:00.000Z</v>
+        <v>2023-02-06T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2875770198000</v>
+        <v>1420556616000</v>
       </c>
       <c r="L22">
-        <v>164704400</v>
+        <v>85507600</v>
       </c>
       <c r="M22">
-        <v>905800</v>
+        <v>1530000</v>
       </c>
       <c r="N22">
-        <v>6970698000</v>
+        <v>24549859000</v>
       </c>
       <c r="O22">
-        <v>14190200</v>
+        <v>2189700</v>
       </c>
       <c r="P22">
-        <v>244537074000</v>
+        <v>10335127000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1675681200000</v>
+        <v>1675677360000</v>
       </c>
       <c r="B23">
-        <v>1295200</v>
+        <v>1189500</v>
       </c>
       <c r="C23">
-        <v>2191500</v>
+        <v>3347100</v>
       </c>
       <c r="D23">
-        <v>3500</v>
+        <v>8800</v>
       </c>
       <c r="E23">
-        <v>20749117000</v>
+        <v>17910856000</v>
       </c>
       <c r="F23">
-        <v>42459399000</v>
+        <v>53734104000</v>
       </c>
       <c r="G23">
-        <v>174251000</v>
+        <v>47802000</v>
       </c>
       <c r="H23">
-        <v>3490200</v>
+        <v>4545400</v>
       </c>
       <c r="I23">
-        <v>63382767000</v>
+        <v>71692762000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-02-06T11:00:00.000Z</v>
+        <v>2023-02-06T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2939152965000</v>
+        <v>1492249378000</v>
       </c>
       <c r="L23">
-        <v>168194600</v>
+        <v>90053000</v>
       </c>
       <c r="M23">
-        <v>896300</v>
+        <v>2157600</v>
       </c>
       <c r="N23">
-        <v>21710282000</v>
+        <v>35823248000</v>
       </c>
       <c r="O23">
-        <v>15086500</v>
+        <v>4347300</v>
       </c>
       <c r="P23">
-        <v>266247356000</v>
+        <v>46158375000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1675681500000</v>
+        <v>1675677480000</v>
       </c>
       <c r="B24">
-        <v>1427700</v>
+        <v>1195300</v>
       </c>
       <c r="C24">
-        <v>2907300</v>
+        <v>2640200</v>
       </c>
       <c r="D24">
-        <v>21700</v>
+        <v>6700</v>
       </c>
       <c r="E24">
-        <v>25868810000</v>
+        <v>16040193000</v>
       </c>
       <c r="F24">
-        <v>54957553000</v>
+        <v>44498449000</v>
       </c>
       <c r="G24">
-        <v>435642000</v>
+        <v>60933000</v>
       </c>
       <c r="H24">
-        <v>4356700</v>
+        <v>3842200</v>
       </c>
       <c r="I24">
-        <v>81262005000</v>
+        <v>60599575000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-02-06T11:05:00.000Z</v>
+        <v>2023-02-06T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>3020414970000</v>
+        <v>1552848953000</v>
       </c>
       <c r="L24">
-        <v>172551300</v>
+        <v>93895200</v>
       </c>
       <c r="M24">
-        <v>1479600</v>
+        <v>1444900</v>
       </c>
       <c r="N24">
-        <v>29088743000</v>
+        <v>28458256000</v>
       </c>
       <c r="O24">
-        <v>16566100</v>
+        <v>5792200</v>
       </c>
       <c r="P24">
-        <v>295336099000</v>
+        <v>74616631000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1675681800000</v>
+        <v>1675677600000</v>
       </c>
       <c r="B25">
-        <v>2270800</v>
+        <v>1618400</v>
       </c>
       <c r="C25">
-        <v>2668600</v>
+        <v>1819600</v>
       </c>
       <c r="D25">
-        <v>11900</v>
+        <v>10900</v>
       </c>
       <c r="E25">
-        <v>43683066000</v>
+        <v>27376116000</v>
       </c>
       <c r="F25">
-        <v>51227166000</v>
+        <v>30154871000</v>
       </c>
       <c r="G25">
-        <v>183749000</v>
+        <v>123127000</v>
       </c>
       <c r="H25">
-        <v>4951300</v>
+        <v>3448900</v>
       </c>
       <c r="I25">
-        <v>95093981000</v>
+        <v>57654114000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-02-06T11:10:00.000Z</v>
+        <v>2023-02-06T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>3115508951000</v>
+        <v>1610503067000</v>
       </c>
       <c r="L25">
-        <v>177502600</v>
+        <v>97344100</v>
       </c>
       <c r="M25">
-        <v>397800</v>
+        <v>201200</v>
       </c>
       <c r="N25">
-        <v>7544100000</v>
+        <v>2778755000</v>
       </c>
       <c r="O25">
-        <v>16963900</v>
+        <v>5993400</v>
       </c>
       <c r="P25">
-        <v>302880199000</v>
+        <v>77395386000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1675682100000</v>
+        <v>1675677720000</v>
       </c>
       <c r="B26">
-        <v>2771300</v>
+        <v>1633300</v>
       </c>
       <c r="C26">
-        <v>1805000</v>
+        <v>1052500</v>
       </c>
       <c r="D26">
-        <v>18300</v>
+        <v>32900</v>
       </c>
       <c r="E26">
-        <v>44940639000</v>
+        <v>28109193000</v>
       </c>
       <c r="F26">
-        <v>37726363000</v>
+        <v>16749067000</v>
       </c>
       <c r="G26">
-        <v>177398000</v>
+        <v>945522000</v>
       </c>
       <c r="H26">
-        <v>4594600</v>
+        <v>2718700</v>
       </c>
       <c r="I26">
-        <v>82844400000</v>
+        <v>45803782000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-02-06T11:15:00.000Z</v>
+        <v>2023-02-06T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>3198353351000</v>
+        <v>1656306849000</v>
       </c>
       <c r="L26">
-        <v>182097200</v>
+        <v>100062800</v>
       </c>
       <c r="M26">
-        <v>-966300</v>
+        <v>-580800</v>
       </c>
       <c r="N26">
-        <v>-7214276000</v>
+        <v>-11360126000</v>
       </c>
       <c r="O26">
-        <v>15997600</v>
+        <v>5412600</v>
       </c>
       <c r="P26">
-        <v>295665923000</v>
+        <v>66035260000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1675682400000</v>
+        <v>1675677840000</v>
       </c>
       <c r="B27">
-        <v>3143300</v>
+        <v>1587400</v>
       </c>
       <c r="C27">
-        <v>1114800</v>
+        <v>1181400</v>
       </c>
       <c r="D27">
-        <v>1500</v>
+        <v>8700</v>
       </c>
       <c r="E27">
-        <v>54524697000</v>
+        <v>25953517000</v>
       </c>
       <c r="F27">
-        <v>21862967000</v>
+        <v>21806522000</v>
       </c>
       <c r="G27">
-        <v>19305000</v>
+        <v>120691000</v>
       </c>
       <c r="H27">
-        <v>4259600</v>
+        <v>2777500</v>
       </c>
       <c r="I27">
-        <v>76406969000</v>
+        <v>47880730000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-02-06T11:20:00.000Z</v>
+        <v>2023-02-06T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>3274760320000</v>
+        <v>1704187579000</v>
       </c>
       <c r="L27">
-        <v>186356800</v>
+        <v>102840300</v>
       </c>
       <c r="M27">
-        <v>-2028500</v>
+        <v>-406000</v>
       </c>
       <c r="N27">
-        <v>-32661730000</v>
+        <v>-4146995000</v>
       </c>
       <c r="O27">
-        <v>13969100</v>
+        <v>5006600</v>
       </c>
       <c r="P27">
-        <v>263004193000</v>
+        <v>61888265000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1675682700000</v>
+        <v>1675677960000</v>
       </c>
       <c r="B28">
-        <v>2397900</v>
+        <v>1685200</v>
       </c>
       <c r="C28">
-        <v>1885000</v>
+        <v>2960400</v>
       </c>
       <c r="D28">
-        <v>8900</v>
+        <v>45000</v>
       </c>
       <c r="E28">
-        <v>42494326000</v>
+        <v>24888449000</v>
       </c>
       <c r="F28">
-        <v>51804986000</v>
+        <v>54855607000</v>
       </c>
       <c r="G28">
-        <v>161816000</v>
+        <v>351015000</v>
       </c>
       <c r="H28">
-        <v>4291800</v>
+        <v>4690600</v>
       </c>
       <c r="I28">
-        <v>94461128000</v>
+        <v>80095071000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-02-06T11:25:00.000Z</v>
+        <v>2023-02-06T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>3369221448000</v>
+        <v>1784282650000</v>
       </c>
       <c r="L28">
-        <v>190648600</v>
+        <v>107530900</v>
       </c>
       <c r="M28">
-        <v>-512900</v>
+        <v>1275200</v>
       </c>
       <c r="N28">
-        <v>9310660000</v>
+        <v>29967158000</v>
       </c>
       <c r="O28">
-        <v>13456200</v>
+        <v>6281800</v>
       </c>
       <c r="P28">
-        <v>272314853000</v>
+        <v>91855423000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1675683000000</v>
+        <v>1675678080000</v>
       </c>
       <c r="B29">
-        <v>4300</v>
+        <v>1145500</v>
       </c>
       <c r="C29">
-        <v>700</v>
+        <v>904000</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="E29">
-        <v>68665000</v>
+        <v>19633975000</v>
       </c>
       <c r="F29">
-        <v>2023000</v>
+        <v>19414577000</v>
       </c>
       <c r="G29">
-        <v>0</v>
+        <v>33085000</v>
       </c>
       <c r="H29">
-        <v>5000</v>
+        <v>2052500</v>
       </c>
       <c r="I29">
-        <v>70688000</v>
+        <v>39081637000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-02-06T11:30:00.000Z</v>
+        <v>2023-02-06T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>3369292136000</v>
+        <v>1823364287000</v>
       </c>
       <c r="L29">
-        <v>190653600</v>
+        <v>109583400</v>
       </c>
       <c r="M29">
-        <v>-3600</v>
+        <v>-241500</v>
       </c>
       <c r="N29">
-        <v>-66642000</v>
+        <v>-219398000</v>
       </c>
       <c r="O29">
-        <v>13452600</v>
+        <v>6040300</v>
       </c>
       <c r="P29">
-        <v>272248211000</v>
+        <v>91636025000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1675688400000</v>
+        <v>1675678200000</v>
       </c>
       <c r="B30">
-        <v>6031200</v>
+        <v>1142800</v>
       </c>
       <c r="C30">
-        <v>3877000</v>
+        <v>1243800</v>
       </c>
       <c r="D30">
-        <v>131500</v>
+        <v>15000</v>
       </c>
       <c r="E30">
-        <v>95664668000</v>
+        <v>22261707000</v>
       </c>
       <c r="F30">
-        <v>68669546000</v>
+        <v>25705853000</v>
       </c>
       <c r="G30">
-        <v>2517076000</v>
+        <v>319553000</v>
       </c>
       <c r="H30">
-        <v>10039700</v>
+        <v>2401600</v>
       </c>
       <c r="I30">
-        <v>166851290000</v>
+        <v>48287113000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-02-06T13:00:00.000Z</v>
+        <v>2023-02-06T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>3536143426000</v>
+        <v>1871651400000</v>
       </c>
       <c r="L30">
-        <v>200693300</v>
+        <v>111985000</v>
       </c>
       <c r="M30">
-        <v>-2154200</v>
+        <v>101000</v>
       </c>
       <c r="N30">
-        <v>-26995122000</v>
+        <v>3444146000</v>
       </c>
       <c r="O30">
-        <v>11298400</v>
+        <v>6141300</v>
       </c>
       <c r="P30">
-        <v>245253089000</v>
+        <v>95080171000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1675688700000</v>
+        <v>1675678320000</v>
       </c>
       <c r="B31">
-        <v>3240500</v>
+        <v>1397900</v>
       </c>
       <c r="C31">
-        <v>2186700</v>
+        <v>1175600</v>
       </c>
       <c r="D31">
-        <v>23700</v>
+        <v>6200</v>
       </c>
       <c r="E31">
-        <v>52312936000</v>
+        <v>25461511000</v>
       </c>
       <c r="F31">
-        <v>40841651000</v>
+        <v>21115357000</v>
       </c>
       <c r="G31">
-        <v>200765000</v>
+        <v>109328000</v>
       </c>
       <c r="H31">
-        <v>5450900</v>
+        <v>2579700</v>
       </c>
       <c r="I31">
-        <v>93355352000</v>
+        <v>46686196000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-02-06T13:05:00.000Z</v>
+        <v>2023-02-06T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>3629498778000</v>
+        <v>1918337596000</v>
       </c>
       <c r="L31">
-        <v>206144200</v>
+        <v>114564700</v>
       </c>
       <c r="M31">
-        <v>-1053800</v>
+        <v>-222300</v>
       </c>
       <c r="N31">
-        <v>-11471285000</v>
+        <v>-4346154000</v>
       </c>
       <c r="O31">
-        <v>10244600</v>
+        <v>5919000</v>
       </c>
       <c r="P31">
-        <v>233781804000</v>
+        <v>90734017000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1675689000000</v>
+        <v>1675678440000</v>
       </c>
       <c r="B32">
-        <v>5618200</v>
+        <v>2172700</v>
       </c>
       <c r="C32">
-        <v>2374800</v>
+        <v>1040900</v>
       </c>
       <c r="D32">
-        <v>25100</v>
+        <v>1100</v>
       </c>
       <c r="E32">
-        <v>104821139000</v>
+        <v>40407549000</v>
       </c>
       <c r="F32">
-        <v>45697787000</v>
+        <v>22522817000</v>
       </c>
       <c r="G32">
-        <v>282528000</v>
+        <v>35125000</v>
       </c>
       <c r="H32">
-        <v>8018100</v>
+        <v>3214700</v>
       </c>
       <c r="I32">
-        <v>150801454000</v>
+        <v>62965491000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-02-06T13:10:00.000Z</v>
+        <v>2023-02-06T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>3780300232000</v>
+        <v>1981303087000</v>
       </c>
       <c r="L32">
-        <v>214162300</v>
+        <v>117779400</v>
       </c>
       <c r="M32">
-        <v>-3243400</v>
+        <v>-1131800</v>
       </c>
       <c r="N32">
-        <v>-59123352000</v>
+        <v>-17884732000</v>
       </c>
       <c r="O32">
-        <v>7001200</v>
+        <v>4787200</v>
       </c>
       <c r="P32">
-        <v>174658452000</v>
+        <v>72849285000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1675689300000</v>
+        <v>1675678560000</v>
       </c>
       <c r="B33">
-        <v>7457400</v>
+        <v>1420400</v>
       </c>
       <c r="C33">
-        <v>2903400</v>
+        <v>751900</v>
       </c>
       <c r="D33">
-        <v>48000</v>
+        <v>15300</v>
       </c>
       <c r="E33">
-        <v>117220340000</v>
+        <v>21623670000</v>
       </c>
       <c r="F33">
-        <v>54690347000</v>
+        <v>16647738000</v>
       </c>
       <c r="G33">
-        <v>643591000</v>
+        <v>267584000</v>
       </c>
       <c r="H33">
-        <v>10408800</v>
+        <v>2187600</v>
       </c>
       <c r="I33">
-        <v>172554278000</v>
+        <v>38538992000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-02-06T13:15:00.000Z</v>
+        <v>2023-02-06T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>3952854510000</v>
+        <v>2019842079000</v>
       </c>
       <c r="L33">
-        <v>224571100</v>
+        <v>119967000</v>
       </c>
       <c r="M33">
-        <v>-4554000</v>
+        <v>-668500</v>
       </c>
       <c r="N33">
-        <v>-62529993000</v>
+        <v>-4975932000</v>
       </c>
       <c r="O33">
-        <v>2447200</v>
+        <v>4118700</v>
       </c>
       <c r="P33">
-        <v>112128459000</v>
+        <v>67873353000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1675689600000</v>
+        <v>1675678680000</v>
       </c>
       <c r="B34">
-        <v>2894100</v>
+        <v>1241900</v>
       </c>
       <c r="C34">
-        <v>4897700</v>
+        <v>680400</v>
       </c>
       <c r="D34">
-        <v>19900</v>
+        <v>17200</v>
       </c>
       <c r="E34">
-        <v>51433439000</v>
+        <v>21193023000</v>
       </c>
       <c r="F34">
-        <v>99538079000</v>
+        <v>13519987000</v>
       </c>
       <c r="G34">
-        <v>453478000</v>
+        <v>377874000</v>
       </c>
       <c r="H34">
-        <v>7811700</v>
+        <v>1939500</v>
       </c>
       <c r="I34">
-        <v>151424996000</v>
+        <v>35090884000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-02-06T13:20:00.000Z</v>
+        <v>2023-02-06T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>4104279506000</v>
+        <v>2054932963000</v>
       </c>
       <c r="L34">
-        <v>232382800</v>
+        <v>121906500</v>
       </c>
       <c r="M34">
-        <v>2003600</v>
+        <v>-561500</v>
       </c>
       <c r="N34">
-        <v>48104640000</v>
+        <v>-7673036000</v>
       </c>
       <c r="O34">
-        <v>4450800</v>
+        <v>3557200</v>
       </c>
       <c r="P34">
-        <v>160233099000</v>
+        <v>60200317000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1675689900000</v>
+        <v>1675678800000</v>
       </c>
       <c r="B35">
-        <v>2450600</v>
+        <v>834100</v>
       </c>
       <c r="C35">
-        <v>5772500</v>
+        <v>790200</v>
       </c>
       <c r="D35">
-        <v>26400</v>
+        <v>400</v>
       </c>
       <c r="E35">
-        <v>48823267000</v>
+        <v>16833509000</v>
       </c>
       <c r="F35">
-        <v>98985502000</v>
+        <v>14014668000</v>
       </c>
       <c r="G35">
-        <v>902212000</v>
+        <v>4820000</v>
       </c>
       <c r="H35">
-        <v>8249500</v>
+        <v>1624700</v>
       </c>
       <c r="I35">
-        <v>148710981000</v>
+        <v>30852997000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-02-06T13:25:00.000Z</v>
+        <v>2023-02-06T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>4252990487000</v>
+        <v>2085785960000</v>
       </c>
       <c r="L35">
-        <v>240632300</v>
+        <v>123531200</v>
       </c>
       <c r="M35">
-        <v>3321900</v>
+        <v>-43900</v>
       </c>
       <c r="N35">
-        <v>50162235000</v>
+        <v>-2818841000</v>
       </c>
       <c r="O35">
-        <v>7772700</v>
+        <v>3513300</v>
       </c>
       <c r="P35">
-        <v>210395334000</v>
+        <v>57381476000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1675690200000</v>
+        <v>1675678920000</v>
       </c>
       <c r="B36">
-        <v>4683000</v>
+        <v>784500</v>
       </c>
       <c r="C36">
-        <v>2116800</v>
+        <v>914300</v>
       </c>
       <c r="D36">
-        <v>78900</v>
+        <v>1000</v>
       </c>
       <c r="E36">
-        <v>87464730000</v>
+        <v>10034762000</v>
       </c>
       <c r="F36">
-        <v>44008339000</v>
+        <v>17884748000</v>
       </c>
       <c r="G36">
-        <v>1341329000</v>
+        <v>15690000</v>
       </c>
       <c r="H36">
-        <v>6878700</v>
+        <v>1699800</v>
       </c>
       <c r="I36">
-        <v>132814398000</v>
+        <v>27935200000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-02-06T13:30:00.000Z</v>
+        <v>2023-02-06T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>4385804885000</v>
+        <v>2113721160000</v>
       </c>
       <c r="L36">
-        <v>247511000</v>
+        <v>125231000</v>
       </c>
       <c r="M36">
-        <v>-2566200</v>
+        <v>129800</v>
       </c>
       <c r="N36">
-        <v>-43456391000</v>
+        <v>7849986000</v>
       </c>
       <c r="O36">
-        <v>5206500</v>
+        <v>3643100</v>
       </c>
       <c r="P36">
-        <v>166938943000</v>
+        <v>65231462000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1675690500000</v>
+        <v>1675679040000</v>
       </c>
       <c r="B37">
-        <v>6795700</v>
+        <v>996900</v>
       </c>
       <c r="C37">
-        <v>2626800</v>
+        <v>974900</v>
       </c>
       <c r="D37">
-        <v>30300</v>
+        <v>0</v>
       </c>
       <c r="E37">
-        <v>127624495000</v>
+        <v>21202848000</v>
       </c>
       <c r="F37">
-        <v>55670961000</v>
+        <v>20859417000</v>
       </c>
       <c r="G37">
-        <v>737166000</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>9452800</v>
+        <v>1971800</v>
       </c>
       <c r="I37">
-        <v>184032622000</v>
+        <v>42062265000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-02-06T13:35:00.000Z</v>
+        <v>2023-02-06T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>4569837507000</v>
+        <v>2155783425000</v>
       </c>
       <c r="L37">
-        <v>256963800</v>
+        <v>127202800</v>
       </c>
       <c r="M37">
-        <v>-4168900</v>
+        <v>-22000</v>
       </c>
       <c r="N37">
-        <v>-71953534000</v>
+        <v>-343431000</v>
       </c>
       <c r="O37">
-        <v>1037600</v>
+        <v>3621100</v>
       </c>
       <c r="P37">
-        <v>94985409000</v>
+        <v>64888031000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1675690800000</v>
+        <v>1675679160000</v>
       </c>
       <c r="B38">
-        <v>4821800</v>
+        <v>429500</v>
       </c>
       <c r="C38">
-        <v>3482900</v>
+        <v>1312400</v>
       </c>
       <c r="D38">
-        <v>38000</v>
+        <v>3300</v>
       </c>
       <c r="E38">
-        <v>82817771000</v>
+        <v>7632415000</v>
       </c>
       <c r="F38">
-        <v>69267714000</v>
+        <v>23721266000</v>
       </c>
       <c r="G38">
-        <v>630670000</v>
+        <v>93832000</v>
       </c>
       <c r="H38">
-        <v>8342700</v>
+        <v>1745200</v>
       </c>
       <c r="I38">
-        <v>152716155000</v>
+        <v>31447513000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-02-06T13:40:00.000Z</v>
+        <v>2023-02-06T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>4722553662000</v>
+        <v>2187230938000</v>
       </c>
       <c r="L38">
-        <v>265306500</v>
+        <v>128948000</v>
       </c>
       <c r="M38">
-        <v>-1338900</v>
+        <v>882900</v>
       </c>
       <c r="N38">
-        <v>-13550057000</v>
+        <v>16088851000</v>
       </c>
       <c r="O38">
-        <v>-301300</v>
+        <v>4504000</v>
       </c>
       <c r="P38">
-        <v>81435352000</v>
+        <v>80976882000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1675691100000</v>
+        <v>1675679280000</v>
       </c>
       <c r="B39">
-        <v>4264200</v>
+        <v>1032200</v>
       </c>
       <c r="C39">
-        <v>2967600</v>
+        <v>1038200</v>
       </c>
       <c r="D39">
-        <v>41500</v>
+        <v>4200</v>
       </c>
       <c r="E39">
-        <v>83756901000</v>
+        <v>23180921000</v>
       </c>
       <c r="F39">
-        <v>61150489000</v>
+        <v>22103005000</v>
       </c>
       <c r="G39">
-        <v>796272000</v>
+        <v>122917000</v>
       </c>
       <c r="H39">
-        <v>7273300</v>
+        <v>2074600</v>
       </c>
       <c r="I39">
-        <v>145703662000</v>
+        <v>45406843000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-02-06T13:45:00.000Z</v>
+        <v>2023-02-06T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>4868257324000</v>
+        <v>2232637781000</v>
       </c>
       <c r="L39">
-        <v>272579800</v>
+        <v>131022600</v>
       </c>
       <c r="M39">
-        <v>-1296600</v>
+        <v>6000</v>
       </c>
       <c r="N39">
-        <v>-22606412000</v>
+        <v>-1077916000</v>
       </c>
       <c r="O39">
-        <v>-1597900</v>
+        <v>4510000</v>
       </c>
       <c r="P39">
-        <v>58828940000</v>
+        <v>79898966000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1675691400000</v>
+        <v>1675679400000</v>
       </c>
       <c r="B40">
-        <v>4855600</v>
+        <v>445600</v>
       </c>
       <c r="C40">
-        <v>2965800</v>
+        <v>1099200</v>
       </c>
       <c r="D40">
-        <v>44800</v>
+        <v>6400</v>
       </c>
       <c r="E40">
-        <v>110016326000</v>
+        <v>7888649000</v>
       </c>
       <c r="F40">
-        <v>64787314000</v>
+        <v>24591732000</v>
       </c>
       <c r="G40">
-        <v>634155000</v>
+        <v>281362000</v>
       </c>
       <c r="H40">
-        <v>7866200</v>
+        <v>1551200</v>
       </c>
       <c r="I40">
-        <v>175437795000</v>
+        <v>32761743000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-02-06T13:50:00.000Z</v>
+        <v>2023-02-06T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>5043695119000</v>
+        <v>2265399524000</v>
       </c>
       <c r="L40">
-        <v>280446000</v>
+        <v>132573800</v>
       </c>
       <c r="M40">
-        <v>-1889800</v>
+        <v>653600</v>
       </c>
       <c r="N40">
-        <v>-45229012000</v>
+        <v>16703083000</v>
       </c>
       <c r="O40">
-        <v>-3487700</v>
+        <v>5163600</v>
       </c>
       <c r="P40">
-        <v>13599928000</v>
+        <v>96602049000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1675691700000</v>
+        <v>1675679520000</v>
       </c>
       <c r="B41">
-        <v>2527500</v>
+        <v>447500</v>
       </c>
       <c r="C41">
-        <v>4494600</v>
+        <v>1808300</v>
       </c>
       <c r="D41">
-        <v>11800</v>
+        <v>8300</v>
       </c>
       <c r="E41">
-        <v>54029266000</v>
+        <v>8227259000</v>
       </c>
       <c r="F41">
-        <v>97358754000</v>
+        <v>34385009000</v>
       </c>
       <c r="G41">
-        <v>265300000</v>
+        <v>118820000</v>
       </c>
       <c r="H41">
-        <v>7033900</v>
+        <v>2264100</v>
       </c>
       <c r="I41">
-        <v>151653320000</v>
+        <v>42731088000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-02-06T13:55:00.000Z</v>
+        <v>2023-02-06T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>5195348439000</v>
+        <v>2308130612000</v>
       </c>
       <c r="L41">
-        <v>287479900</v>
+        <v>134837900</v>
       </c>
       <c r="M41">
-        <v>1967100</v>
+        <v>1360800</v>
       </c>
       <c r="N41">
-        <v>43329488000</v>
+        <v>26157750000</v>
       </c>
       <c r="O41">
-        <v>-1520600</v>
+        <v>6524400</v>
       </c>
       <c r="P41">
-        <v>56929416000</v>
+        <v>122759799000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1675692000000</v>
+        <v>1675679640000</v>
       </c>
       <c r="B42">
-        <v>8886800</v>
+        <v>575600</v>
       </c>
       <c r="C42">
-        <v>3004900</v>
+        <v>1757500</v>
       </c>
       <c r="D42">
-        <v>39400</v>
+        <v>200</v>
       </c>
       <c r="E42">
-        <v>165727895000</v>
+        <v>9893704000</v>
       </c>
       <c r="F42">
-        <v>61316205000</v>
+        <v>30540049000</v>
       </c>
       <c r="G42">
-        <v>673962000</v>
+        <v>11760000</v>
       </c>
       <c r="H42">
-        <v>11931100</v>
+        <v>2333300</v>
       </c>
       <c r="I42">
-        <v>227718062000</v>
+        <v>40445513000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-02-06T14:00:00.000Z</v>
+        <v>2023-02-06T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>5423066501000</v>
+        <v>2348576125000</v>
       </c>
       <c r="L42">
-        <v>299411000</v>
+        <v>137171200</v>
       </c>
       <c r="M42">
-        <v>-5881900</v>
+        <v>1181900</v>
       </c>
       <c r="N42">
-        <v>-104411690000</v>
+        <v>20646345000</v>
       </c>
       <c r="O42">
-        <v>-7402500</v>
+        <v>7706300</v>
       </c>
       <c r="P42">
-        <v>-47482274000</v>
+        <v>143406144000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1675692300000</v>
+        <v>1675679760000</v>
       </c>
       <c r="B43">
-        <v>5689800</v>
+        <v>678700</v>
       </c>
       <c r="C43">
-        <v>4309500</v>
+        <v>2382000</v>
       </c>
       <c r="D43">
-        <v>60500</v>
+        <v>3100</v>
       </c>
       <c r="E43">
-        <v>96729679000</v>
+        <v>12548197000</v>
       </c>
       <c r="F43">
-        <v>84382868000</v>
+        <v>40907113000</v>
       </c>
       <c r="G43">
-        <v>1565440000</v>
+        <v>13330000</v>
       </c>
       <c r="H43">
-        <v>10059800</v>
+        <v>3063800</v>
       </c>
       <c r="I43">
-        <v>182677987000</v>
+        <v>53468640000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-02-06T14:05:00.000Z</v>
+        <v>2023-02-06T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>5605744488000</v>
+        <v>2402044765000</v>
       </c>
       <c r="L43">
-        <v>309470800</v>
+        <v>140235000</v>
       </c>
       <c r="M43">
-        <v>-1380300</v>
+        <v>1703300</v>
       </c>
       <c r="N43">
-        <v>-12346811000</v>
+        <v>28358916000</v>
       </c>
       <c r="O43">
-        <v>-8782800</v>
+        <v>9409600</v>
       </c>
       <c r="P43">
-        <v>-59829085000</v>
+        <v>171765060000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1675692600000</v>
+        <v>1675679880000</v>
       </c>
       <c r="B44">
-        <v>2816800</v>
+        <v>775200</v>
       </c>
       <c r="C44">
-        <v>5301600</v>
+        <v>1472000</v>
       </c>
       <c r="D44">
-        <v>41200</v>
+        <v>43800</v>
       </c>
       <c r="E44">
-        <v>53497394000</v>
+        <v>16217769000</v>
       </c>
       <c r="F44">
-        <v>105653518000</v>
+        <v>27887145000</v>
       </c>
       <c r="G44">
-        <v>1270258000</v>
+        <v>385709000</v>
       </c>
       <c r="H44">
-        <v>8159600</v>
+        <v>2291000</v>
       </c>
       <c r="I44">
-        <v>160421170000</v>
+        <v>44490623000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-02-06T14:10:00.000Z</v>
+        <v>2023-02-06T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>5766165658000</v>
+        <v>2446535388000</v>
       </c>
       <c r="L44">
-        <v>317630400</v>
+        <v>142526000</v>
       </c>
       <c r="M44">
-        <v>2484800</v>
+        <v>696800</v>
       </c>
       <c r="N44">
-        <v>52156124000</v>
+        <v>11669376000</v>
       </c>
       <c r="O44">
-        <v>-6298000</v>
+        <v>10106400</v>
       </c>
       <c r="P44">
-        <v>-7672961000</v>
+        <v>183434436000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1675692900000</v>
+        <v>1675680000000</v>
       </c>
       <c r="B45">
-        <v>2742800</v>
+        <v>1536900</v>
       </c>
       <c r="C45">
-        <v>10434200</v>
+        <v>1677600</v>
       </c>
       <c r="D45">
-        <v>27900</v>
+        <v>2700</v>
       </c>
       <c r="E45">
-        <v>50586008000</v>
+        <v>34008612000</v>
       </c>
       <c r="F45">
-        <v>207054146000</v>
+        <v>29425805000</v>
       </c>
       <c r="G45">
-        <v>793930000</v>
+        <v>41350000</v>
       </c>
       <c r="H45">
-        <v>13204900</v>
+        <v>3217200</v>
       </c>
       <c r="I45">
-        <v>258434084000</v>
+        <v>63475767000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-02-06T14:15:00.000Z</v>
+        <v>2023-02-06T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>6024599742000</v>
+        <v>2510011155000</v>
       </c>
       <c r="L45">
-        <v>330835300</v>
+        <v>145743200</v>
       </c>
       <c r="M45">
-        <v>7691400</v>
+        <v>140700</v>
       </c>
       <c r="N45">
-        <v>156468138000</v>
+        <v>-4582807000</v>
       </c>
       <c r="O45">
-        <v>1393400</v>
+        <v>10247100</v>
       </c>
       <c r="P45">
-        <v>148795177000</v>
+        <v>178851629000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1675693200000</v>
+        <v>1675680120000</v>
       </c>
       <c r="B46">
-        <v>3875600</v>
+        <v>1247800</v>
       </c>
       <c r="C46">
-        <v>12044000</v>
+        <v>745300</v>
       </c>
       <c r="D46">
-        <v>33200</v>
+        <v>3000</v>
       </c>
       <c r="E46">
-        <v>73229113000</v>
+        <v>20399296000</v>
       </c>
       <c r="F46">
-        <v>238728170000</v>
+        <v>13553617000</v>
       </c>
       <c r="G46">
-        <v>964819000</v>
+        <v>44850000</v>
       </c>
       <c r="H46">
-        <v>15952800</v>
+        <v>1996100</v>
       </c>
       <c r="I46">
-        <v>312922102000</v>
+        <v>33997763000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-02-06T14:20:00.000Z</v>
+        <v>2023-02-06T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>6337521844000</v>
+        <v>2544008918000</v>
       </c>
       <c r="L46">
-        <v>346788100</v>
+        <v>147739300</v>
       </c>
       <c r="M46">
-        <v>8168400</v>
+        <v>-502500</v>
       </c>
       <c r="N46">
-        <v>165499057000</v>
+        <v>-6845679000</v>
       </c>
       <c r="O46">
-        <v>9561800</v>
+        <v>9744600</v>
       </c>
       <c r="P46">
-        <v>314294234000</v>
+        <v>172005950000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1675693500000</v>
+        <v>1675680240000</v>
       </c>
       <c r="B47">
-        <v>7009000</v>
+        <v>875600</v>
       </c>
       <c r="C47">
-        <v>10672700</v>
+        <v>1364100</v>
       </c>
       <c r="D47">
-        <v>127700</v>
+        <v>200</v>
       </c>
       <c r="E47">
-        <v>117846346000</v>
+        <v>14961166000</v>
       </c>
       <c r="F47">
-        <v>220344585000</v>
+        <v>28208904000</v>
       </c>
       <c r="G47">
-        <v>1491007000</v>
+        <v>15419999.999999998</v>
       </c>
       <c r="H47">
-        <v>17809400</v>
+        <v>2239900</v>
       </c>
       <c r="I47">
-        <v>339681938000</v>
+        <v>43185490000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-02-06T14:25:00.000Z</v>
+        <v>2023-02-06T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>6677203782000</v>
+        <v>2587194408000</v>
       </c>
       <c r="L47">
-        <v>364597500</v>
+        <v>149979200</v>
       </c>
       <c r="M47">
-        <v>3663700</v>
+        <v>488500</v>
       </c>
       <c r="N47">
-        <v>102498239000</v>
+        <v>13247738000</v>
       </c>
       <c r="O47">
-        <v>13225500</v>
+        <v>10233100</v>
       </c>
       <c r="P47">
-        <v>416792473000</v>
+        <v>185253688000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1675693800000</v>
+        <v>1675680360000</v>
       </c>
       <c r="B48">
-        <v>20400</v>
+        <v>532300</v>
       </c>
       <c r="C48">
-        <v>3000</v>
+        <v>1128700</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E48">
-        <v>448620000</v>
+        <v>10565988000</v>
       </c>
       <c r="F48">
-        <v>61375000</v>
+        <v>21931764000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>60890000</v>
       </c>
       <c r="H48">
-        <v>23400</v>
+        <v>1663100</v>
       </c>
       <c r="I48">
-        <v>509995000</v>
+        <v>32558642000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-02-06T14:30:00.000Z</v>
+        <v>2023-02-06T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>6677713777000</v>
+        <v>2619753050000</v>
       </c>
       <c r="L48">
-        <v>364620900</v>
+        <v>151642300</v>
       </c>
       <c r="M48">
-        <v>-17400</v>
+        <v>596400</v>
       </c>
       <c r="N48">
-        <v>-387245000</v>
+        <v>11365776000</v>
       </c>
       <c r="O48">
-        <v>13208100</v>
+        <v>10829500</v>
       </c>
       <c r="P48">
-        <v>416405228000</v>
+        <v>196619464000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1675694700000</v>
+        <v>1675680480000</v>
       </c>
       <c r="B49">
+        <v>628900</v>
+      </c>
+      <c r="C49">
+        <v>900800</v>
+      </c>
+      <c r="D49">
+        <v>1400</v>
+      </c>
+      <c r="E49">
+        <v>18883471000</v>
+      </c>
+      <c r="F49">
+        <v>17557663000</v>
+      </c>
+      <c r="G49">
+        <v>72070000</v>
+      </c>
+      <c r="H49">
+        <v>1531100</v>
+      </c>
+      <c r="I49">
+        <v>36513204000</v>
+      </c>
+      <c r="J49" t="str">
+        <v>2023-02-06T10:48:00.000Z</v>
+      </c>
+      <c r="K49">
+        <v>2656266254000</v>
+      </c>
+      <c r="L49">
+        <v>153173400</v>
+      </c>
+      <c r="M49">
+        <v>271900</v>
+      </c>
+      <c r="N49">
+        <v>-1325808000</v>
+      </c>
+      <c r="O49">
+        <v>11101400</v>
+      </c>
+      <c r="P49">
+        <v>195293656000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50">
+        <v>1675680600000</v>
+      </c>
+      <c r="B50">
+        <v>569100</v>
+      </c>
+      <c r="C50">
+        <v>1551700</v>
+      </c>
+      <c r="D50">
+        <v>1300</v>
+      </c>
+      <c r="E50">
+        <v>9239944000</v>
+      </c>
+      <c r="F50">
+        <v>28064105000</v>
+      </c>
+      <c r="G50">
+        <v>12195000</v>
+      </c>
+      <c r="H50">
+        <v>2122100</v>
+      </c>
+      <c r="I50">
+        <v>37316244000</v>
+      </c>
+      <c r="J50" t="str">
+        <v>2023-02-06T10:50:00.000Z</v>
+      </c>
+      <c r="K50">
+        <v>2693582498000</v>
+      </c>
+      <c r="L50">
+        <v>155295500</v>
+      </c>
+      <c r="M50">
+        <v>982600</v>
+      </c>
+      <c r="N50">
+        <v>18824161000</v>
+      </c>
+      <c r="O50">
+        <v>12084000</v>
+      </c>
+      <c r="P50">
+        <v>214117817000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1675680720000</v>
+      </c>
+      <c r="B51">
+        <v>748000</v>
+      </c>
+      <c r="C51">
+        <v>1441800</v>
+      </c>
+      <c r="D51">
+        <v>500</v>
+      </c>
+      <c r="E51">
+        <v>14052450000</v>
+      </c>
+      <c r="F51">
+        <v>28507816000</v>
+      </c>
+      <c r="G51">
+        <v>14925000</v>
+      </c>
+      <c r="H51">
+        <v>2190300</v>
+      </c>
+      <c r="I51">
+        <v>42575191000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2023-02-06T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>2736157689000</v>
+      </c>
+      <c r="L51">
+        <v>157485800</v>
+      </c>
+      <c r="M51">
+        <v>693800</v>
+      </c>
+      <c r="N51">
+        <v>14455366000</v>
+      </c>
+      <c r="O51">
+        <v>12777800</v>
+      </c>
+      <c r="P51">
+        <v>228573183000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1675680840000</v>
+      </c>
+      <c r="B52">
+        <v>859300</v>
+      </c>
+      <c r="C52">
+        <v>1624400</v>
+      </c>
+      <c r="D52">
+        <v>13500</v>
+      </c>
+      <c r="E52">
+        <v>20489624000</v>
+      </c>
+      <c r="F52">
+        <v>28646185000</v>
+      </c>
+      <c r="G52">
+        <v>126560000</v>
+      </c>
+      <c r="H52">
+        <v>2497200</v>
+      </c>
+      <c r="I52">
+        <v>49262369000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2023-02-06T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>2785420058000</v>
+      </c>
+      <c r="L52">
+        <v>159983000</v>
+      </c>
+      <c r="M52">
+        <v>765100</v>
+      </c>
+      <c r="N52">
+        <v>8156561000</v>
+      </c>
+      <c r="O52">
+        <v>13542900</v>
+      </c>
+      <c r="P52">
+        <v>236729744000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1675680960000</v>
+      </c>
+      <c r="B53">
+        <v>772900</v>
+      </c>
+      <c r="C53">
+        <v>1643800</v>
+      </c>
+      <c r="D53">
+        <v>1100</v>
+      </c>
+      <c r="E53">
+        <v>16024575000</v>
+      </c>
+      <c r="F53">
+        <v>30907543000</v>
+      </c>
+      <c r="G53">
+        <v>67410000</v>
+      </c>
+      <c r="H53">
+        <v>2417800</v>
+      </c>
+      <c r="I53">
+        <v>46999528000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2023-02-06T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>2832419586000</v>
+      </c>
+      <c r="L53">
+        <v>162400800</v>
+      </c>
+      <c r="M53">
+        <v>870900</v>
+      </c>
+      <c r="N53">
+        <v>14882968000</v>
+      </c>
+      <c r="O53">
+        <v>14413800</v>
+      </c>
+      <c r="P53">
+        <v>251612712000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1675681080000</v>
+      </c>
+      <c r="B54">
+        <v>1261100</v>
+      </c>
+      <c r="C54">
+        <v>1037500</v>
+      </c>
+      <c r="D54">
+        <v>5000</v>
+      </c>
+      <c r="E54">
+        <v>25153375000</v>
+      </c>
+      <c r="F54">
+        <v>18077737000</v>
+      </c>
+      <c r="G54">
+        <v>119500000</v>
+      </c>
+      <c r="H54">
+        <v>2303600</v>
+      </c>
+      <c r="I54">
+        <v>43350612000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2023-02-06T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>2875770198000</v>
+      </c>
+      <c r="L54">
+        <v>164704400</v>
+      </c>
+      <c r="M54">
+        <v>-223600</v>
+      </c>
+      <c r="N54">
+        <v>-7075638000</v>
+      </c>
+      <c r="O54">
+        <v>14190200</v>
+      </c>
+      <c r="P54">
+        <v>244537074000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1675681200000</v>
+      </c>
+      <c r="B55">
+        <v>602000</v>
+      </c>
+      <c r="C55">
+        <v>677800</v>
+      </c>
+      <c r="D55">
+        <v>2500</v>
+      </c>
+      <c r="E55">
+        <v>10116928000</v>
+      </c>
+      <c r="F55">
+        <v>12461822000</v>
+      </c>
+      <c r="G55">
+        <v>102451000</v>
+      </c>
+      <c r="H55">
+        <v>1282300</v>
+      </c>
+      <c r="I55">
+        <v>22681201000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2023-02-06T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>2898451399000</v>
+      </c>
+      <c r="L55">
+        <v>165986700</v>
+      </c>
+      <c r="M55">
+        <v>75800</v>
+      </c>
+      <c r="N55">
+        <v>2344894000</v>
+      </c>
+      <c r="O55">
+        <v>14266000</v>
+      </c>
+      <c r="P55">
+        <v>246881968000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1675681320000</v>
+      </c>
+      <c r="B56">
+        <v>554800</v>
+      </c>
+      <c r="C56">
+        <v>952700</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>8307282000</v>
+      </c>
+      <c r="F56">
+        <v>19767924000</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>1507500</v>
+      </c>
+      <c r="I56">
+        <v>28075206000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-02-06T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>2926526605000</v>
+      </c>
+      <c r="L56">
+        <v>167494200</v>
+      </c>
+      <c r="M56">
+        <v>397900</v>
+      </c>
+      <c r="N56">
+        <v>11460642000</v>
+      </c>
+      <c r="O56">
+        <v>14663900</v>
+      </c>
+      <c r="P56">
+        <v>258342610000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1675681440000</v>
+      </c>
+      <c r="B57">
+        <v>394600</v>
+      </c>
+      <c r="C57">
+        <v>1184900</v>
+      </c>
+      <c r="D57">
+        <v>9000</v>
+      </c>
+      <c r="E57">
+        <v>6717771000</v>
+      </c>
+      <c r="F57">
+        <v>21465426000</v>
+      </c>
+      <c r="G57">
+        <v>142200000</v>
+      </c>
+      <c r="H57">
+        <v>1588500</v>
+      </c>
+      <c r="I57">
+        <v>28325397000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-02-06T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>2954852002000</v>
+      </c>
+      <c r="L57">
+        <v>169082700</v>
+      </c>
+      <c r="M57">
+        <v>790300</v>
+      </c>
+      <c r="N57">
+        <v>14747655000</v>
+      </c>
+      <c r="O57">
+        <v>15454200</v>
+      </c>
+      <c r="P57">
+        <v>273090265000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1675681560000</v>
+      </c>
+      <c r="B58">
+        <v>633000</v>
+      </c>
+      <c r="C58">
+        <v>1210300</v>
+      </c>
+      <c r="D58">
+        <v>4500</v>
+      </c>
+      <c r="E58">
+        <v>13304111000</v>
+      </c>
+      <c r="F58">
+        <v>23052274000</v>
+      </c>
+      <c r="G58">
+        <v>88335000</v>
+      </c>
+      <c r="H58">
+        <v>1847800</v>
+      </c>
+      <c r="I58">
+        <v>36444720000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-02-06T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>2991296722000</v>
+      </c>
+      <c r="L58">
+        <v>170930500</v>
+      </c>
+      <c r="M58">
+        <v>577300</v>
+      </c>
+      <c r="N58">
+        <v>9748163000</v>
+      </c>
+      <c r="O58">
+        <v>16031500</v>
+      </c>
+      <c r="P58">
+        <v>282838428000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1675681680000</v>
+      </c>
+      <c r="B59">
+        <v>538500</v>
+      </c>
+      <c r="C59">
+        <v>1073100</v>
+      </c>
+      <c r="D59">
+        <v>9200</v>
+      </c>
+      <c r="E59">
+        <v>8171835000</v>
+      </c>
+      <c r="F59">
+        <v>20669506000</v>
+      </c>
+      <c r="G59">
+        <v>276907000</v>
+      </c>
+      <c r="H59">
+        <v>1620800</v>
+      </c>
+      <c r="I59">
+        <v>29118248000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-02-06T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>3020414970000</v>
+      </c>
+      <c r="L59">
+        <v>172551300</v>
+      </c>
+      <c r="M59">
+        <v>534600</v>
+      </c>
+      <c r="N59">
+        <v>12497671000</v>
+      </c>
+      <c r="O59">
+        <v>16566100</v>
+      </c>
+      <c r="P59">
+        <v>295336099000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1675681800000</v>
+      </c>
+      <c r="B60">
+        <v>681200</v>
+      </c>
+      <c r="C60">
+        <v>1322800</v>
+      </c>
+      <c r="D60">
+        <v>6000</v>
+      </c>
+      <c r="E60">
+        <v>12880556000</v>
+      </c>
+      <c r="F60">
+        <v>27148952000</v>
+      </c>
+      <c r="G60">
+        <v>68209000</v>
+      </c>
+      <c r="H60">
+        <v>2010000</v>
+      </c>
+      <c r="I60">
+        <v>40097717000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-02-06T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>3060512687000</v>
+      </c>
+      <c r="L60">
+        <v>174561300</v>
+      </c>
+      <c r="M60">
+        <v>641600</v>
+      </c>
+      <c r="N60">
+        <v>14268396000</v>
+      </c>
+      <c r="O60">
+        <v>17207700</v>
+      </c>
+      <c r="P60">
+        <v>309604495000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1675681920000</v>
+      </c>
+      <c r="B61">
+        <v>767700</v>
+      </c>
+      <c r="C61">
+        <v>980500</v>
+      </c>
+      <c r="D61">
+        <v>5700</v>
+      </c>
+      <c r="E61">
+        <v>14145935000</v>
+      </c>
+      <c r="F61">
+        <v>17025664000</v>
+      </c>
+      <c r="G61">
+        <v>112630000</v>
+      </c>
+      <c r="H61">
+        <v>1753900</v>
+      </c>
+      <c r="I61">
+        <v>31284229000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-02-06T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>3091796916000</v>
+      </c>
+      <c r="L61">
+        <v>176315200</v>
+      </c>
+      <c r="M61">
+        <v>212800</v>
+      </c>
+      <c r="N61">
+        <v>2879729000</v>
+      </c>
+      <c r="O61">
+        <v>17420500</v>
+      </c>
+      <c r="P61">
+        <v>312484224000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1675682040000</v>
+      </c>
+      <c r="B62">
+        <v>1442300</v>
+      </c>
+      <c r="C62">
+        <v>968400</v>
+      </c>
+      <c r="D62">
+        <v>16600</v>
+      </c>
+      <c r="E62">
+        <v>26524588000</v>
+      </c>
+      <c r="F62">
+        <v>20738991000</v>
+      </c>
+      <c r="G62">
+        <v>167873000</v>
+      </c>
+      <c r="H62">
+        <v>2427300</v>
+      </c>
+      <c r="I62">
+        <v>47431452000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-02-06T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>3139228368000</v>
+      </c>
+      <c r="L62">
+        <v>178742500</v>
+      </c>
+      <c r="M62">
+        <v>-473900</v>
+      </c>
+      <c r="N62">
+        <v>-5785597000</v>
+      </c>
+      <c r="O62">
+        <v>16946600</v>
+      </c>
+      <c r="P62">
+        <v>306698627000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1675682160000</v>
+      </c>
+      <c r="B63">
+        <v>1337600</v>
+      </c>
+      <c r="C63">
+        <v>569900</v>
+      </c>
+      <c r="D63">
+        <v>300</v>
+      </c>
+      <c r="E63">
+        <v>21778068000</v>
+      </c>
+      <c r="F63">
+        <v>11739027000</v>
+      </c>
+      <c r="G63">
+        <v>1435000</v>
+      </c>
+      <c r="H63">
+        <v>1907800</v>
+      </c>
+      <c r="I63">
+        <v>33518530000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-02-06T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>3172746898000</v>
+      </c>
+      <c r="L63">
+        <v>180650300</v>
+      </c>
+      <c r="M63">
+        <v>-767700</v>
+      </c>
+      <c r="N63">
+        <v>-10039041000</v>
+      </c>
+      <c r="O63">
+        <v>16178900</v>
+      </c>
+      <c r="P63">
+        <v>296659586000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1675682280000</v>
+      </c>
+      <c r="B64">
+        <v>813300</v>
+      </c>
+      <c r="C64">
+        <v>632000</v>
+      </c>
+      <c r="D64">
+        <v>1600</v>
+      </c>
+      <c r="E64">
+        <v>13294558000</v>
+      </c>
+      <c r="F64">
+        <v>12300895000</v>
+      </c>
+      <c r="G64">
+        <v>11000000</v>
+      </c>
+      <c r="H64">
+        <v>1446900</v>
+      </c>
+      <c r="I64">
+        <v>25606453000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-02-06T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>3198353351000</v>
+      </c>
+      <c r="L64">
+        <v>182097200</v>
+      </c>
+      <c r="M64">
+        <v>-181300</v>
+      </c>
+      <c r="N64">
+        <v>-993663000</v>
+      </c>
+      <c r="O64">
+        <v>15997600</v>
+      </c>
+      <c r="P64">
+        <v>295665923000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1675682400000</v>
+      </c>
+      <c r="B65">
+        <v>1336900</v>
+      </c>
+      <c r="C65">
+        <v>387600</v>
+      </c>
+      <c r="D65">
+        <v>1500</v>
+      </c>
+      <c r="E65">
+        <v>22714306000</v>
+      </c>
+      <c r="F65">
+        <v>8239388000</v>
+      </c>
+      <c r="G65">
+        <v>19305000</v>
+      </c>
+      <c r="H65">
+        <v>1726000</v>
+      </c>
+      <c r="I65">
+        <v>30972999000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-02-06T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>3229326350000</v>
+      </c>
+      <c r="L65">
+        <v>183823200</v>
+      </c>
+      <c r="M65">
+        <v>-949300</v>
+      </c>
+      <c r="N65">
+        <v>-14474918000</v>
+      </c>
+      <c r="O65">
+        <v>15048300</v>
+      </c>
+      <c r="P65">
+        <v>281191005000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1675682520000</v>
+      </c>
+      <c r="B66">
+        <v>1400000</v>
+      </c>
+      <c r="C66">
+        <v>425100</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>24012311000</v>
+      </c>
+      <c r="F66">
+        <v>8549637000</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>1825100</v>
+      </c>
+      <c r="I66">
+        <v>32561948000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-02-06T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>3261888298000</v>
+      </c>
+      <c r="L66">
+        <v>185648300</v>
+      </c>
+      <c r="M66">
+        <v>-974900</v>
+      </c>
+      <c r="N66">
+        <v>-15462674000</v>
+      </c>
+      <c r="O66">
+        <v>14073400</v>
+      </c>
+      <c r="P66">
+        <v>265728331000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1675682640000</v>
+      </c>
+      <c r="B67">
+        <v>877300</v>
+      </c>
+      <c r="C67">
+        <v>601800</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>13261398000</v>
+      </c>
+      <c r="F67">
+        <v>11204292000</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>1479100</v>
+      </c>
+      <c r="I67">
+        <v>24465690000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-02-06T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>3286353988000</v>
+      </c>
+      <c r="L67">
+        <v>187127400</v>
+      </c>
+      <c r="M67">
+        <v>-275500</v>
+      </c>
+      <c r="N67">
+        <v>-2057106000</v>
+      </c>
+      <c r="O67">
+        <v>13797900</v>
+      </c>
+      <c r="P67">
+        <v>263671225000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1675682760000</v>
+      </c>
+      <c r="B68">
+        <v>923400</v>
+      </c>
+      <c r="C68">
+        <v>508300</v>
+      </c>
+      <c r="D68">
+        <v>7300</v>
+      </c>
+      <c r="E68">
+        <v>18496964000</v>
+      </c>
+      <c r="F68">
+        <v>16657332000</v>
+      </c>
+      <c r="G68">
+        <v>142536000</v>
+      </c>
+      <c r="H68">
+        <v>1439000</v>
+      </c>
+      <c r="I68">
+        <v>35296832000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-02-06T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>3321650820000</v>
+      </c>
+      <c r="L68">
+        <v>188566400</v>
+      </c>
+      <c r="M68">
+        <v>-415100</v>
+      </c>
+      <c r="N68">
+        <v>-1839632000</v>
+      </c>
+      <c r="O68">
+        <v>13382800</v>
+      </c>
+      <c r="P68">
+        <v>261831593000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1675682880000</v>
+      </c>
+      <c r="B69">
+        <v>1003600</v>
+      </c>
+      <c r="C69">
+        <v>1077000</v>
+      </c>
+      <c r="D69">
+        <v>1600</v>
+      </c>
+      <c r="E69">
+        <v>18534044000</v>
+      </c>
+      <c r="F69">
+        <v>29017304000</v>
+      </c>
+      <c r="G69">
+        <v>19280000</v>
+      </c>
+      <c r="H69">
+        <v>2082200</v>
+      </c>
+      <c r="I69">
+        <v>47570628000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-02-06T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>3369221448000</v>
+      </c>
+      <c r="L69">
+        <v>190648600</v>
+      </c>
+      <c r="M69">
+        <v>73400</v>
+      </c>
+      <c r="N69">
+        <v>10483260000</v>
+      </c>
+      <c r="O69">
+        <v>13456200</v>
+      </c>
+      <c r="P69">
+        <v>272314853000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1675683000000</v>
+      </c>
+      <c r="B70">
+        <v>4300</v>
+      </c>
+      <c r="C70">
+        <v>700</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>68665000</v>
+      </c>
+      <c r="F70">
+        <v>2023000</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>5000</v>
+      </c>
+      <c r="I70">
+        <v>70688000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-02-06T11:30:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>3369292136000</v>
+      </c>
+      <c r="L70">
+        <v>190653600</v>
+      </c>
+      <c r="M70">
+        <v>-3600</v>
+      </c>
+      <c r="N70">
+        <v>-66642000</v>
+      </c>
+      <c r="O70">
+        <v>13452600</v>
+      </c>
+      <c r="P70">
+        <v>272248211000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1675688400000</v>
+      </c>
+      <c r="B71">
+        <v>3745800</v>
+      </c>
+      <c r="C71">
+        <v>2535100</v>
+      </c>
+      <c r="D71">
+        <v>123900</v>
+      </c>
+      <c r="E71">
+        <v>61106983000</v>
+      </c>
+      <c r="F71">
+        <v>45154923000</v>
+      </c>
+      <c r="G71">
+        <v>2433337000</v>
+      </c>
+      <c r="H71">
+        <v>6404800</v>
+      </c>
+      <c r="I71">
+        <v>108695243000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-02-06T13:00:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>3477987379000</v>
+      </c>
+      <c r="L71">
+        <v>197058400</v>
+      </c>
+      <c r="M71">
+        <v>-1210700</v>
+      </c>
+      <c r="N71">
+        <v>-15952060000</v>
+      </c>
+      <c r="O71">
+        <v>12241900</v>
+      </c>
+      <c r="P71">
+        <v>256296151000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1675688520000</v>
+      </c>
+      <c r="B72">
+        <v>1281700</v>
+      </c>
+      <c r="C72">
+        <v>942500</v>
+      </c>
+      <c r="D72">
+        <v>2300</v>
+      </c>
+      <c r="E72">
+        <v>17581911000</v>
+      </c>
+      <c r="F72">
+        <v>16619701000</v>
+      </c>
+      <c r="G72">
+        <v>36400000</v>
+      </c>
+      <c r="H72">
+        <v>2226500</v>
+      </c>
+      <c r="I72">
+        <v>34238012000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-02-06T13:02:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>3512225391000</v>
+      </c>
+      <c r="L72">
+        <v>199284900</v>
+      </c>
+      <c r="M72">
+        <v>-339200</v>
+      </c>
+      <c r="N72">
+        <v>-962210000</v>
+      </c>
+      <c r="O72">
+        <v>11902700</v>
+      </c>
+      <c r="P72">
+        <v>255333941000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1675688640000</v>
+      </c>
+      <c r="B73">
+        <v>1645700</v>
+      </c>
+      <c r="C73">
+        <v>815400</v>
+      </c>
+      <c r="D73">
+        <v>5300</v>
+      </c>
+      <c r="E73">
+        <v>27313727000</v>
+      </c>
+      <c r="F73">
+        <v>12966760000</v>
+      </c>
+      <c r="G73">
+        <v>47339000</v>
+      </c>
+      <c r="H73">
+        <v>2466400</v>
+      </c>
+      <c r="I73">
+        <v>40327826000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-02-06T13:04:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>3552553217000</v>
+      </c>
+      <c r="L73">
+        <v>201751300</v>
+      </c>
+      <c r="M73">
+        <v>-830300</v>
+      </c>
+      <c r="N73">
+        <v>-14346967000</v>
+      </c>
+      <c r="O73">
+        <v>11072400</v>
+      </c>
+      <c r="P73">
+        <v>240986974000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1675688760000</v>
+      </c>
+      <c r="B74">
+        <v>1356700</v>
+      </c>
+      <c r="C74">
+        <v>873800</v>
+      </c>
+      <c r="D74">
+        <v>20200</v>
+      </c>
+      <c r="E74">
+        <v>23073963000</v>
+      </c>
+      <c r="F74">
+        <v>16364902000</v>
+      </c>
+      <c r="G74">
+        <v>170169000</v>
+      </c>
+      <c r="H74">
+        <v>2250700</v>
+      </c>
+      <c r="I74">
+        <v>39609034000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-02-06T13:06:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>3592162251000</v>
+      </c>
+      <c r="L74">
+        <v>204002000</v>
+      </c>
+      <c r="M74">
+        <v>-482900</v>
+      </c>
+      <c r="N74">
+        <v>-6709061000</v>
+      </c>
+      <c r="O74">
+        <v>10589500</v>
+      </c>
+      <c r="P74">
+        <v>234277913000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1675688880000</v>
+      </c>
+      <c r="B75">
+        <v>1241800</v>
+      </c>
+      <c r="C75">
+        <v>896900</v>
+      </c>
+      <c r="D75">
+        <v>3500</v>
+      </c>
+      <c r="E75">
+        <v>18901020000</v>
+      </c>
+      <c r="F75">
+        <v>18404911000</v>
+      </c>
+      <c r="G75">
+        <v>30596000</v>
+      </c>
+      <c r="H75">
+        <v>2142200</v>
+      </c>
+      <c r="I75">
+        <v>37336527000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-02-06T13:08:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>3629498778000</v>
+      </c>
+      <c r="L75">
+        <v>206144200</v>
+      </c>
+      <c r="M75">
+        <v>-344900</v>
+      </c>
+      <c r="N75">
+        <v>-496109000</v>
+      </c>
+      <c r="O75">
+        <v>10244600</v>
+      </c>
+      <c r="P75">
+        <v>233781804000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1675689000000</v>
+      </c>
+      <c r="B76">
+        <v>1857600</v>
+      </c>
+      <c r="C76">
+        <v>830900</v>
+      </c>
+      <c r="D76">
+        <v>19900</v>
+      </c>
+      <c r="E76">
+        <v>35774838000</v>
+      </c>
+      <c r="F76">
+        <v>18454745000</v>
+      </c>
+      <c r="G76">
+        <v>232460000</v>
+      </c>
+      <c r="H76">
+        <v>2708400</v>
+      </c>
+      <c r="I76">
+        <v>54462043000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-02-06T13:10:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>3683960821000</v>
+      </c>
+      <c r="L76">
+        <v>208852600</v>
+      </c>
+      <c r="M76">
+        <v>-1026700</v>
+      </c>
+      <c r="N76">
+        <v>-17320093000</v>
+      </c>
+      <c r="O76">
+        <v>9217900</v>
+      </c>
+      <c r="P76">
+        <v>216461711000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1675689120000</v>
+      </c>
+      <c r="B77">
+        <v>2379400</v>
+      </c>
+      <c r="C77">
+        <v>1051500</v>
+      </c>
+      <c r="D77">
+        <v>4100</v>
+      </c>
+      <c r="E77">
+        <v>42806625000</v>
+      </c>
+      <c r="F77">
+        <v>20063193000</v>
+      </c>
+      <c r="G77">
+        <v>42123000</v>
+      </c>
+      <c r="H77">
+        <v>3435000</v>
+      </c>
+      <c r="I77">
+        <v>62911941000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-02-06T13:12:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>3746872762000</v>
+      </c>
+      <c r="L77">
+        <v>212287600</v>
+      </c>
+      <c r="M77">
+        <v>-1327900</v>
+      </c>
+      <c r="N77">
+        <v>-22743432000</v>
+      </c>
+      <c r="O77">
+        <v>7890000</v>
+      </c>
+      <c r="P77">
+        <v>193718279000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1675689240000</v>
+      </c>
+      <c r="B78">
+        <v>2987500</v>
+      </c>
+      <c r="C78">
+        <v>1008400</v>
+      </c>
+      <c r="D78">
+        <v>14400</v>
+      </c>
+      <c r="E78">
+        <v>45911654000</v>
+      </c>
+      <c r="F78">
+        <v>19390692000</v>
+      </c>
+      <c r="G78">
+        <v>201425000</v>
+      </c>
+      <c r="H78">
+        <v>4010300</v>
+      </c>
+      <c r="I78">
+        <v>65503771000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-02-06T13:14:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>3812376533000</v>
+      </c>
+      <c r="L78">
+        <v>216297900</v>
+      </c>
+      <c r="M78">
+        <v>-1979100</v>
+      </c>
+      <c r="N78">
+        <v>-26520962000</v>
+      </c>
+      <c r="O78">
+        <v>5910900</v>
+      </c>
+      <c r="P78">
+        <v>167197317000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1675689360000</v>
+      </c>
+      <c r="B79">
+        <v>3330500</v>
+      </c>
+      <c r="C79">
+        <v>1084800</v>
+      </c>
+      <c r="D79">
+        <v>12900</v>
+      </c>
+      <c r="E79">
+        <v>56401425000</v>
+      </c>
+      <c r="F79">
+        <v>23458830000</v>
+      </c>
+      <c r="G79">
+        <v>294910000</v>
+      </c>
+      <c r="H79">
+        <v>4428200</v>
+      </c>
+      <c r="I79">
+        <v>80155165000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-02-06T13:16:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>3892531698000</v>
+      </c>
+      <c r="L79">
+        <v>220726100</v>
+      </c>
+      <c r="M79">
+        <v>-2245700</v>
+      </c>
+      <c r="N79">
+        <v>-32942595000</v>
+      </c>
+      <c r="O79">
+        <v>3665200</v>
+      </c>
+      <c r="P79">
+        <v>134254722000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1675689480000</v>
+      </c>
+      <c r="B80">
+        <v>2520600</v>
+      </c>
+      <c r="C80">
+        <v>1302600</v>
+      </c>
+      <c r="D80">
+        <v>21800</v>
+      </c>
+      <c r="E80">
+        <v>41146937000</v>
+      </c>
+      <c r="F80">
+        <v>19020674000</v>
+      </c>
+      <c r="G80">
+        <v>155201000</v>
+      </c>
+      <c r="H80">
+        <v>3845000</v>
+      </c>
+      <c r="I80">
+        <v>60322812000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-02-06T13:18:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>3952854510000</v>
+      </c>
+      <c r="L80">
+        <v>224571100</v>
+      </c>
+      <c r="M80">
+        <v>-1218000</v>
+      </c>
+      <c r="N80">
+        <v>-22126263000</v>
+      </c>
+      <c r="O80">
+        <v>2447200</v>
+      </c>
+      <c r="P80">
+        <v>112128459000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1675689600000</v>
+      </c>
+      <c r="B81">
+        <v>1304400</v>
+      </c>
+      <c r="C81">
+        <v>1196800</v>
+      </c>
+      <c r="D81">
+        <v>11500</v>
+      </c>
+      <c r="E81">
+        <v>22279835000</v>
+      </c>
+      <c r="F81">
+        <v>22722522000</v>
+      </c>
+      <c r="G81">
+        <v>285699000</v>
+      </c>
+      <c r="H81">
+        <v>2512700</v>
+      </c>
+      <c r="I81">
+        <v>45288056000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-02-06T13:20:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>3998142566000</v>
+      </c>
+      <c r="L81">
+        <v>227083800</v>
+      </c>
+      <c r="M81">
+        <v>-107600</v>
+      </c>
+      <c r="N81">
+        <v>442687000</v>
+      </c>
+      <c r="O81">
+        <v>2339600</v>
+      </c>
+      <c r="P81">
+        <v>112571146000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1675689720000</v>
+      </c>
+      <c r="B82">
+        <v>1037400</v>
+      </c>
+      <c r="C82">
+        <v>2459700</v>
+      </c>
+      <c r="D82">
+        <v>5600</v>
+      </c>
+      <c r="E82">
+        <v>16769021000</v>
+      </c>
+      <c r="F82">
+        <v>51878274000</v>
+      </c>
+      <c r="G82">
+        <v>89847000</v>
+      </c>
+      <c r="H82">
+        <v>3502700</v>
+      </c>
+      <c r="I82">
+        <v>68737142000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-02-06T13:22:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>4066879708000</v>
+      </c>
+      <c r="L82">
+        <v>230586500</v>
+      </c>
+      <c r="M82">
+        <v>1422300</v>
+      </c>
+      <c r="N82">
+        <v>35109253000</v>
+      </c>
+      <c r="O82">
+        <v>3761900</v>
+      </c>
+      <c r="P82">
+        <v>147680399000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1675689840000</v>
+      </c>
+      <c r="B83">
+        <v>857700</v>
+      </c>
+      <c r="C83">
+        <v>2508100</v>
+      </c>
+      <c r="D83">
+        <v>4000</v>
+      </c>
+      <c r="E83">
+        <v>17730089000</v>
+      </c>
+      <c r="F83">
+        <v>47273574000</v>
+      </c>
+      <c r="G83">
+        <v>117497000</v>
+      </c>
+      <c r="H83">
+        <v>3369800</v>
+      </c>
+      <c r="I83">
+        <v>65121160000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-02-06T13:24:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>4132000868000</v>
+      </c>
+      <c r="L83">
+        <v>233956300</v>
+      </c>
+      <c r="M83">
+        <v>1650400</v>
+      </c>
+      <c r="N83">
+        <v>29543485000</v>
+      </c>
+      <c r="O83">
+        <v>5412300</v>
+      </c>
+      <c r="P83">
+        <v>177223884000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1675689960000</v>
+      </c>
+      <c r="B84">
+        <v>834600</v>
+      </c>
+      <c r="C84">
+        <v>2956700</v>
+      </c>
+      <c r="D84">
+        <v>11000</v>
+      </c>
+      <c r="E84">
+        <v>18864390000</v>
+      </c>
+      <c r="F84">
+        <v>48405085000</v>
+      </c>
+      <c r="G84">
+        <v>418552000</v>
+      </c>
+      <c r="H84">
+        <v>3802300</v>
+      </c>
+      <c r="I84">
+        <v>67688027000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-02-06T13:26:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>4199688895000</v>
+      </c>
+      <c r="L84">
+        <v>237758600</v>
+      </c>
+      <c r="M84">
+        <v>2122100</v>
+      </c>
+      <c r="N84">
+        <v>29540695000</v>
+      </c>
+      <c r="O84">
+        <v>7534400</v>
+      </c>
+      <c r="P84">
+        <v>206764579000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1675690080000</v>
+      </c>
+      <c r="B85">
+        <v>1310600</v>
+      </c>
+      <c r="C85">
+        <v>1548900</v>
+      </c>
+      <c r="D85">
+        <v>14200</v>
+      </c>
+      <c r="E85">
+        <v>24613371000</v>
+      </c>
+      <c r="F85">
+        <v>28244126000</v>
+      </c>
+      <c r="G85">
+        <v>444095000</v>
+      </c>
+      <c r="H85">
+        <v>2873700</v>
+      </c>
+      <c r="I85">
+        <v>53301592000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-02-06T13:28:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>4252990487000</v>
+      </c>
+      <c r="L85">
+        <v>240632300</v>
+      </c>
+      <c r="M85">
+        <v>238300</v>
+      </c>
+      <c r="N85">
+        <v>3630755000</v>
+      </c>
+      <c r="O85">
+        <v>7772700</v>
+      </c>
+      <c r="P85">
+        <v>210395334000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1675690200000</v>
+      </c>
+      <c r="B86">
+        <v>2104400</v>
+      </c>
+      <c r="C86">
+        <v>699500</v>
+      </c>
+      <c r="D86">
+        <v>1400</v>
+      </c>
+      <c r="E86">
+        <v>41193949000</v>
+      </c>
+      <c r="F86">
+        <v>14229785000</v>
+      </c>
+      <c r="G86">
+        <v>19879000</v>
+      </c>
+      <c r="H86">
+        <v>2805300</v>
+      </c>
+      <c r="I86">
+        <v>55443613000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-02-06T13:30:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>4308434100000</v>
+      </c>
+      <c r="L86">
+        <v>243437600</v>
+      </c>
+      <c r="M86">
+        <v>-1404900</v>
+      </c>
+      <c r="N86">
+        <v>-26964164000</v>
+      </c>
+      <c r="O86">
+        <v>6367800</v>
+      </c>
+      <c r="P86">
+        <v>183431170000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1675690320000</v>
+      </c>
+      <c r="B87">
+        <v>1766000</v>
+      </c>
+      <c r="C87">
+        <v>1027400</v>
+      </c>
+      <c r="D87">
+        <v>69700</v>
+      </c>
+      <c r="E87">
+        <v>30765704000</v>
+      </c>
+      <c r="F87">
+        <v>21631791000</v>
+      </c>
+      <c r="G87">
+        <v>1123060000</v>
+      </c>
+      <c r="H87">
+        <v>2863100</v>
+      </c>
+      <c r="I87">
+        <v>53520555000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-02-06T13:32:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>4361954655000</v>
+      </c>
+      <c r="L87">
+        <v>246300700</v>
+      </c>
+      <c r="M87">
+        <v>-738600</v>
+      </c>
+      <c r="N87">
+        <v>-9133913000</v>
+      </c>
+      <c r="O87">
+        <v>5629200</v>
+      </c>
+      <c r="P87">
+        <v>174297257000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1675690440000</v>
+      </c>
+      <c r="B88">
+        <v>2018800</v>
+      </c>
+      <c r="C88">
+        <v>791100</v>
+      </c>
+      <c r="D88">
+        <v>11200</v>
+      </c>
+      <c r="E88">
+        <v>40968037000</v>
+      </c>
+      <c r="F88">
+        <v>15179667000</v>
+      </c>
+      <c r="G88">
+        <v>215306000</v>
+      </c>
+      <c r="H88">
+        <v>2821100</v>
+      </c>
+      <c r="I88">
+        <v>56363010000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-02-06T13:34:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>4418317665000</v>
+      </c>
+      <c r="L88">
+        <v>249121800</v>
+      </c>
+      <c r="M88">
+        <v>-1227700</v>
+      </c>
+      <c r="N88">
+        <v>-25788370000</v>
+      </c>
+      <c r="O88">
+        <v>4401500</v>
+      </c>
+      <c r="P88">
+        <v>148508887000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1675690560000</v>
+      </c>
+      <c r="B89">
+        <v>1936100</v>
+      </c>
+      <c r="C89">
+        <v>1161300</v>
+      </c>
+      <c r="D89">
+        <v>14600</v>
+      </c>
+      <c r="E89">
+        <v>38524998000</v>
+      </c>
+      <c r="F89">
+        <v>25342795000</v>
+      </c>
+      <c r="G89">
+        <v>460556000</v>
+      </c>
+      <c r="H89">
+        <v>3112000</v>
+      </c>
+      <c r="I89">
+        <v>64328349000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-02-06T13:36:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>4482646014000</v>
+      </c>
+      <c r="L89">
+        <v>252233800</v>
+      </c>
+      <c r="M89">
+        <v>-774800</v>
+      </c>
+      <c r="N89">
+        <v>-13182203000</v>
+      </c>
+      <c r="O89">
+        <v>3626700</v>
+      </c>
+      <c r="P89">
+        <v>135326684000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1675690680000</v>
+      </c>
+      <c r="B90">
+        <v>3653400</v>
+      </c>
+      <c r="C90">
+        <v>1064300</v>
+      </c>
+      <c r="D90">
+        <v>12300</v>
+      </c>
+      <c r="E90">
+        <v>63636537000</v>
+      </c>
+      <c r="F90">
+        <v>23295262000</v>
+      </c>
+      <c r="G90">
+        <v>259694000</v>
+      </c>
+      <c r="H90">
+        <v>4730000</v>
+      </c>
+      <c r="I90">
+        <v>87191493000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-02-06T13:38:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>4569837507000</v>
+      </c>
+      <c r="L90">
+        <v>256963800</v>
+      </c>
+      <c r="M90">
+        <v>-2589100</v>
+      </c>
+      <c r="N90">
+        <v>-40341275000</v>
+      </c>
+      <c r="O90">
+        <v>1037600</v>
+      </c>
+      <c r="P90">
+        <v>94985409000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1675690800000</v>
+      </c>
+      <c r="B91">
+        <v>2891600</v>
+      </c>
+      <c r="C91">
+        <v>1021800</v>
+      </c>
+      <c r="D91">
+        <v>33200</v>
+      </c>
+      <c r="E91">
+        <v>49190783000</v>
+      </c>
+      <c r="F91">
+        <v>26822835000</v>
+      </c>
+      <c r="G91">
+        <v>579935000</v>
+      </c>
+      <c r="H91">
+        <v>3946600</v>
+      </c>
+      <c r="I91">
+        <v>76593553000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-02-06T13:40:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>4646431060000</v>
+      </c>
+      <c r="L91">
+        <v>260910400</v>
+      </c>
+      <c r="M91">
+        <v>-1869800</v>
+      </c>
+      <c r="N91">
+        <v>-22367948000</v>
+      </c>
+      <c r="O91">
+        <v>-832200</v>
+      </c>
+      <c r="P91">
+        <v>72617461000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1675690920000</v>
+      </c>
+      <c r="B92">
+        <v>1363300</v>
+      </c>
+      <c r="C92">
+        <v>1813100</v>
+      </c>
+      <c r="D92">
+        <v>4800</v>
+      </c>
+      <c r="E92">
+        <v>22962296000</v>
+      </c>
+      <c r="F92">
+        <v>30313621000</v>
+      </c>
+      <c r="G92">
+        <v>50735000</v>
+      </c>
+      <c r="H92">
+        <v>3181200</v>
+      </c>
+      <c r="I92">
+        <v>53326652000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-02-06T13:42:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>4699757712000</v>
+      </c>
+      <c r="L92">
+        <v>264091600</v>
+      </c>
+      <c r="M92">
+        <v>449800</v>
+      </c>
+      <c r="N92">
+        <v>7351325000</v>
+      </c>
+      <c r="O92">
+        <v>-382400</v>
+      </c>
+      <c r="P92">
+        <v>79968786000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1675691040000</v>
+      </c>
+      <c r="B93">
+        <v>1335200</v>
+      </c>
+      <c r="C93">
+        <v>1294200</v>
+      </c>
+      <c r="D93">
+        <v>5300</v>
+      </c>
+      <c r="E93">
+        <v>24377614000</v>
+      </c>
+      <c r="F93">
+        <v>25011789000</v>
+      </c>
+      <c r="G93">
+        <v>205000000</v>
+      </c>
+      <c r="H93">
+        <v>2634700</v>
+      </c>
+      <c r="I93">
+        <v>49594403000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-02-06T13:44:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>4749352115000</v>
+      </c>
+      <c r="L93">
+        <v>266726300</v>
+      </c>
+      <c r="M93">
+        <v>-41000</v>
+      </c>
+      <c r="N93">
+        <v>634175000</v>
+      </c>
+      <c r="O93">
+        <v>-423400</v>
+      </c>
+      <c r="P93">
+        <v>80602961000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1675691160000</v>
+      </c>
+      <c r="B94">
+        <v>2096100</v>
+      </c>
+      <c r="C94">
+        <v>1139600</v>
+      </c>
+      <c r="D94">
+        <v>19500</v>
+      </c>
+      <c r="E94">
+        <v>40699776000</v>
+      </c>
+      <c r="F94">
+        <v>24117634000</v>
+      </c>
+      <c r="G94">
+        <v>447873000</v>
+      </c>
+      <c r="H94">
+        <v>3255200</v>
+      </c>
+      <c r="I94">
+        <v>65265283000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-02-06T13:46:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>4814617398000</v>
+      </c>
+      <c r="L94">
+        <v>269981500</v>
+      </c>
+      <c r="M94">
+        <v>-956500</v>
+      </c>
+      <c r="N94">
+        <v>-16582142000</v>
+      </c>
+      <c r="O94">
+        <v>-1379900</v>
+      </c>
+      <c r="P94">
+        <v>64020819000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1675691280000</v>
+      </c>
+      <c r="B95">
+        <v>1399800</v>
+      </c>
+      <c r="C95">
+        <v>1181800</v>
+      </c>
+      <c r="D95">
+        <v>16700</v>
+      </c>
+      <c r="E95">
+        <v>29344203000</v>
+      </c>
+      <c r="F95">
+        <v>24152324000</v>
+      </c>
+      <c r="G95">
+        <v>143399000</v>
+      </c>
+      <c r="H95">
+        <v>2598300</v>
+      </c>
+      <c r="I95">
+        <v>53639926000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-02-06T13:48:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>4868257324000</v>
+      </c>
+      <c r="L95">
+        <v>272579800</v>
+      </c>
+      <c r="M95">
+        <v>-218000</v>
+      </c>
+      <c r="N95">
+        <v>-5191879000</v>
+      </c>
+      <c r="O95">
+        <v>-1597900</v>
+      </c>
+      <c r="P95">
+        <v>58828940000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1675691400000</v>
+      </c>
+      <c r="B96">
+        <v>2147700</v>
+      </c>
+      <c r="C96">
+        <v>1052800</v>
+      </c>
+      <c r="D96">
+        <v>2900</v>
+      </c>
+      <c r="E96">
+        <v>57975673000</v>
+      </c>
+      <c r="F96">
+        <v>21234696000</v>
+      </c>
+      <c r="G96">
+        <v>61825000</v>
+      </c>
+      <c r="H96">
+        <v>3203400</v>
+      </c>
+      <c r="I96">
+        <v>79272194000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-02-06T13:50:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>4947529518000</v>
+      </c>
+      <c r="L96">
+        <v>275783200</v>
+      </c>
+      <c r="M96">
+        <v>-1094900</v>
+      </c>
+      <c r="N96">
+        <v>-36740977000</v>
+      </c>
+      <c r="O96">
+        <v>-2692800</v>
+      </c>
+      <c r="P96">
+        <v>22087963000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1675691520000</v>
+      </c>
+      <c r="B97">
+        <v>1703100</v>
+      </c>
+      <c r="C97">
+        <v>1036000</v>
+      </c>
+      <c r="D97">
+        <v>2500</v>
+      </c>
+      <c r="E97">
+        <v>34068198000</v>
+      </c>
+      <c r="F97">
+        <v>21484953000</v>
+      </c>
+      <c r="G97">
+        <v>51480000</v>
+      </c>
+      <c r="H97">
+        <v>2741600</v>
+      </c>
+      <c r="I97">
+        <v>55604631000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-02-06T13:52:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>5003134149000</v>
+      </c>
+      <c r="L97">
+        <v>278524800</v>
+      </c>
+      <c r="M97">
+        <v>-667100</v>
+      </c>
+      <c r="N97">
+        <v>-12583245000</v>
+      </c>
+      <c r="O97">
+        <v>-3359900</v>
+      </c>
+      <c r="P97">
+        <v>9504718000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1675691640000</v>
+      </c>
+      <c r="B98">
+        <v>1624200</v>
+      </c>
+      <c r="C98">
+        <v>1415000</v>
+      </c>
+      <c r="D98">
+        <v>39400</v>
+      </c>
+      <c r="E98">
+        <v>29412427000</v>
+      </c>
+      <c r="F98">
+        <v>32455866000</v>
+      </c>
+      <c r="G98">
+        <v>520850000</v>
+      </c>
+      <c r="H98">
+        <v>3078600</v>
+      </c>
+      <c r="I98">
+        <v>62389143000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-02-06T13:54:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>5065523292000</v>
+      </c>
+      <c r="L98">
+        <v>281603400</v>
+      </c>
+      <c r="M98">
+        <v>-209200</v>
+      </c>
+      <c r="N98">
+        <v>3043439000</v>
+      </c>
+      <c r="O98">
+        <v>-3569100</v>
+      </c>
+      <c r="P98">
+        <v>12548157000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1675691760000</v>
+      </c>
+      <c r="B99">
+        <v>1103700</v>
+      </c>
+      <c r="C99">
+        <v>2127200</v>
+      </c>
+      <c r="D99">
+        <v>4200</v>
+      </c>
+      <c r="E99">
+        <v>24422294000</v>
+      </c>
+      <c r="F99">
+        <v>45637922000</v>
+      </c>
+      <c r="G99">
+        <v>105356000</v>
+      </c>
+      <c r="H99">
+        <v>3235100</v>
+      </c>
+      <c r="I99">
+        <v>70165572000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-02-06T13:56:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>5135688864000</v>
+      </c>
+      <c r="L99">
+        <v>284838500</v>
+      </c>
+      <c r="M99">
+        <v>1023500</v>
+      </c>
+      <c r="N99">
+        <v>21215628000</v>
+      </c>
+      <c r="O99">
+        <v>-2545600</v>
+      </c>
+      <c r="P99">
+        <v>33763785000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1675691880000</v>
+      </c>
+      <c r="B100">
+        <v>804400</v>
+      </c>
+      <c r="C100">
+        <v>1829400</v>
+      </c>
+      <c r="D100">
+        <v>7600</v>
+      </c>
+      <c r="E100">
+        <v>18167000000</v>
+      </c>
+      <c r="F100">
+        <v>41332631000</v>
+      </c>
+      <c r="G100">
+        <v>159944000</v>
+      </c>
+      <c r="H100">
+        <v>2641400</v>
+      </c>
+      <c r="I100">
+        <v>59659575000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-02-06T13:58:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>5195348439000</v>
+      </c>
+      <c r="L100">
+        <v>287479900</v>
+      </c>
+      <c r="M100">
+        <v>1025000</v>
+      </c>
+      <c r="N100">
+        <v>23165631000</v>
+      </c>
+      <c r="O100">
+        <v>-1520600</v>
+      </c>
+      <c r="P100">
+        <v>56929416000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1675692000000</v>
+      </c>
+      <c r="B101">
+        <v>2963500</v>
+      </c>
+      <c r="C101">
+        <v>1371200</v>
+      </c>
+      <c r="D101">
+        <v>22400</v>
+      </c>
+      <c r="E101">
+        <v>63375826000</v>
+      </c>
+      <c r="F101">
+        <v>29870772000</v>
+      </c>
+      <c r="G101">
+        <v>374295000</v>
+      </c>
+      <c r="H101">
+        <v>4357100</v>
+      </c>
+      <c r="I101">
+        <v>93620893000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-02-06T14:00:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>5288969332000</v>
+      </c>
+      <c r="L101">
+        <v>291837000</v>
+      </c>
+      <c r="M101">
+        <v>-1592300</v>
+      </c>
+      <c r="N101">
+        <v>-33505054000</v>
+      </c>
+      <c r="O101">
+        <v>-3112900</v>
+      </c>
+      <c r="P101">
+        <v>23424362000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1675692120000</v>
+      </c>
+      <c r="B102">
+        <v>4577100</v>
+      </c>
+      <c r="C102">
+        <v>848400</v>
+      </c>
+      <c r="D102">
+        <v>10500</v>
+      </c>
+      <c r="E102">
+        <v>79603625000</v>
+      </c>
+      <c r="F102">
+        <v>15818173000</v>
+      </c>
+      <c r="G102">
+        <v>185317000</v>
+      </c>
+      <c r="H102">
+        <v>5436000</v>
+      </c>
+      <c r="I102">
+        <v>95607115000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-02-06T14:02:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>5384576447000</v>
+      </c>
+      <c r="L102">
+        <v>297273000</v>
+      </c>
+      <c r="M102">
+        <v>-3728700</v>
+      </c>
+      <c r="N102">
+        <v>-63785452000</v>
+      </c>
+      <c r="O102">
+        <v>-6841600</v>
+      </c>
+      <c r="P102">
+        <v>-40361090000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1675692240000</v>
+      </c>
+      <c r="B103">
+        <v>2949700</v>
+      </c>
+      <c r="C103">
+        <v>1610900</v>
+      </c>
+      <c r="D103">
+        <v>18900</v>
+      </c>
+      <c r="E103">
+        <v>53975150000</v>
+      </c>
+      <c r="F103">
+        <v>30276586000</v>
+      </c>
+      <c r="G103">
+        <v>290129000</v>
+      </c>
+      <c r="H103">
+        <v>4579500</v>
+      </c>
+      <c r="I103">
+        <v>84541865000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-02-06T14:04:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>5469118312000</v>
+      </c>
+      <c r="L103">
+        <v>301852500</v>
+      </c>
+      <c r="M103">
+        <v>-1338800</v>
+      </c>
+      <c r="N103">
+        <v>-23698564000</v>
+      </c>
+      <c r="O103">
+        <v>-8180400</v>
+      </c>
+      <c r="P103">
+        <v>-64059654000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1675692360000</v>
+      </c>
+      <c r="B104">
+        <v>2804100</v>
+      </c>
+      <c r="C104">
+        <v>1706300</v>
+      </c>
+      <c r="D104">
+        <v>19600</v>
+      </c>
+      <c r="E104">
+        <v>43013179000</v>
+      </c>
+      <c r="F104">
+        <v>36118317000</v>
+      </c>
+      <c r="G104">
+        <v>284956000</v>
+      </c>
+      <c r="H104">
+        <v>4530000</v>
+      </c>
+      <c r="I104">
+        <v>79416452000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-02-06T14:06:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>5548534764000</v>
+      </c>
+      <c r="L104">
+        <v>306382500</v>
+      </c>
+      <c r="M104">
+        <v>-1097800</v>
+      </c>
+      <c r="N104">
+        <v>-6894862000</v>
+      </c>
+      <c r="O104">
+        <v>-9278200</v>
+      </c>
+      <c r="P104">
+        <v>-70954516000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1675692480000</v>
+      </c>
+      <c r="B105">
+        <v>1282200</v>
+      </c>
+      <c r="C105">
+        <v>1777600</v>
+      </c>
+      <c r="D105">
+        <v>28500</v>
+      </c>
+      <c r="E105">
+        <v>22489794000</v>
+      </c>
+      <c r="F105">
+        <v>33615225000</v>
+      </c>
+      <c r="G105">
+        <v>1104705000</v>
+      </c>
+      <c r="H105">
+        <v>3088300</v>
+      </c>
+      <c r="I105">
+        <v>57209724000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-02-06T14:08:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>5605744488000</v>
+      </c>
+      <c r="L105">
+        <v>309470800</v>
+      </c>
+      <c r="M105">
+        <v>495400</v>
+      </c>
+      <c r="N105">
+        <v>11125431000</v>
+      </c>
+      <c r="O105">
+        <v>-8782800</v>
+      </c>
+      <c r="P105">
+        <v>-59829085000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1675692600000</v>
+      </c>
+      <c r="B106">
+        <v>1201100</v>
+      </c>
+      <c r="C106">
+        <v>2273600</v>
+      </c>
+      <c r="D106">
+        <v>33400</v>
+      </c>
+      <c r="E106">
+        <v>23082089000</v>
+      </c>
+      <c r="F106">
+        <v>41886556000</v>
+      </c>
+      <c r="G106">
+        <v>1232028000</v>
+      </c>
+      <c r="H106">
+        <v>3508100</v>
+      </c>
+      <c r="I106">
+        <v>66200673000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-02-06T14:10:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>5671945161000</v>
+      </c>
+      <c r="L106">
+        <v>312978900</v>
+      </c>
+      <c r="M106">
+        <v>1072500</v>
+      </c>
+      <c r="N106">
+        <v>18804467000</v>
+      </c>
+      <c r="O106">
+        <v>-7710300</v>
+      </c>
+      <c r="P106">
+        <v>-41024618000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1675692720000</v>
+      </c>
+      <c r="B107">
+        <v>1143300</v>
+      </c>
+      <c r="C107">
+        <v>1897400</v>
+      </c>
+      <c r="D107">
+        <v>3200</v>
+      </c>
+      <c r="E107">
+        <v>21167620000</v>
+      </c>
+      <c r="F107">
+        <v>42142910000</v>
+      </c>
+      <c r="G107">
+        <v>19810000</v>
+      </c>
+      <c r="H107">
+        <v>3043900</v>
+      </c>
+      <c r="I107">
+        <v>63330340000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-02-06T14:12:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>5735275501000</v>
+      </c>
+      <c r="L107">
+        <v>316022800</v>
+      </c>
+      <c r="M107">
+        <v>754100</v>
+      </c>
+      <c r="N107">
+        <v>20975290000</v>
+      </c>
+      <c r="O107">
+        <v>-6956200</v>
+      </c>
+      <c r="P107">
+        <v>-20049328000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1675692840000</v>
+      </c>
+      <c r="B108">
+        <v>995000</v>
+      </c>
+      <c r="C108">
+        <v>2007100</v>
+      </c>
+      <c r="D108">
+        <v>4900</v>
+      </c>
+      <c r="E108">
+        <v>19375115000</v>
+      </c>
+      <c r="F108">
+        <v>37877472000</v>
+      </c>
+      <c r="G108">
+        <v>31945000</v>
+      </c>
+      <c r="H108">
+        <v>3007000</v>
+      </c>
+      <c r="I108">
+        <v>57284532000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-02-06T14:14:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>5792560033000</v>
+      </c>
+      <c r="L108">
+        <v>319029800</v>
+      </c>
+      <c r="M108">
+        <v>1012100</v>
+      </c>
+      <c r="N108">
+        <v>18502357000</v>
+      </c>
+      <c r="O108">
+        <v>-5944100</v>
+      </c>
+      <c r="P108">
+        <v>-1546971000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1675692960000</v>
+      </c>
+      <c r="B109">
+        <v>1080300</v>
+      </c>
+      <c r="C109">
+        <v>3576000</v>
+      </c>
+      <c r="D109">
+        <v>3100</v>
+      </c>
+      <c r="E109">
+        <v>22553968000</v>
+      </c>
+      <c r="F109">
+        <v>81179542000</v>
+      </c>
+      <c r="G109">
+        <v>114529000</v>
+      </c>
+      <c r="H109">
+        <v>4659400</v>
+      </c>
+      <c r="I109">
+        <v>103848039000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-02-06T14:16:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>5896408072000</v>
+      </c>
+      <c r="L109">
+        <v>323689200</v>
+      </c>
+      <c r="M109">
+        <v>2495700</v>
+      </c>
+      <c r="N109">
+        <v>58625574000</v>
+      </c>
+      <c r="O109">
+        <v>-3448400</v>
+      </c>
+      <c r="P109">
+        <v>57078603000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1675693080000</v>
+      </c>
+      <c r="B110">
+        <v>1139900</v>
+      </c>
+      <c r="C110">
+        <v>5981700</v>
+      </c>
+      <c r="D110">
+        <v>24500</v>
+      </c>
+      <c r="E110">
+        <v>17904610000</v>
+      </c>
+      <c r="F110">
+        <v>109621184000</v>
+      </c>
+      <c r="G110">
+        <v>665876000</v>
+      </c>
+      <c r="H110">
+        <v>7146100</v>
+      </c>
+      <c r="I110">
+        <v>128191670000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-02-06T14:18:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>6024599742000</v>
+      </c>
+      <c r="L110">
+        <v>330835300</v>
+      </c>
+      <c r="M110">
+        <v>4841800</v>
+      </c>
+      <c r="N110">
+        <v>91716574000</v>
+      </c>
+      <c r="O110">
+        <v>1393400</v>
+      </c>
+      <c r="P110">
+        <v>148795177000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1675693200000</v>
+      </c>
+      <c r="B111">
+        <v>1323900</v>
+      </c>
+      <c r="C111">
+        <v>4059700</v>
+      </c>
+      <c r="D111">
+        <v>2100</v>
+      </c>
+      <c r="E111">
+        <v>27761228000</v>
+      </c>
+      <c r="F111">
+        <v>75926723000</v>
+      </c>
+      <c r="G111">
+        <v>53793000</v>
+      </c>
+      <c r="H111">
+        <v>5385700</v>
+      </c>
+      <c r="I111">
+        <v>103741744000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-02-06T14:20:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>6128341486000</v>
+      </c>
+      <c r="L111">
+        <v>336221000</v>
+      </c>
+      <c r="M111">
+        <v>2735800</v>
+      </c>
+      <c r="N111">
+        <v>48165495000</v>
+      </c>
+      <c r="O111">
+        <v>4129200</v>
+      </c>
+      <c r="P111">
+        <v>196960672000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1675693320000</v>
+      </c>
+      <c r="B112">
+        <v>1705900</v>
+      </c>
+      <c r="C112">
+        <v>5302800</v>
+      </c>
+      <c r="D112">
+        <v>30000</v>
+      </c>
+      <c r="E112">
+        <v>32269918000</v>
+      </c>
+      <c r="F112">
+        <v>110168702000</v>
+      </c>
+      <c r="G112">
+        <v>854046000</v>
+      </c>
+      <c r="H112">
+        <v>7038700</v>
+      </c>
+      <c r="I112">
+        <v>143292666000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-02-06T14:22:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>6271634152000</v>
+      </c>
+      <c r="L112">
+        <v>343259700</v>
+      </c>
+      <c r="M112">
+        <v>3596900</v>
+      </c>
+      <c r="N112">
+        <v>77898784000</v>
+      </c>
+      <c r="O112">
+        <v>7726100</v>
+      </c>
+      <c r="P112">
+        <v>274859456000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1675693440000</v>
+      </c>
+      <c r="B113">
+        <v>1653600</v>
+      </c>
+      <c r="C113">
+        <v>5450900</v>
+      </c>
+      <c r="D113">
+        <v>7000</v>
+      </c>
+      <c r="E113">
+        <v>26269391000</v>
+      </c>
+      <c r="F113">
+        <v>123231424000</v>
+      </c>
+      <c r="G113">
+        <v>139777000</v>
+      </c>
+      <c r="H113">
+        <v>7111500</v>
+      </c>
+      <c r="I113">
+        <v>149640592000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-02-06T14:24:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>6421274744000</v>
+      </c>
+      <c r="L113">
+        <v>350371200</v>
+      </c>
+      <c r="M113">
+        <v>3797300</v>
+      </c>
+      <c r="N113">
+        <v>96962033000</v>
+      </c>
+      <c r="O113">
+        <v>11523400</v>
+      </c>
+      <c r="P113">
+        <v>371821489000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1675693560000</v>
+      </c>
+      <c r="B114">
+        <v>2913800</v>
+      </c>
+      <c r="C114">
+        <v>4194500</v>
+      </c>
+      <c r="D114">
+        <v>101200</v>
+      </c>
+      <c r="E114">
+        <v>46142834000</v>
+      </c>
+      <c r="F114">
+        <v>78570283000</v>
+      </c>
+      <c r="G114">
+        <v>962942000</v>
+      </c>
+      <c r="H114">
+        <v>7209500</v>
+      </c>
+      <c r="I114">
+        <v>125676059000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-02-06T14:26:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>6546950803000</v>
+      </c>
+      <c r="L114">
+        <v>357580700</v>
+      </c>
+      <c r="M114">
+        <v>1280700</v>
+      </c>
+      <c r="N114">
+        <v>32427449000</v>
+      </c>
+      <c r="O114">
+        <v>12804100</v>
+      </c>
+      <c r="P114">
+        <v>404248938000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1675693680000</v>
+      </c>
+      <c r="B115">
+        <v>3287400</v>
+      </c>
+      <c r="C115">
+        <v>3708800</v>
+      </c>
+      <c r="D115">
+        <v>20600</v>
+      </c>
+      <c r="E115">
+        <v>58632088000</v>
+      </c>
+      <c r="F115">
+        <v>71175623000</v>
+      </c>
+      <c r="G115">
+        <v>445268000</v>
+      </c>
+      <c r="H115">
+        <v>7016800</v>
+      </c>
+      <c r="I115">
+        <v>130252979000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-02-06T14:28:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>6677203782000</v>
+      </c>
+      <c r="L115">
+        <v>364597500</v>
+      </c>
+      <c r="M115">
+        <v>421400</v>
+      </c>
+      <c r="N115">
+        <v>12543535000</v>
+      </c>
+      <c r="O115">
+        <v>13225500</v>
+      </c>
+      <c r="P115">
+        <v>416792473000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1675693800000</v>
+      </c>
+      <c r="B116">
+        <v>20400</v>
+      </c>
+      <c r="C116">
+        <v>3000</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>448620000</v>
+      </c>
+      <c r="F116">
+        <v>61375000</v>
+      </c>
+      <c r="G116">
+        <v>0</v>
+      </c>
+      <c r="H116">
+        <v>23400</v>
+      </c>
+      <c r="I116">
+        <v>509995000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-02-06T14:30:00.000Z</v>
+      </c>
+      <c r="K116">
+        <v>6677713777000</v>
+      </c>
+      <c r="L116">
+        <v>364620900</v>
+      </c>
+      <c r="M116">
+        <v>-17400</v>
+      </c>
+      <c r="N116">
+        <v>-387245000</v>
+      </c>
+      <c r="O116">
+        <v>13208100</v>
+      </c>
+      <c r="P116">
+        <v>416405228000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <v>1675694640000</v>
+      </c>
+      <c r="B117">
         <v>4979300</v>
       </c>
-      <c r="C49">
+      <c r="C117">
         <v>5630000</v>
       </c>
-      <c r="D49">
+      <c r="D117">
         <v>14640500</v>
       </c>
-      <c r="E49">
+      <c r="E117">
         <v>88367027000</v>
       </c>
-      <c r="F49">
+      <c r="F117">
         <v>151673771000</v>
       </c>
-      <c r="G49">
+      <c r="G117">
         <v>295735316000</v>
       </c>
-      <c r="H49">
+      <c r="H117">
         <v>25249800</v>
       </c>
-      <c r="I49">
+      <c r="I117">
         <v>535776114000</v>
       </c>
-      <c r="J49" t="str">
-        <v>2023-02-06T14:45:00.000Z</v>
-      </c>
-      <c r="K49">
+      <c r="J117" t="str">
+        <v>2023-02-06T14:44:00.000Z</v>
+      </c>
+      <c r="K117">
         <v>7213489891000</v>
       </c>
-      <c r="L49">
+      <c r="L117">
         <v>389870700</v>
       </c>
-      <c r="M49">
+      <c r="M117">
         <v>650700</v>
       </c>
-      <c r="N49">
+      <c r="N117">
         <v>63306744000</v>
       </c>
-      <c r="O49">
+      <c r="O117">
         <v>13858800</v>
       </c>
-      <c r="P49">
+      <c r="P117">
         <v>479711972000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P49"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230206/VNINDEX_HOSE_5p_20230206.xlsx
+++ b/name/vnindex/20230206/VNINDEX_HOSE_5p_20230206.xlsx
@@ -466,25 +466,25 @@
         <v>4431200</v>
       </c>
       <c r="E2">
-        <v>43242712000</v>
+        <v>39340917700</v>
       </c>
       <c r="F2">
-        <v>22858423000</v>
+        <v>20158126000</v>
       </c>
       <c r="G2">
-        <v>50965896000</v>
+        <v>48815049000</v>
       </c>
       <c r="H2">
         <v>8477500</v>
       </c>
       <c r="I2">
-        <v>117067031000</v>
+        <v>108314092700</v>
       </c>
       <c r="J2" t="str">
         <v>2023-02-06T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>117067031000</v>
+        <v>108314092700</v>
       </c>
       <c r="L2">
         <v>8477500</v>
@@ -493,13 +493,13 @@
         <v>-1612300</v>
       </c>
       <c r="N2">
-        <v>-20384289000</v>
+        <v>-19182791700</v>
       </c>
       <c r="O2">
         <v>-1612300</v>
       </c>
       <c r="P2">
-        <v>-20384289000</v>
+        <v>-19182791700</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         <v>13400</v>
       </c>
       <c r="E3">
-        <v>32512783000</v>
+        <v>30428669200</v>
       </c>
       <c r="F3">
-        <v>22371674000</v>
+        <v>20537010500</v>
       </c>
       <c r="G3">
-        <v>431181000</v>
+        <v>421590600</v>
       </c>
       <c r="H3">
         <v>3328900</v>
       </c>
       <c r="I3">
-        <v>55315638000</v>
+        <v>51387270300</v>
       </c>
       <c r="J3" t="str">
         <v>2023-02-06T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>172382669000</v>
+        <v>159701363000</v>
       </c>
       <c r="L3">
         <v>11806400</v>
@@ -543,13 +543,13 @@
         <v>-339900</v>
       </c>
       <c r="N3">
-        <v>-10141109000</v>
+        <v>-9891658700</v>
       </c>
       <c r="O3">
         <v>-1952200</v>
       </c>
       <c r="P3">
-        <v>-30525398000</v>
+        <v>-29074450400</v>
       </c>
     </row>
     <row r="4">
@@ -566,25 +566,25 @@
         <v>700</v>
       </c>
       <c r="E4">
-        <v>40044977000</v>
+        <v>38389833800</v>
       </c>
       <c r="F4">
-        <v>29213023000</v>
+        <v>27843394000</v>
       </c>
       <c r="G4">
-        <v>12880000</v>
+        <v>8584300</v>
       </c>
       <c r="H4">
         <v>4035500</v>
       </c>
       <c r="I4">
-        <v>69270880000</v>
+        <v>66241812100</v>
       </c>
       <c r="J4" t="str">
         <v>2023-02-06T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>241653549000</v>
+        <v>225943175100</v>
       </c>
       <c r="L4">
         <v>15841900</v>
@@ -593,13 +593,13 @@
         <v>-491000</v>
       </c>
       <c r="N4">
-        <v>-10831954000</v>
+        <v>-10546439800</v>
       </c>
       <c r="O4">
         <v>-2443200</v>
       </c>
       <c r="P4">
-        <v>-41357352000</v>
+        <v>-39620890200</v>
       </c>
     </row>
     <row r="5">
@@ -616,10 +616,10 @@
         <v>12300</v>
       </c>
       <c r="E5">
-        <v>42523988000</v>
+        <v>39278037200</v>
       </c>
       <c r="F5">
-        <v>28273493000</v>
+        <v>25946222600</v>
       </c>
       <c r="G5">
         <v>238159000</v>
@@ -628,13 +628,13 @@
         <v>4196100</v>
       </c>
       <c r="I5">
-        <v>71035640000</v>
+        <v>65462418800</v>
       </c>
       <c r="J5" t="str">
         <v>2023-02-06T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>312689189000</v>
+        <v>291405593900</v>
       </c>
       <c r="L5">
         <v>20038000</v>
@@ -643,13 +643,13 @@
         <v>-580600</v>
       </c>
       <c r="N5">
-        <v>-14250495000</v>
+        <v>-13331814600</v>
       </c>
       <c r="O5">
         <v>-3023800</v>
       </c>
       <c r="P5">
-        <v>-55607847000</v>
+        <v>-52952704800</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>62900</v>
       </c>
       <c r="E6">
-        <v>46031415000</v>
+        <v>39374578500</v>
       </c>
       <c r="F6">
-        <v>32104701000</v>
+        <v>29289818700</v>
       </c>
       <c r="G6">
-        <v>2248341000</v>
+        <v>2247142200</v>
       </c>
       <c r="H6">
         <v>4490400</v>
       </c>
       <c r="I6">
-        <v>80384457000</v>
+        <v>70911539400</v>
       </c>
       <c r="J6" t="str">
         <v>2023-02-06T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>393073646000</v>
+        <v>362317133300</v>
       </c>
       <c r="L6">
         <v>24528400</v>
@@ -693,13 +693,13 @@
         <v>-1105300</v>
       </c>
       <c r="N6">
-        <v>-13926714000</v>
+        <v>-10084759800</v>
       </c>
       <c r="O6">
         <v>-4129100</v>
       </c>
       <c r="P6">
-        <v>-69534561000</v>
+        <v>-63037464600</v>
       </c>
     </row>
     <row r="7">
@@ -716,10 +716,10 @@
         <v>34500</v>
       </c>
       <c r="E7">
-        <v>42620907000</v>
+        <v>39548982000</v>
       </c>
       <c r="F7">
-        <v>32050147000</v>
+        <v>29951747500</v>
       </c>
       <c r="G7">
         <v>325942000</v>
@@ -728,13 +728,13 @@
         <v>4516500</v>
       </c>
       <c r="I7">
-        <v>74996996000</v>
+        <v>69826671500</v>
       </c>
       <c r="J7" t="str">
         <v>2023-02-06T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>468070642000</v>
+        <v>432143804800</v>
       </c>
       <c r="L7">
         <v>29044900</v>
@@ -743,13 +743,13 @@
         <v>-724600</v>
       </c>
       <c r="N7">
-        <v>-10570760000</v>
+        <v>-9597234500</v>
       </c>
       <c r="O7">
         <v>-4853700</v>
       </c>
       <c r="P7">
-        <v>-80105321000</v>
+        <v>-72634699100</v>
       </c>
     </row>
     <row r="8">
@@ -766,10 +766,10 @@
         <v>42000</v>
       </c>
       <c r="E8">
-        <v>29236031000</v>
+        <v>25897073300</v>
       </c>
       <c r="F8">
-        <v>35132334000</v>
+        <v>33719348400</v>
       </c>
       <c r="G8">
         <v>395380000</v>
@@ -778,13 +778,13 @@
         <v>4430000</v>
       </c>
       <c r="I8">
-        <v>64763745000</v>
+        <v>60011801700</v>
       </c>
       <c r="J8" t="str">
         <v>2023-02-06T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>532834387000</v>
+        <v>492155606500</v>
       </c>
       <c r="L8">
         <v>33474900</v>
@@ -793,13 +793,13 @@
         <v>534200</v>
       </c>
       <c r="N8">
-        <v>5896303000</v>
+        <v>7822275100</v>
       </c>
       <c r="O8">
         <v>-4319500</v>
       </c>
       <c r="P8">
-        <v>-74209018000</v>
+        <v>-64812424000</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         <v>9700</v>
       </c>
       <c r="E9">
-        <v>32838877000</v>
+        <v>29852166700</v>
       </c>
       <c r="F9">
-        <v>48012734000</v>
+        <v>43991559200</v>
       </c>
       <c r="G9">
         <v>258633000</v>
@@ -828,13 +828,13 @@
         <v>4905900</v>
       </c>
       <c r="I9">
-        <v>81110244000</v>
+        <v>74102358900</v>
       </c>
       <c r="J9" t="str">
         <v>2023-02-06T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>613944631000</v>
+        <v>566257965400</v>
       </c>
       <c r="L9">
         <v>38380800</v>
@@ -843,13 +843,13 @@
         <v>1378200</v>
       </c>
       <c r="N9">
-        <v>15173857000</v>
+        <v>14139392500</v>
       </c>
       <c r="O9">
         <v>-2941300</v>
       </c>
       <c r="P9">
-        <v>-59035161000</v>
+        <v>-50673031500</v>
       </c>
     </row>
     <row r="10">
@@ -866,25 +866,25 @@
         <v>10400</v>
       </c>
       <c r="E10">
-        <v>37045474000</v>
+        <v>30007219300</v>
       </c>
       <c r="F10">
-        <v>25743628000</v>
+        <v>21865110400</v>
       </c>
       <c r="G10">
-        <v>213061000</v>
+        <v>118555600</v>
       </c>
       <c r="H10">
         <v>3767100</v>
       </c>
       <c r="I10">
-        <v>63002163000</v>
+        <v>51990885300</v>
       </c>
       <c r="J10" t="str">
         <v>2023-02-06T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>676946794000</v>
+        <v>618248850700</v>
       </c>
       <c r="L10">
         <v>42147900</v>
@@ -893,13 +893,13 @@
         <v>-513700</v>
       </c>
       <c r="N10">
-        <v>-11301846000</v>
+        <v>-8142108900</v>
       </c>
       <c r="O10">
         <v>-3455000</v>
       </c>
       <c r="P10">
-        <v>-70337007000</v>
+        <v>-58815140400</v>
       </c>
     </row>
     <row r="11">
@@ -916,10 +916,10 @@
         <v>3000</v>
       </c>
       <c r="E11">
-        <v>46527791000</v>
+        <v>39019606700</v>
       </c>
       <c r="F11">
-        <v>24497435000</v>
+        <v>21409226300</v>
       </c>
       <c r="G11">
         <v>63350000</v>
@@ -928,13 +928,13 @@
         <v>4291900</v>
       </c>
       <c r="I11">
-        <v>71088576000</v>
+        <v>60492183000</v>
       </c>
       <c r="J11" t="str">
         <v>2023-02-06T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>748035370000</v>
+        <v>678741033700</v>
       </c>
       <c r="L11">
         <v>46439800</v>
@@ -943,13 +943,13 @@
         <v>-1280900</v>
       </c>
       <c r="N11">
-        <v>-22030356000</v>
+        <v>-17610380400</v>
       </c>
       <c r="O11">
         <v>-4735900</v>
       </c>
       <c r="P11">
-        <v>-92367363000</v>
+        <v>-76425520800</v>
       </c>
     </row>
     <row r="12">
@@ -966,25 +966,25 @@
         <v>72900</v>
       </c>
       <c r="E12">
-        <v>39936889000</v>
+        <v>35073057700</v>
       </c>
       <c r="F12">
-        <v>26872935000</v>
+        <v>25048860900</v>
       </c>
       <c r="G12">
-        <v>1705174000</v>
+        <v>1702276900</v>
       </c>
       <c r="H12">
         <v>4080700</v>
       </c>
       <c r="I12">
-        <v>68514998000</v>
+        <v>61824195500</v>
       </c>
       <c r="J12" t="str">
         <v>2023-02-06T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>816550368000</v>
+        <v>740565229200</v>
       </c>
       <c r="L12">
         <v>50520500</v>
@@ -993,13 +993,13 @@
         <v>-423000</v>
       </c>
       <c r="N12">
-        <v>-13063954000</v>
+        <v>-10024196800</v>
       </c>
       <c r="O12">
         <v>-5158900</v>
       </c>
       <c r="P12">
-        <v>-105431317000</v>
+        <v>-86449717600</v>
       </c>
     </row>
     <row r="13">
@@ -1016,25 +1016,25 @@
         <v>20000</v>
       </c>
       <c r="E13">
-        <v>32576352000</v>
+        <v>30497333100</v>
       </c>
       <c r="F13">
-        <v>25636399000</v>
+        <v>23287849900</v>
       </c>
       <c r="G13">
-        <v>231387000</v>
+        <v>199419000</v>
       </c>
       <c r="H13">
         <v>3484300</v>
       </c>
       <c r="I13">
-        <v>58444138000</v>
+        <v>53984602000</v>
       </c>
       <c r="J13" t="str">
         <v>2023-02-06T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>874994506000</v>
+        <v>794549831200</v>
       </c>
       <c r="L13">
         <v>54004800</v>
@@ -1043,13 +1043,13 @@
         <v>-518300</v>
       </c>
       <c r="N13">
-        <v>-6939953000</v>
+        <v>-7209483200</v>
       </c>
       <c r="O13">
         <v>-5677200</v>
       </c>
       <c r="P13">
-        <v>-112371270000</v>
+        <v>-93659200800</v>
       </c>
     </row>
     <row r="14">
@@ -1066,25 +1066,25 @@
         <v>20700</v>
       </c>
       <c r="E14">
-        <v>59410328000</v>
+        <v>57233706800</v>
       </c>
       <c r="F14">
-        <v>38288438000</v>
+        <v>35854874000</v>
       </c>
       <c r="G14">
-        <v>403102000</v>
+        <v>371134000</v>
       </c>
       <c r="H14">
         <v>5130500</v>
       </c>
       <c r="I14">
-        <v>98101868000</v>
+        <v>93459714800</v>
       </c>
       <c r="J14" t="str">
         <v>2023-02-06T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>973096374000</v>
+        <v>888009546000</v>
       </c>
       <c r="L14">
         <v>59135300</v>
@@ -1093,13 +1093,13 @@
         <v>-1120000</v>
       </c>
       <c r="N14">
-        <v>-21121890000</v>
+        <v>-21378832800</v>
       </c>
       <c r="O14">
         <v>-6797200</v>
       </c>
       <c r="P14">
-        <v>-133493160000</v>
+        <v>-115038033600</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>16200</v>
       </c>
       <c r="E15">
-        <v>17411558000</v>
+        <v>15292279400</v>
       </c>
       <c r="F15">
-        <v>35299940000</v>
+        <v>30496947800</v>
       </c>
       <c r="G15">
         <v>238165000</v>
@@ -1128,13 +1128,13 @@
         <v>3032400</v>
       </c>
       <c r="I15">
-        <v>52949663000</v>
+        <v>46027392200</v>
       </c>
       <c r="J15" t="str">
         <v>2023-02-06T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1026046037000</v>
+        <v>934036938200</v>
       </c>
       <c r="L15">
         <v>62167700</v>
@@ -1143,13 +1143,13 @@
         <v>875000</v>
       </c>
       <c r="N15">
-        <v>17888382000</v>
+        <v>15204668400</v>
       </c>
       <c r="O15">
         <v>-5922200</v>
       </c>
       <c r="P15">
-        <v>-115604778000</v>
+        <v>-99833365200</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>16800</v>
       </c>
       <c r="E16">
-        <v>17604404000</v>
+        <v>16526682800</v>
       </c>
       <c r="F16">
-        <v>45594834000</v>
+        <v>40577456400</v>
       </c>
       <c r="G16">
         <v>161052000</v>
@@ -1178,13 +1178,13 @@
         <v>3872000</v>
       </c>
       <c r="I16">
-        <v>63360290000</v>
+        <v>57265191200</v>
       </c>
       <c r="J16" t="str">
         <v>2023-02-06T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1089406327000</v>
+        <v>991302129400</v>
       </c>
       <c r="L16">
         <v>66039700</v>
@@ -1193,13 +1193,13 @@
         <v>1757000</v>
       </c>
       <c r="N16">
-        <v>27990430000</v>
+        <v>24050773600</v>
       </c>
       <c r="O16">
         <v>-4165200</v>
       </c>
       <c r="P16">
-        <v>-87614348000</v>
+        <v>-75782591600</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>5400</v>
       </c>
       <c r="E17">
-        <v>24238305000</v>
+        <v>22528716300</v>
       </c>
       <c r="F17">
-        <v>50963435000</v>
+        <v>44543661200</v>
       </c>
       <c r="G17">
         <v>165705000</v>
@@ -1228,13 +1228,13 @@
         <v>4526000</v>
       </c>
       <c r="I17">
-        <v>75367445000</v>
+        <v>67238082500</v>
       </c>
       <c r="J17" t="str">
         <v>2023-02-06T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1164773772000</v>
+        <v>1058540211900</v>
       </c>
       <c r="L17">
         <v>70565700</v>
@@ -1243,13 +1243,13 @@
         <v>1619000</v>
       </c>
       <c r="N17">
-        <v>26725130000</v>
+        <v>22014944900</v>
       </c>
       <c r="O17">
         <v>-2546200</v>
       </c>
       <c r="P17">
-        <v>-60889218000</v>
+        <v>-53767646700</v>
       </c>
     </row>
     <row r="18">
@@ -1266,10 +1266,10 @@
         <v>1000</v>
       </c>
       <c r="E18">
-        <v>4406656000</v>
+        <v>3809054200</v>
       </c>
       <c r="F18">
-        <v>8145768000</v>
+        <v>7705009200</v>
       </c>
       <c r="G18">
         <v>42950000</v>
@@ -1278,13 +1278,13 @@
         <v>667600</v>
       </c>
       <c r="I18">
-        <v>12595374000</v>
+        <v>11557013400</v>
       </c>
       <c r="J18" t="str">
         <v>2023-02-06T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1177369146000</v>
+        <v>1070097225300</v>
       </c>
       <c r="L18">
         <v>71233300</v>
@@ -1293,13 +1293,13 @@
         <v>221600</v>
       </c>
       <c r="N18">
-        <v>3739112000</v>
+        <v>3895955000</v>
       </c>
       <c r="O18">
         <v>-2324600</v>
       </c>
       <c r="P18">
-        <v>-57150106000</v>
+        <v>-49871691700</v>
       </c>
     </row>
     <row r="19">
@@ -1316,25 +1316,25 @@
         <v>7000</v>
       </c>
       <c r="E19">
-        <v>15669672000</v>
+        <v>15290751300</v>
       </c>
       <c r="F19">
-        <v>11835015000</v>
+        <v>10186964700</v>
       </c>
       <c r="G19">
-        <v>162170000</v>
+        <v>114917300</v>
       </c>
       <c r="H19">
         <v>1553900</v>
       </c>
       <c r="I19">
-        <v>27666857000</v>
+        <v>25592633300</v>
       </c>
       <c r="J19" t="str">
         <v>2023-02-06T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>1205036003000</v>
+        <v>1095689858600</v>
       </c>
       <c r="L19">
         <v>72787200</v>
@@ -1343,13 +1343,13 @@
         <v>-125700</v>
       </c>
       <c r="N19">
-        <v>-3834657000</v>
+        <v>-5103786600</v>
       </c>
       <c r="O19">
         <v>-2450300</v>
       </c>
       <c r="P19">
-        <v>-60984763000</v>
+        <v>-54975478300</v>
       </c>
     </row>
     <row r="20">
@@ -1366,25 +1366,25 @@
         <v>1400</v>
       </c>
       <c r="E20">
-        <v>25263317000</v>
+        <v>24878602100</v>
       </c>
       <c r="F20">
-        <v>37500602000</v>
+        <v>34790914400</v>
       </c>
       <c r="G20">
-        <v>15466000</v>
+        <v>15066400</v>
       </c>
       <c r="H20">
         <v>3895900</v>
       </c>
       <c r="I20">
-        <v>62779385000</v>
+        <v>59684582900</v>
       </c>
       <c r="J20" t="str">
         <v>2023-02-06T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>1267815388000</v>
+        <v>1155374441500</v>
       </c>
       <c r="L20">
         <v>76683100</v>
@@ -1393,13 +1393,13 @@
         <v>719700</v>
       </c>
       <c r="N20">
-        <v>12237285000</v>
+        <v>9912312300</v>
       </c>
       <c r="O20">
         <v>-1730600</v>
       </c>
       <c r="P20">
-        <v>-48747478000</v>
+        <v>-45063166000</v>
       </c>
     </row>
     <row r="21">
@@ -1416,25 +1416,25 @@
         <v>8000</v>
       </c>
       <c r="E21">
-        <v>24056141000</v>
+        <v>20275425500</v>
       </c>
       <c r="F21">
-        <v>58588887000</v>
+        <v>55297381800</v>
       </c>
       <c r="G21">
-        <v>127170000</v>
+        <v>108189000</v>
       </c>
       <c r="H21">
         <v>4637900</v>
       </c>
       <c r="I21">
-        <v>82772198000</v>
+        <v>75680996300</v>
       </c>
       <c r="J21" t="str">
         <v>2023-02-06T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>1350587586000</v>
+        <v>1231055437800</v>
       </c>
       <c r="L21">
         <v>81321000</v>
@@ -1443,13 +1443,13 @@
         <v>2390300</v>
       </c>
       <c r="N21">
-        <v>34532746000</v>
+        <v>35021956300</v>
       </c>
       <c r="O21">
         <v>659700</v>
       </c>
       <c r="P21">
-        <v>-14214732000</v>
+        <v>-10041209700</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>10600</v>
       </c>
       <c r="E22">
-        <v>22684878000</v>
+        <v>18650516400</v>
       </c>
       <c r="F22">
-        <v>47234737000</v>
+        <v>45898274800</v>
       </c>
       <c r="G22">
         <v>49415000</v>
@@ -1478,13 +1478,13 @@
         <v>4186600</v>
       </c>
       <c r="I22">
-        <v>69969030000</v>
+        <v>64598206200</v>
       </c>
       <c r="J22" t="str">
         <v>2023-02-06T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>1420556616000</v>
+        <v>1295653644000</v>
       </c>
       <c r="L22">
         <v>85507600</v>
@@ -1493,13 +1493,13 @@
         <v>1530000</v>
       </c>
       <c r="N22">
-        <v>24549859000</v>
+        <v>27247758400</v>
       </c>
       <c r="O22">
         <v>2189700</v>
       </c>
       <c r="P22">
-        <v>10335127000</v>
+        <v>17206548700</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>8800</v>
       </c>
       <c r="E23">
-        <v>17910856000</v>
+        <v>15981587200</v>
       </c>
       <c r="F23">
-        <v>53734104000</v>
+        <v>50377064400</v>
       </c>
       <c r="G23">
         <v>47802000</v>
@@ -1528,13 +1528,13 @@
         <v>4545400</v>
       </c>
       <c r="I23">
-        <v>71692762000</v>
+        <v>66406453600</v>
       </c>
       <c r="J23" t="str">
         <v>2023-02-06T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>1492249378000</v>
+        <v>1362060097600</v>
       </c>
       <c r="L23">
         <v>90053000</v>
@@ -1543,13 +1543,13 @@
         <v>2157600</v>
       </c>
       <c r="N23">
-        <v>35823248000</v>
+        <v>34395477200</v>
       </c>
       <c r="O23">
         <v>4347300</v>
       </c>
       <c r="P23">
-        <v>46158375000</v>
+        <v>51602025900</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>6700</v>
       </c>
       <c r="E24">
-        <v>16040193000</v>
+        <v>15097336800</v>
       </c>
       <c r="F24">
-        <v>44498449000</v>
+        <v>42750298900</v>
       </c>
       <c r="G24">
         <v>60933000</v>
@@ -1578,13 +1578,13 @@
         <v>3842200</v>
       </c>
       <c r="I24">
-        <v>60599575000</v>
+        <v>57908568700</v>
       </c>
       <c r="J24" t="str">
         <v>2023-02-06T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>1552848953000</v>
+        <v>1419968666300</v>
       </c>
       <c r="L24">
         <v>93895200</v>
@@ -1593,13 +1593,13 @@
         <v>1444900</v>
       </c>
       <c r="N24">
-        <v>28458256000</v>
+        <v>27652962100</v>
       </c>
       <c r="O24">
         <v>5792200</v>
       </c>
       <c r="P24">
-        <v>74616631000</v>
+        <v>79254988000</v>
       </c>
     </row>
     <row r="25">
@@ -1616,25 +1616,25 @@
         <v>10900</v>
       </c>
       <c r="E25">
-        <v>27376116000</v>
+        <v>25373920200</v>
       </c>
       <c r="F25">
-        <v>30154871000</v>
+        <v>28387540100</v>
       </c>
       <c r="G25">
-        <v>123127000</v>
+        <v>99151000</v>
       </c>
       <c r="H25">
         <v>3448900</v>
       </c>
       <c r="I25">
-        <v>57654114000</v>
+        <v>53860611300</v>
       </c>
       <c r="J25" t="str">
         <v>2023-02-06T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>1610503067000</v>
+        <v>1473829277600</v>
       </c>
       <c r="L25">
         <v>97344100</v>
@@ -1643,13 +1643,13 @@
         <v>201200</v>
       </c>
       <c r="N25">
-        <v>2778755000</v>
+        <v>3013619900</v>
       </c>
       <c r="O25">
         <v>5993400</v>
       </c>
       <c r="P25">
-        <v>77395386000</v>
+        <v>82268607900</v>
       </c>
     </row>
     <row r="26">
@@ -1666,25 +1666,25 @@
         <v>32900</v>
       </c>
       <c r="E26">
-        <v>28109193000</v>
+        <v>24929176200</v>
       </c>
       <c r="F26">
-        <v>16749067000</v>
+        <v>15449967400</v>
       </c>
       <c r="G26">
-        <v>945522000</v>
+        <v>473494500</v>
       </c>
       <c r="H26">
         <v>2718700</v>
       </c>
       <c r="I26">
-        <v>45803782000</v>
+        <v>40852638100</v>
       </c>
       <c r="J26" t="str">
         <v>2023-02-06T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>1656306849000</v>
+        <v>1514681915700</v>
       </c>
       <c r="L26">
         <v>100062800</v>
@@ -1693,13 +1693,13 @@
         <v>-580800</v>
       </c>
       <c r="N26">
-        <v>-11360126000</v>
+        <v>-9479208800</v>
       </c>
       <c r="O26">
         <v>5412600</v>
       </c>
       <c r="P26">
-        <v>66035260000</v>
+        <v>72789399100</v>
       </c>
     </row>
     <row r="27">
@@ -1716,10 +1716,10 @@
         <v>8700</v>
       </c>
       <c r="E27">
-        <v>25953517000</v>
+        <v>23475897100</v>
       </c>
       <c r="F27">
-        <v>21806522000</v>
+        <v>20158072100</v>
       </c>
       <c r="G27">
         <v>120691000</v>
@@ -1728,13 +1728,13 @@
         <v>2777500</v>
       </c>
       <c r="I27">
-        <v>47880730000</v>
+        <v>43754660200</v>
       </c>
       <c r="J27" t="str">
         <v>2023-02-06T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>1704187579000</v>
+        <v>1558436575900</v>
       </c>
       <c r="L27">
         <v>102840300</v>
@@ -1743,13 +1743,13 @@
         <v>-406000</v>
       </c>
       <c r="N27">
-        <v>-4146995000</v>
+        <v>-3317825000</v>
       </c>
       <c r="O27">
         <v>5006600</v>
       </c>
       <c r="P27">
-        <v>61888265000</v>
+        <v>69471574100</v>
       </c>
     </row>
     <row r="28">
@@ -1766,10 +1766,10 @@
         <v>45000</v>
       </c>
       <c r="E28">
-        <v>24888449000</v>
+        <v>22830309200</v>
       </c>
       <c r="F28">
-        <v>54855607000</v>
+        <v>53419644400</v>
       </c>
       <c r="G28">
         <v>351015000</v>
@@ -1778,13 +1778,13 @@
         <v>4690600</v>
       </c>
       <c r="I28">
-        <v>80095071000</v>
+        <v>76600968600</v>
       </c>
       <c r="J28" t="str">
         <v>2023-02-06T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>1784282650000</v>
+        <v>1635037544500</v>
       </c>
       <c r="L28">
         <v>107530900</v>
@@ -1793,13 +1793,13 @@
         <v>1275200</v>
       </c>
       <c r="N28">
-        <v>29967158000</v>
+        <v>30589335200</v>
       </c>
       <c r="O28">
         <v>6281800</v>
       </c>
       <c r="P28">
-        <v>91855423000</v>
+        <v>100060909300</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>3000</v>
       </c>
       <c r="E29">
-        <v>19633975000</v>
+        <v>17511799300</v>
       </c>
       <c r="F29">
-        <v>19414577000</v>
+        <v>18196396400</v>
       </c>
       <c r="G29">
         <v>33085000</v>
@@ -1828,13 +1828,13 @@
         <v>2052500</v>
       </c>
       <c r="I29">
-        <v>39081637000</v>
+        <v>35741280700</v>
       </c>
       <c r="J29" t="str">
         <v>2023-02-06T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>1823364287000</v>
+        <v>1670778825200</v>
       </c>
       <c r="L29">
         <v>109583400</v>
@@ -1843,13 +1843,13 @@
         <v>-241500</v>
       </c>
       <c r="N29">
-        <v>-219398000</v>
+        <v>684597100</v>
       </c>
       <c r="O29">
         <v>6040300</v>
       </c>
       <c r="P29">
-        <v>91636025000</v>
+        <v>100745506400</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>15000</v>
       </c>
       <c r="E30">
-        <v>22261707000</v>
+        <v>20772997200</v>
       </c>
       <c r="F30">
-        <v>25705853000</v>
+        <v>24188172200</v>
       </c>
       <c r="G30">
         <v>319553000</v>
@@ -1878,13 +1878,13 @@
         <v>2401600</v>
       </c>
       <c r="I30">
-        <v>48287113000</v>
+        <v>45280722400</v>
       </c>
       <c r="J30" t="str">
         <v>2023-02-06T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>1871651400000</v>
+        <v>1716059547600</v>
       </c>
       <c r="L30">
         <v>111985000</v>
@@ -1893,13 +1893,13 @@
         <v>101000</v>
       </c>
       <c r="N30">
-        <v>3444146000</v>
+        <v>3415175000</v>
       </c>
       <c r="O30">
         <v>6141300</v>
       </c>
       <c r="P30">
-        <v>95080171000</v>
+        <v>104160681400</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>6200</v>
       </c>
       <c r="E31">
-        <v>25461511000</v>
+        <v>25028644300</v>
       </c>
       <c r="F31">
-        <v>21115357000</v>
+        <v>20659713100</v>
       </c>
       <c r="G31">
         <v>109328000</v>
@@ -1928,13 +1928,13 @@
         <v>2579700</v>
       </c>
       <c r="I31">
-        <v>46686196000</v>
+        <v>45797685400</v>
       </c>
       <c r="J31" t="str">
         <v>2023-02-06T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>1918337596000</v>
+        <v>1761857233000</v>
       </c>
       <c r="L31">
         <v>114564700</v>
@@ -1943,13 +1943,13 @@
         <v>-222300</v>
       </c>
       <c r="N31">
-        <v>-4346154000</v>
+        <v>-4368931200</v>
       </c>
       <c r="O31">
         <v>5919000</v>
       </c>
       <c r="P31">
-        <v>90734017000</v>
+        <v>99791750200</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>1100</v>
       </c>
       <c r="E32">
-        <v>40407549000</v>
+        <v>35355705900</v>
       </c>
       <c r="F32">
-        <v>22522817000</v>
+        <v>22066573700</v>
       </c>
       <c r="G32">
         <v>35125000</v>
@@ -1978,13 +1978,13 @@
         <v>3214700</v>
       </c>
       <c r="I32">
-        <v>62965491000</v>
+        <v>57457404600</v>
       </c>
       <c r="J32" t="str">
         <v>2023-02-06T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>1981303087000</v>
+        <v>1819314637600</v>
       </c>
       <c r="L32">
         <v>117779400</v>
@@ -1993,13 +1993,13 @@
         <v>-1131800</v>
       </c>
       <c r="N32">
-        <v>-17884732000</v>
+        <v>-13289132200</v>
       </c>
       <c r="O32">
         <v>4787200</v>
       </c>
       <c r="P32">
-        <v>72849285000</v>
+        <v>86502618000</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>15300</v>
       </c>
       <c r="E33">
-        <v>21623670000</v>
+        <v>20157337800</v>
       </c>
       <c r="F33">
-        <v>16647738000</v>
+        <v>16433652300</v>
       </c>
       <c r="G33">
         <v>267584000</v>
@@ -2028,13 +2028,13 @@
         <v>2187600</v>
       </c>
       <c r="I33">
-        <v>38538992000</v>
+        <v>36858574100</v>
       </c>
       <c r="J33" t="str">
         <v>2023-02-06T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>2019842079000</v>
+        <v>1856173211700</v>
       </c>
       <c r="L33">
         <v>119967000</v>
@@ -2043,13 +2043,13 @@
         <v>-668500</v>
       </c>
       <c r="N33">
-        <v>-4975932000</v>
+        <v>-3723685500</v>
       </c>
       <c r="O33">
         <v>4118700</v>
       </c>
       <c r="P33">
-        <v>67873353000</v>
+        <v>82778932500</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>17200</v>
       </c>
       <c r="E34">
-        <v>21193023000</v>
+        <v>19758858600</v>
       </c>
       <c r="F34">
-        <v>13519987000</v>
+        <v>11983125400</v>
       </c>
       <c r="G34">
         <v>377874000</v>
@@ -2078,13 +2078,13 @@
         <v>1939500</v>
       </c>
       <c r="I34">
-        <v>35090884000</v>
+        <v>32119858000</v>
       </c>
       <c r="J34" t="str">
         <v>2023-02-06T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>2054932963000</v>
+        <v>1888293069700</v>
       </c>
       <c r="L34">
         <v>121906500</v>
@@ -2093,13 +2093,13 @@
         <v>-561500</v>
       </c>
       <c r="N34">
-        <v>-7673036000</v>
+        <v>-7775733200</v>
       </c>
       <c r="O34">
         <v>3557200</v>
       </c>
       <c r="P34">
-        <v>60200317000</v>
+        <v>75003199300</v>
       </c>
     </row>
     <row r="35">
@@ -2116,10 +2116,10 @@
         <v>400</v>
       </c>
       <c r="E35">
-        <v>16833509000</v>
+        <v>13288257800</v>
       </c>
       <c r="F35">
-        <v>14014668000</v>
+        <v>13650432600</v>
       </c>
       <c r="G35">
         <v>4820000</v>
@@ -2128,13 +2128,13 @@
         <v>1624700</v>
       </c>
       <c r="I35">
-        <v>30852997000</v>
+        <v>26943510400</v>
       </c>
       <c r="J35" t="str">
         <v>2023-02-06T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>2085785960000</v>
+        <v>1915236580100</v>
       </c>
       <c r="L35">
         <v>123531200</v>
@@ -2143,13 +2143,13 @@
         <v>-43900</v>
       </c>
       <c r="N35">
-        <v>-2818841000</v>
+        <v>362174800</v>
       </c>
       <c r="O35">
         <v>3513300</v>
       </c>
       <c r="P35">
-        <v>57381476000</v>
+        <v>75365374100</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>1000</v>
       </c>
       <c r="E36">
-        <v>10034762000</v>
+        <v>9398698700</v>
       </c>
       <c r="F36">
-        <v>17884748000</v>
+        <v>16199335100</v>
       </c>
       <c r="G36">
         <v>15690000</v>
@@ -2178,13 +2178,13 @@
         <v>1699800</v>
       </c>
       <c r="I36">
-        <v>27935200000</v>
+        <v>25613723800</v>
       </c>
       <c r="J36" t="str">
         <v>2023-02-06T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>2113721160000</v>
+        <v>1940850303900</v>
       </c>
       <c r="L36">
         <v>125231000</v>
@@ -2193,13 +2193,13 @@
         <v>129800</v>
       </c>
       <c r="N36">
-        <v>7849986000</v>
+        <v>6800636400</v>
       </c>
       <c r="O36">
         <v>3643100</v>
       </c>
       <c r="P36">
-        <v>65231462000</v>
+        <v>82166010500</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>21202848000</v>
+        <v>20991259800</v>
       </c>
       <c r="F37">
-        <v>20859417000</v>
+        <v>20242035000</v>
       </c>
       <c r="G37">
         <v>0</v>
@@ -2228,13 +2228,13 @@
         <v>1971800</v>
       </c>
       <c r="I37">
-        <v>42062265000</v>
+        <v>41233294800</v>
       </c>
       <c r="J37" t="str">
         <v>2023-02-06T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>2155783425000</v>
+        <v>1982083598700</v>
       </c>
       <c r="L37">
         <v>127202800</v>
@@ -2243,13 +2243,13 @@
         <v>-22000</v>
       </c>
       <c r="N37">
-        <v>-343431000</v>
+        <v>-749224800</v>
       </c>
       <c r="O37">
         <v>3621100</v>
       </c>
       <c r="P37">
-        <v>64888031000</v>
+        <v>81416785700</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>3300</v>
       </c>
       <c r="E38">
-        <v>7632415000</v>
+        <v>7509937600</v>
       </c>
       <c r="F38">
-        <v>23721266000</v>
+        <v>23469917600</v>
       </c>
       <c r="G38">
         <v>93832000</v>
@@ -2278,13 +2278,13 @@
         <v>1745200</v>
       </c>
       <c r="I38">
-        <v>31447513000</v>
+        <v>31073687200</v>
       </c>
       <c r="J38" t="str">
         <v>2023-02-06T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>2187230938000</v>
+        <v>2013157285900</v>
       </c>
       <c r="L38">
         <v>128948000</v>
@@ -2293,13 +2293,13 @@
         <v>882900</v>
       </c>
       <c r="N38">
-        <v>16088851000</v>
+        <v>15959980000</v>
       </c>
       <c r="O38">
         <v>4504000</v>
       </c>
       <c r="P38">
-        <v>80976882000</v>
+        <v>97376765700</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>4200</v>
       </c>
       <c r="E39">
-        <v>23180921000</v>
+        <v>22013789300</v>
       </c>
       <c r="F39">
-        <v>22103005000</v>
+        <v>19819890400</v>
       </c>
       <c r="G39">
         <v>122917000</v>
@@ -2328,13 +2328,13 @@
         <v>2074600</v>
       </c>
       <c r="I39">
-        <v>45406843000</v>
+        <v>41956596700</v>
       </c>
       <c r="J39" t="str">
         <v>2023-02-06T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>2232637781000</v>
+        <v>2055113882600</v>
       </c>
       <c r="L39">
         <v>131022600</v>
@@ -2343,13 +2343,13 @@
         <v>6000</v>
       </c>
       <c r="N39">
-        <v>-1077916000</v>
+        <v>-2193898900</v>
       </c>
       <c r="O39">
         <v>4510000</v>
       </c>
       <c r="P39">
-        <v>79898966000</v>
+        <v>95182866800</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>6400</v>
       </c>
       <c r="E40">
-        <v>7888649000</v>
+        <v>7523614400</v>
       </c>
       <c r="F40">
-        <v>24591732000</v>
+        <v>18260669400</v>
       </c>
       <c r="G40">
         <v>281362000</v>
@@ -2378,13 +2378,13 @@
         <v>1551200</v>
       </c>
       <c r="I40">
-        <v>32761743000</v>
+        <v>26065645800</v>
       </c>
       <c r="J40" t="str">
         <v>2023-02-06T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>2265399524000</v>
+        <v>2081179528400</v>
       </c>
       <c r="L40">
         <v>132573800</v>
@@ -2393,13 +2393,13 @@
         <v>653600</v>
       </c>
       <c r="N40">
-        <v>16703083000</v>
+        <v>10737055000</v>
       </c>
       <c r="O40">
         <v>5163600</v>
       </c>
       <c r="P40">
-        <v>96602049000</v>
+        <v>105919921800</v>
       </c>
     </row>
     <row r="41">
@@ -2416,10 +2416,10 @@
         <v>8300</v>
       </c>
       <c r="E41">
-        <v>8227259000</v>
+        <v>7345341800</v>
       </c>
       <c r="F41">
-        <v>34385009000</v>
+        <v>30547550300</v>
       </c>
       <c r="G41">
         <v>118820000</v>
@@ -2428,13 +2428,13 @@
         <v>2264100</v>
       </c>
       <c r="I41">
-        <v>42731088000</v>
+        <v>38011712100</v>
       </c>
       <c r="J41" t="str">
         <v>2023-02-06T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>2308130612000</v>
+        <v>2119191240500</v>
       </c>
       <c r="L41">
         <v>134837900</v>
@@ -2443,13 +2443,13 @@
         <v>1360800</v>
       </c>
       <c r="N41">
-        <v>26157750000</v>
+        <v>23202208500</v>
       </c>
       <c r="O41">
         <v>6524400</v>
       </c>
       <c r="P41">
-        <v>122759799000</v>
+        <v>129122130300</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>200</v>
       </c>
       <c r="E42">
-        <v>9893704000</v>
+        <v>9571626400</v>
       </c>
       <c r="F42">
-        <v>30540049000</v>
+        <v>27223169200</v>
       </c>
       <c r="G42">
         <v>11760000</v>
@@ -2478,13 +2478,13 @@
         <v>2333300</v>
       </c>
       <c r="I42">
-        <v>40445513000</v>
+        <v>36806555600</v>
       </c>
       <c r="J42" t="str">
         <v>2023-02-06T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>2348576125000</v>
+        <v>2155997796100</v>
       </c>
       <c r="L42">
         <v>137171200</v>
@@ -2493,13 +2493,13 @@
         <v>1181900</v>
       </c>
       <c r="N42">
-        <v>20646345000</v>
+        <v>17651542800</v>
       </c>
       <c r="O42">
         <v>7706300</v>
       </c>
       <c r="P42">
-        <v>143406144000</v>
+        <v>146773673100</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>3100</v>
       </c>
       <c r="E43">
-        <v>12548197000</v>
+        <v>11210236300</v>
       </c>
       <c r="F43">
-        <v>40907113000</v>
+        <v>35793731500</v>
       </c>
       <c r="G43">
         <v>13330000</v>
@@ -2528,13 +2528,13 @@
         <v>3063800</v>
       </c>
       <c r="I43">
-        <v>53468640000</v>
+        <v>47017297800</v>
       </c>
       <c r="J43" t="str">
         <v>2023-02-06T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>2402044765000</v>
+        <v>2203015093900</v>
       </c>
       <c r="L43">
         <v>140235000</v>
@@ -2543,13 +2543,13 @@
         <v>1703300</v>
       </c>
       <c r="N43">
-        <v>28358916000</v>
+        <v>24583495200</v>
       </c>
       <c r="O43">
         <v>9409600</v>
       </c>
       <c r="P43">
-        <v>171765060000</v>
+        <v>171357168300</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>43800</v>
       </c>
       <c r="E44">
-        <v>16217769000</v>
+        <v>15681805500</v>
       </c>
       <c r="F44">
-        <v>27887145000</v>
+        <v>24070965000</v>
       </c>
       <c r="G44">
         <v>385709000</v>
@@ -2578,13 +2578,13 @@
         <v>2291000</v>
       </c>
       <c r="I44">
-        <v>44490623000</v>
+        <v>40138479500</v>
       </c>
       <c r="J44" t="str">
         <v>2023-02-06T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>2446535388000</v>
+        <v>2243153573400</v>
       </c>
       <c r="L44">
         <v>142526000</v>
@@ -2593,13 +2593,13 @@
         <v>696800</v>
       </c>
       <c r="N44">
-        <v>11669376000</v>
+        <v>8389159500</v>
       </c>
       <c r="O44">
         <v>10106400</v>
       </c>
       <c r="P44">
-        <v>183434436000</v>
+        <v>179746327800</v>
       </c>
     </row>
     <row r="45">
@@ -2616,10 +2616,10 @@
         <v>2700</v>
       </c>
       <c r="E45">
-        <v>34008612000</v>
+        <v>32061561000</v>
       </c>
       <c r="F45">
-        <v>29425805000</v>
+        <v>25917416900</v>
       </c>
       <c r="G45">
         <v>41350000</v>
@@ -2628,13 +2628,13 @@
         <v>3217200</v>
       </c>
       <c r="I45">
-        <v>63475767000</v>
+        <v>58020327900</v>
       </c>
       <c r="J45" t="str">
         <v>2023-02-06T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>2510011155000</v>
+        <v>2301173901300</v>
       </c>
       <c r="L45">
         <v>145743200</v>
@@ -2643,13 +2643,13 @@
         <v>140700</v>
       </c>
       <c r="N45">
-        <v>-4582807000</v>
+        <v>-6144144100</v>
       </c>
       <c r="O45">
         <v>10247100</v>
       </c>
       <c r="P45">
-        <v>178851629000</v>
+        <v>173602183700</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>3000</v>
       </c>
       <c r="E46">
-        <v>20399296000</v>
+        <v>20037258400</v>
       </c>
       <c r="F46">
-        <v>13553617000</v>
+        <v>11970901300</v>
       </c>
       <c r="G46">
         <v>44850000</v>
@@ -2678,13 +2678,13 @@
         <v>1996100</v>
       </c>
       <c r="I46">
-        <v>33997763000</v>
+        <v>32053009700</v>
       </c>
       <c r="J46" t="str">
         <v>2023-02-06T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>2544008918000</v>
+        <v>2333226911000</v>
       </c>
       <c r="L46">
         <v>147739300</v>
@@ -2693,13 +2693,13 @@
         <v>-502500</v>
       </c>
       <c r="N46">
-        <v>-6845679000</v>
+        <v>-8066357100</v>
       </c>
       <c r="O46">
         <v>9744600</v>
       </c>
       <c r="P46">
-        <v>172005950000</v>
+        <v>165535826600</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>200</v>
       </c>
       <c r="E47">
-        <v>14961166000</v>
+        <v>14524303300</v>
       </c>
       <c r="F47">
-        <v>28208904000</v>
+        <v>23259458400</v>
       </c>
       <c r="G47">
         <v>15419999.999999998</v>
@@ -2728,13 +2728,13 @@
         <v>2239900</v>
       </c>
       <c r="I47">
-        <v>43185490000</v>
+        <v>37799181700</v>
       </c>
       <c r="J47" t="str">
         <v>2023-02-06T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>2587194408000</v>
+        <v>2371026092700</v>
       </c>
       <c r="L47">
         <v>149979200</v>
@@ -2743,13 +2743,13 @@
         <v>488500</v>
       </c>
       <c r="N47">
-        <v>13247738000</v>
+        <v>8735155100</v>
       </c>
       <c r="O47">
         <v>10233100</v>
       </c>
       <c r="P47">
-        <v>185253688000</v>
+        <v>174270981700</v>
       </c>
     </row>
     <row r="48">
@@ -2766,10 +2766,10 @@
         <v>2100</v>
       </c>
       <c r="E48">
-        <v>10565988000</v>
+        <v>9770983800</v>
       </c>
       <c r="F48">
-        <v>21931764000</v>
+        <v>20542254900</v>
       </c>
       <c r="G48">
         <v>60890000</v>
@@ -2778,13 +2778,13 @@
         <v>1663100</v>
       </c>
       <c r="I48">
-        <v>32558642000</v>
+        <v>30374128700</v>
       </c>
       <c r="J48" t="str">
         <v>2023-02-06T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>2619753050000</v>
+        <v>2401400221400</v>
       </c>
       <c r="L48">
         <v>151642300</v>
@@ -2793,13 +2793,13 @@
         <v>596400</v>
       </c>
       <c r="N48">
-        <v>11365776000</v>
+        <v>10771271100</v>
       </c>
       <c r="O48">
         <v>10829500</v>
       </c>
       <c r="P48">
-        <v>196619464000</v>
+        <v>185042252800</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>1400</v>
       </c>
       <c r="E49">
-        <v>18883471000</v>
+        <v>17471584300</v>
       </c>
       <c r="F49">
-        <v>17557663000</v>
+        <v>16146675400</v>
       </c>
       <c r="G49">
         <v>72070000</v>
@@ -2828,13 +2828,13 @@
         <v>1531100</v>
       </c>
       <c r="I49">
-        <v>36513204000</v>
+        <v>33690329700</v>
       </c>
       <c r="J49" t="str">
         <v>2023-02-06T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>2656266254000</v>
+        <v>2435090551100</v>
       </c>
       <c r="L49">
         <v>153173400</v>
@@ -2843,13 +2843,13 @@
         <v>271900</v>
       </c>
       <c r="N49">
-        <v>-1325808000</v>
+        <v>-1324908900</v>
       </c>
       <c r="O49">
         <v>11101400</v>
       </c>
       <c r="P49">
-        <v>195293656000</v>
+        <v>183717343900</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>1300</v>
       </c>
       <c r="E50">
-        <v>9239944000</v>
+        <v>9034349800</v>
       </c>
       <c r="F50">
-        <v>28064105000</v>
+        <v>23443430300</v>
       </c>
       <c r="G50">
         <v>12195000</v>
@@ -2878,13 +2878,13 @@
         <v>2122100</v>
       </c>
       <c r="I50">
-        <v>37316244000</v>
+        <v>32489975100</v>
       </c>
       <c r="J50" t="str">
         <v>2023-02-06T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>2693582498000</v>
+        <v>2467580526200</v>
       </c>
       <c r="L50">
         <v>155295500</v>
@@ -2893,13 +2893,13 @@
         <v>982600</v>
       </c>
       <c r="N50">
-        <v>18824161000</v>
+        <v>14409080500</v>
       </c>
       <c r="O50">
         <v>12084000</v>
       </c>
       <c r="P50">
-        <v>214117817000</v>
+        <v>198126424400</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>500</v>
       </c>
       <c r="E51">
-        <v>14052450000</v>
+        <v>12537066900</v>
       </c>
       <c r="F51">
-        <v>28507816000</v>
+        <v>27332692300</v>
       </c>
       <c r="G51">
         <v>14925000</v>
@@ -2928,13 +2928,13 @@
         <v>2190300</v>
       </c>
       <c r="I51">
-        <v>42575191000</v>
+        <v>39884684200</v>
       </c>
       <c r="J51" t="str">
         <v>2023-02-06T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>2736157689000</v>
+        <v>2507465210400</v>
       </c>
       <c r="L51">
         <v>157485800</v>
@@ -2943,13 +2943,13 @@
         <v>693800</v>
       </c>
       <c r="N51">
-        <v>14455366000</v>
+        <v>14795625400</v>
       </c>
       <c r="O51">
         <v>12777800</v>
       </c>
       <c r="P51">
-        <v>228573183000</v>
+        <v>212922049800</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>13500</v>
       </c>
       <c r="E52">
-        <v>20489624000</v>
+        <v>16214803100</v>
       </c>
       <c r="F52">
-        <v>28646185000</v>
+        <v>27513618700</v>
       </c>
       <c r="G52">
         <v>126560000</v>
@@ -2978,13 +2978,13 @@
         <v>2497200</v>
       </c>
       <c r="I52">
-        <v>49262369000</v>
+        <v>43854981800</v>
       </c>
       <c r="J52" t="str">
         <v>2023-02-06T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>2785420058000</v>
+        <v>2551320192200</v>
       </c>
       <c r="L52">
         <v>159983000</v>
@@ -2993,13 +2993,13 @@
         <v>765100</v>
       </c>
       <c r="N52">
-        <v>8156561000</v>
+        <v>11298815600</v>
       </c>
       <c r="O52">
         <v>13542900</v>
       </c>
       <c r="P52">
-        <v>236729744000</v>
+        <v>224220865400</v>
       </c>
     </row>
     <row r="53">
@@ -3016,25 +3016,25 @@
         <v>1100</v>
       </c>
       <c r="E53">
-        <v>16024575000</v>
+        <v>13711490400</v>
       </c>
       <c r="F53">
-        <v>30907543000</v>
+        <v>22536422500</v>
       </c>
       <c r="G53">
-        <v>67410000</v>
+        <v>36640800</v>
       </c>
       <c r="H53">
         <v>2417800</v>
       </c>
       <c r="I53">
-        <v>46999528000</v>
+        <v>36284553700</v>
       </c>
       <c r="J53" t="str">
         <v>2023-02-06T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>2832419586000</v>
+        <v>2587604745900</v>
       </c>
       <c r="L53">
         <v>162400800</v>
@@ -3043,13 +3043,13 @@
         <v>870900</v>
       </c>
       <c r="N53">
-        <v>14882968000</v>
+        <v>8824932100</v>
       </c>
       <c r="O53">
         <v>14413800</v>
       </c>
       <c r="P53">
-        <v>251612712000</v>
+        <v>233045797500</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>5000</v>
       </c>
       <c r="E54">
-        <v>25153375000</v>
+        <v>21664467400</v>
       </c>
       <c r="F54">
-        <v>18077737000</v>
+        <v>15382435000</v>
       </c>
       <c r="G54">
         <v>119500000</v>
@@ -3078,13 +3078,13 @@
         <v>2303600</v>
       </c>
       <c r="I54">
-        <v>43350612000</v>
+        <v>37166402400</v>
       </c>
       <c r="J54" t="str">
         <v>2023-02-06T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>2875770198000</v>
+        <v>2624771148300</v>
       </c>
       <c r="L54">
         <v>164704400</v>
@@ -3093,13 +3093,13 @@
         <v>-223600</v>
       </c>
       <c r="N54">
-        <v>-7075638000</v>
+        <v>-6282032400</v>
       </c>
       <c r="O54">
         <v>14190200</v>
       </c>
       <c r="P54">
-        <v>244537074000</v>
+        <v>226763765100</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>2500</v>
       </c>
       <c r="E55">
-        <v>10116928000</v>
+        <v>7432215400</v>
       </c>
       <c r="F55">
-        <v>12461822000</v>
+        <v>11502881900</v>
       </c>
       <c r="G55">
         <v>102451000</v>
@@ -3128,13 +3128,13 @@
         <v>1282300</v>
       </c>
       <c r="I55">
-        <v>22681201000</v>
+        <v>19037548300</v>
       </c>
       <c r="J55" t="str">
         <v>2023-02-06T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>2898451399000</v>
+        <v>2643808696600</v>
       </c>
       <c r="L55">
         <v>165986700</v>
@@ -3143,13 +3143,13 @@
         <v>75800</v>
       </c>
       <c r="N55">
-        <v>2344894000</v>
+        <v>4070666500</v>
       </c>
       <c r="O55">
         <v>14266000</v>
       </c>
       <c r="P55">
-        <v>246881968000</v>
+        <v>230834431600</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>8307282000</v>
+        <v>6529361700</v>
       </c>
       <c r="F56">
-        <v>19767924000</v>
+        <v>17343251100</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -3178,13 +3178,13 @@
         <v>1507500</v>
       </c>
       <c r="I56">
-        <v>28075206000</v>
+        <v>23872612800</v>
       </c>
       <c r="J56" t="str">
         <v>2023-02-06T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>2926526605000</v>
+        <v>2667681309400</v>
       </c>
       <c r="L56">
         <v>167494200</v>
@@ -3193,13 +3193,13 @@
         <v>397900</v>
       </c>
       <c r="N56">
-        <v>11460642000</v>
+        <v>10813889400</v>
       </c>
       <c r="O56">
         <v>14663900</v>
       </c>
       <c r="P56">
-        <v>258342610000</v>
+        <v>241648321000</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>9000</v>
       </c>
       <c r="E57">
-        <v>6717771000</v>
+        <v>6203485800</v>
       </c>
       <c r="F57">
-        <v>21465426000</v>
+        <v>16606589700</v>
       </c>
       <c r="G57">
         <v>142200000</v>
@@ -3228,13 +3228,13 @@
         <v>1588500</v>
       </c>
       <c r="I57">
-        <v>28325397000</v>
+        <v>22952275500</v>
       </c>
       <c r="J57" t="str">
         <v>2023-02-06T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>2954852002000</v>
+        <v>2690633584900</v>
       </c>
       <c r="L57">
         <v>169082700</v>
@@ -3243,13 +3243,13 @@
         <v>790300</v>
       </c>
       <c r="N57">
-        <v>14747655000</v>
+        <v>10403103900</v>
       </c>
       <c r="O57">
         <v>15454200</v>
       </c>
       <c r="P57">
-        <v>273090265000</v>
+        <v>252051424900</v>
       </c>
     </row>
     <row r="58">
@@ -3266,25 +3266,25 @@
         <v>4500</v>
       </c>
       <c r="E58">
-        <v>13304111000</v>
+        <v>11592824000</v>
       </c>
       <c r="F58">
-        <v>23052274000</v>
+        <v>20647681000</v>
       </c>
       <c r="G58">
-        <v>88335000</v>
+        <v>63459900</v>
       </c>
       <c r="H58">
         <v>1847800</v>
       </c>
       <c r="I58">
-        <v>36444720000</v>
+        <v>32303964900</v>
       </c>
       <c r="J58" t="str">
         <v>2023-02-06T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>2991296722000</v>
+        <v>2722937549800</v>
       </c>
       <c r="L58">
         <v>170930500</v>
@@ -3293,13 +3293,13 @@
         <v>577300</v>
       </c>
       <c r="N58">
-        <v>9748163000</v>
+        <v>9054857000</v>
       </c>
       <c r="O58">
         <v>16031500</v>
       </c>
       <c r="P58">
-        <v>282838428000</v>
+        <v>261106281900</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>9200</v>
       </c>
       <c r="E59">
-        <v>8171835000</v>
+        <v>8025681300</v>
       </c>
       <c r="F59">
-        <v>20669506000</v>
+        <v>19668508000</v>
       </c>
       <c r="G59">
         <v>276907000</v>
@@ -3328,13 +3328,13 @@
         <v>1620800</v>
       </c>
       <c r="I59">
-        <v>29118248000</v>
+        <v>27971096300</v>
       </c>
       <c r="J59" t="str">
         <v>2023-02-06T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>3020414970000</v>
+        <v>2750908646100</v>
       </c>
       <c r="L59">
         <v>172551300</v>
@@ -3343,13 +3343,13 @@
         <v>534600</v>
       </c>
       <c r="N59">
-        <v>12497671000</v>
+        <v>11642826700</v>
       </c>
       <c r="O59">
         <v>16566100</v>
       </c>
       <c r="P59">
-        <v>295336099000</v>
+        <v>272749108600</v>
       </c>
     </row>
     <row r="60">
@@ -3366,25 +3366,25 @@
         <v>6000</v>
       </c>
       <c r="E60">
-        <v>12880556000</v>
+        <v>11904932600</v>
       </c>
       <c r="F60">
-        <v>27148952000</v>
+        <v>25861041200</v>
       </c>
       <c r="G60">
-        <v>68209000</v>
+        <v>44632600</v>
       </c>
       <c r="H60">
         <v>2010000</v>
       </c>
       <c r="I60">
-        <v>40097717000</v>
+        <v>37810606400</v>
       </c>
       <c r="J60" t="str">
         <v>2023-02-06T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>3060512687000</v>
+        <v>2788719252500</v>
       </c>
       <c r="L60">
         <v>174561300</v>
@@ -3393,13 +3393,13 @@
         <v>641600</v>
       </c>
       <c r="N60">
-        <v>14268396000</v>
+        <v>13956108600</v>
       </c>
       <c r="O60">
         <v>17207700</v>
       </c>
       <c r="P60">
-        <v>309604495000</v>
+        <v>286705217200</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>5700</v>
       </c>
       <c r="E61">
-        <v>14145935000</v>
+        <v>13379901800</v>
       </c>
       <c r="F61">
-        <v>17025664000</v>
+        <v>16599590500</v>
       </c>
       <c r="G61">
         <v>112630000</v>
@@ -3428,13 +3428,13 @@
         <v>1753900</v>
       </c>
       <c r="I61">
-        <v>31284229000</v>
+        <v>30092122300</v>
       </c>
       <c r="J61" t="str">
         <v>2023-02-06T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>3091796916000</v>
+        <v>2818811374800</v>
       </c>
       <c r="L61">
         <v>176315200</v>
@@ -3443,13 +3443,13 @@
         <v>212800</v>
       </c>
       <c r="N61">
-        <v>2879729000</v>
+        <v>3219688700</v>
       </c>
       <c r="O61">
         <v>17420500</v>
       </c>
       <c r="P61">
-        <v>312484224000</v>
+        <v>289924905900</v>
       </c>
     </row>
     <row r="62">
@@ -3466,10 +3466,10 @@
         <v>16600</v>
       </c>
       <c r="E62">
-        <v>26524588000</v>
+        <v>25123490500</v>
       </c>
       <c r="F62">
-        <v>20738991000</v>
+        <v>18916815000</v>
       </c>
       <c r="G62">
         <v>167873000</v>
@@ -3478,13 +3478,13 @@
         <v>2427300</v>
       </c>
       <c r="I62">
-        <v>47431452000</v>
+        <v>44208178500</v>
       </c>
       <c r="J62" t="str">
         <v>2023-02-06T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>3139228368000</v>
+        <v>2863019553300</v>
       </c>
       <c r="L62">
         <v>178742500</v>
@@ -3493,13 +3493,13 @@
         <v>-473900</v>
       </c>
       <c r="N62">
-        <v>-5785597000</v>
+        <v>-6206675500</v>
       </c>
       <c r="O62">
         <v>16946600</v>
       </c>
       <c r="P62">
-        <v>306698627000</v>
+        <v>283718230400</v>
       </c>
     </row>
     <row r="63">
@@ -3516,10 +3516,10 @@
         <v>300</v>
       </c>
       <c r="E63">
-        <v>21778068000</v>
+        <v>17195854800</v>
       </c>
       <c r="F63">
-        <v>11739027000</v>
+        <v>10752514500</v>
       </c>
       <c r="G63">
         <v>1435000</v>
@@ -3528,13 +3528,13 @@
         <v>1907800</v>
       </c>
       <c r="I63">
-        <v>33518530000</v>
+        <v>27949804300</v>
       </c>
       <c r="J63" t="str">
         <v>2023-02-06T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>3172746898000</v>
+        <v>2890969357600</v>
       </c>
       <c r="L63">
         <v>180650300</v>
@@ -3543,13 +3543,13 @@
         <v>-767700</v>
       </c>
       <c r="N63">
-        <v>-10039041000</v>
+        <v>-6443340300</v>
       </c>
       <c r="O63">
         <v>16178900</v>
       </c>
       <c r="P63">
-        <v>296659586000</v>
+        <v>277274890100</v>
       </c>
     </row>
     <row r="64">
@@ -3566,10 +3566,10 @@
         <v>1600</v>
       </c>
       <c r="E64">
-        <v>13294558000</v>
+        <v>11181273400</v>
       </c>
       <c r="F64">
-        <v>12300895000</v>
+        <v>10769128300</v>
       </c>
       <c r="G64">
         <v>11000000</v>
@@ -3578,13 +3578,13 @@
         <v>1446900</v>
       </c>
       <c r="I64">
-        <v>25606453000</v>
+        <v>21961401700</v>
       </c>
       <c r="J64" t="str">
         <v>2023-02-06T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>3198353351000</v>
+        <v>2912930759300</v>
       </c>
       <c r="L64">
         <v>182097200</v>
@@ -3593,13 +3593,13 @@
         <v>-181300</v>
       </c>
       <c r="N64">
-        <v>-993663000</v>
+        <v>-412145100</v>
       </c>
       <c r="O64">
         <v>15997600</v>
       </c>
       <c r="P64">
-        <v>295665923000</v>
+        <v>276862745000</v>
       </c>
     </row>
     <row r="65">
@@ -3616,25 +3616,25 @@
         <v>1500</v>
       </c>
       <c r="E65">
-        <v>22714306000</v>
+        <v>18286538200</v>
       </c>
       <c r="F65">
-        <v>8239388000</v>
+        <v>6907621100</v>
       </c>
       <c r="G65">
-        <v>19305000</v>
+        <v>10913400</v>
       </c>
       <c r="H65">
         <v>1726000</v>
       </c>
       <c r="I65">
-        <v>30972999000</v>
+        <v>25205072700</v>
       </c>
       <c r="J65" t="str">
         <v>2023-02-06T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>3229326350000</v>
+        <v>2938135832000</v>
       </c>
       <c r="L65">
         <v>183823200</v>
@@ -3643,13 +3643,13 @@
         <v>-949300</v>
       </c>
       <c r="N65">
-        <v>-14474918000</v>
+        <v>-11378917100</v>
       </c>
       <c r="O65">
         <v>15048300</v>
       </c>
       <c r="P65">
-        <v>281191005000</v>
+        <v>265483827900</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>24012311000</v>
+        <v>23807016500</v>
       </c>
       <c r="F66">
-        <v>8549637000</v>
+        <v>8014772400</v>
       </c>
       <c r="G66">
         <v>0</v>
@@ -3678,13 +3678,13 @@
         <v>1825100</v>
       </c>
       <c r="I66">
-        <v>32561948000</v>
+        <v>31821788900</v>
       </c>
       <c r="J66" t="str">
         <v>2023-02-06T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>3261888298000</v>
+        <v>2969957620900</v>
       </c>
       <c r="L66">
         <v>185648300</v>
@@ -3693,13 +3693,13 @@
         <v>-974900</v>
       </c>
       <c r="N66">
-        <v>-15462674000</v>
+        <v>-15792244100</v>
       </c>
       <c r="O66">
         <v>14073400</v>
       </c>
       <c r="P66">
-        <v>265728331000</v>
+        <v>249691583800</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>0</v>
       </c>
       <c r="E67">
-        <v>13261398000</v>
+        <v>12948910800</v>
       </c>
       <c r="F67">
-        <v>11204292000</v>
+        <v>10756040700</v>
       </c>
       <c r="G67">
         <v>0</v>
@@ -3728,13 +3728,13 @@
         <v>1479100</v>
       </c>
       <c r="I67">
-        <v>24465690000</v>
+        <v>23704951500</v>
       </c>
       <c r="J67" t="str">
         <v>2023-02-06T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>3286353988000</v>
+        <v>2993662572400</v>
       </c>
       <c r="L67">
         <v>187127400</v>
@@ -3743,13 +3743,13 @@
         <v>-275500</v>
       </c>
       <c r="N67">
-        <v>-2057106000</v>
+        <v>-2192870100</v>
       </c>
       <c r="O67">
         <v>13797900</v>
       </c>
       <c r="P67">
-        <v>263671225000</v>
+        <v>247498713700</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>7300</v>
       </c>
       <c r="E68">
-        <v>18496964000</v>
+        <v>17509952000</v>
       </c>
       <c r="F68">
-        <v>16657332000</v>
+        <v>16388301300</v>
       </c>
       <c r="G68">
         <v>142536000</v>
@@ -3778,13 +3778,13 @@
         <v>1439000</v>
       </c>
       <c r="I68">
-        <v>35296832000</v>
+        <v>34040789300</v>
       </c>
       <c r="J68" t="str">
         <v>2023-02-06T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>3321650820000</v>
+        <v>3027703361700</v>
       </c>
       <c r="L68">
         <v>188566400</v>
@@ -3793,13 +3793,13 @@
         <v>-415100</v>
       </c>
       <c r="N68">
-        <v>-1839632000</v>
+        <v>-1121650700</v>
       </c>
       <c r="O68">
         <v>13382800</v>
       </c>
       <c r="P68">
-        <v>261831593000</v>
+        <v>246377063000</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>1600</v>
       </c>
       <c r="E69">
-        <v>18534044000</v>
+        <v>17877101600</v>
       </c>
       <c r="F69">
-        <v>29017304000</v>
+        <v>23332494500</v>
       </c>
       <c r="G69">
         <v>19280000</v>
@@ -3828,13 +3828,13 @@
         <v>2082200</v>
       </c>
       <c r="I69">
-        <v>47570628000</v>
+        <v>41228876100</v>
       </c>
       <c r="J69" t="str">
         <v>2023-02-06T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>3369221448000</v>
+        <v>3068932237800</v>
       </c>
       <c r="L69">
         <v>190648600</v>
@@ -3843,13 +3843,13 @@
         <v>73400</v>
       </c>
       <c r="N69">
-        <v>10483260000</v>
+        <v>5455392900</v>
       </c>
       <c r="O69">
         <v>13456200</v>
       </c>
       <c r="P69">
-        <v>272314853000</v>
+        <v>251832455900</v>
       </c>
     </row>
     <row r="70">
@@ -3884,7 +3884,7 @@
         <v>2023-02-06T11:30:00.000Z</v>
       </c>
       <c r="K70">
-        <v>3369292136000</v>
+        <v>3069002925800</v>
       </c>
       <c r="L70">
         <v>190653600</v>
@@ -3899,7 +3899,7 @@
         <v>13452600</v>
       </c>
       <c r="P70">
-        <v>272248211000</v>
+        <v>251765813900</v>
       </c>
     </row>
     <row r="71">
@@ -3916,25 +3916,25 @@
         <v>123900</v>
       </c>
       <c r="E71">
-        <v>61106983000</v>
+        <v>53602095400</v>
       </c>
       <c r="F71">
-        <v>45154923000</v>
+        <v>44076802200</v>
       </c>
       <c r="G71">
-        <v>2433337000</v>
+        <v>2296973500</v>
       </c>
       <c r="H71">
         <v>6404800</v>
       </c>
       <c r="I71">
-        <v>108695243000</v>
+        <v>99975871100</v>
       </c>
       <c r="J71" t="str">
         <v>2023-02-06T13:00:00.000Z</v>
       </c>
       <c r="K71">
-        <v>3477987379000</v>
+        <v>3168978796900</v>
       </c>
       <c r="L71">
         <v>197058400</v>
@@ -3943,13 +3943,13 @@
         <v>-1210700</v>
       </c>
       <c r="N71">
-        <v>-15952060000</v>
+        <v>-9525293200</v>
       </c>
       <c r="O71">
         <v>12241900</v>
       </c>
       <c r="P71">
-        <v>256296151000</v>
+        <v>242240520700</v>
       </c>
     </row>
     <row r="72">
@@ -3966,25 +3966,25 @@
         <v>2300</v>
       </c>
       <c r="E72">
-        <v>17581911000</v>
+        <v>15576418500</v>
       </c>
       <c r="F72">
-        <v>16619701000</v>
+        <v>15161960200</v>
       </c>
       <c r="G72">
-        <v>36400000</v>
+        <v>28907500</v>
       </c>
       <c r="H72">
         <v>2226500</v>
       </c>
       <c r="I72">
-        <v>34238012000</v>
+        <v>30767286200</v>
       </c>
       <c r="J72" t="str">
         <v>2023-02-06T13:02:00.000Z</v>
       </c>
       <c r="K72">
-        <v>3512225391000</v>
+        <v>3199746083100</v>
       </c>
       <c r="L72">
         <v>199284900</v>
@@ -3993,13 +3993,13 @@
         <v>-339200</v>
       </c>
       <c r="N72">
-        <v>-962210000</v>
+        <v>-414458300</v>
       </c>
       <c r="O72">
         <v>11902700</v>
       </c>
       <c r="P72">
-        <v>255333941000</v>
+        <v>241826062400</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>5300</v>
       </c>
       <c r="E73">
-        <v>27313727000</v>
+        <v>25593049400</v>
       </c>
       <c r="F73">
-        <v>12966760000</v>
+        <v>12049777900</v>
       </c>
       <c r="G73">
         <v>47339000</v>
@@ -4028,13 +4028,13 @@
         <v>2466400</v>
       </c>
       <c r="I73">
-        <v>40327826000</v>
+        <v>37690166300</v>
       </c>
       <c r="J73" t="str">
         <v>2023-02-06T13:04:00.000Z</v>
       </c>
       <c r="K73">
-        <v>3552553217000</v>
+        <v>3237436249400</v>
       </c>
       <c r="L73">
         <v>201751300</v>
@@ -4043,13 +4043,13 @@
         <v>-830300</v>
       </c>
       <c r="N73">
-        <v>-14346967000</v>
+        <v>-13543271500</v>
       </c>
       <c r="O73">
         <v>11072400</v>
       </c>
       <c r="P73">
-        <v>240986974000</v>
+        <v>228282790900</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>20200</v>
       </c>
       <c r="E74">
-        <v>23073963000</v>
+        <v>22277060700</v>
       </c>
       <c r="F74">
-        <v>16364902000</v>
+        <v>15428039800</v>
       </c>
       <c r="G74">
         <v>170169000</v>
@@ -4078,13 +4078,13 @@
         <v>2250700</v>
       </c>
       <c r="I74">
-        <v>39609034000</v>
+        <v>37875269500</v>
       </c>
       <c r="J74" t="str">
         <v>2023-02-06T13:06:00.000Z</v>
       </c>
       <c r="K74">
-        <v>3592162251000</v>
+        <v>3275311518900</v>
       </c>
       <c r="L74">
         <v>204002000</v>
@@ -4093,13 +4093,13 @@
         <v>-482900</v>
       </c>
       <c r="N74">
-        <v>-6709061000</v>
+        <v>-6849020900</v>
       </c>
       <c r="O74">
         <v>10589500</v>
       </c>
       <c r="P74">
-        <v>234277913000</v>
+        <v>221433770000</v>
       </c>
     </row>
     <row r="75">
@@ -4116,25 +4116,25 @@
         <v>3500</v>
       </c>
       <c r="E75">
-        <v>18901020000</v>
+        <v>16027995900</v>
       </c>
       <c r="F75">
-        <v>18404911000</v>
+        <v>17729487100</v>
       </c>
       <c r="G75">
-        <v>30596000</v>
+        <v>26300300</v>
       </c>
       <c r="H75">
         <v>2142200</v>
       </c>
       <c r="I75">
-        <v>37336527000</v>
+        <v>33783783300</v>
       </c>
       <c r="J75" t="str">
         <v>2023-02-06T13:08:00.000Z</v>
       </c>
       <c r="K75">
-        <v>3629498778000</v>
+        <v>3309095302200</v>
       </c>
       <c r="L75">
         <v>206144200</v>
@@ -4143,13 +4143,13 @@
         <v>-344900</v>
       </c>
       <c r="N75">
-        <v>-496109000</v>
+        <v>1701491200</v>
       </c>
       <c r="O75">
         <v>10244600</v>
       </c>
       <c r="P75">
-        <v>233781804000</v>
+        <v>223135261200</v>
       </c>
     </row>
     <row r="76">
@@ -4166,10 +4166,10 @@
         <v>19900</v>
       </c>
       <c r="E76">
-        <v>35774838000</v>
+        <v>35414498700</v>
       </c>
       <c r="F76">
-        <v>18454745000</v>
+        <v>17327273600</v>
       </c>
       <c r="G76">
         <v>232460000</v>
@@ -4178,13 +4178,13 @@
         <v>2708400</v>
       </c>
       <c r="I76">
-        <v>54462043000</v>
+        <v>52974232300</v>
       </c>
       <c r="J76" t="str">
         <v>2023-02-06T13:10:00.000Z</v>
       </c>
       <c r="K76">
-        <v>3683960821000</v>
+        <v>3362069534500</v>
       </c>
       <c r="L76">
         <v>208852600</v>
@@ -4193,13 +4193,13 @@
         <v>-1026700</v>
       </c>
       <c r="N76">
-        <v>-17320093000</v>
+        <v>-18087225100</v>
       </c>
       <c r="O76">
         <v>9217900</v>
       </c>
       <c r="P76">
-        <v>216461711000</v>
+        <v>205048036100</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>4100</v>
       </c>
       <c r="E77">
-        <v>42806625000</v>
+        <v>41904128400</v>
       </c>
       <c r="F77">
-        <v>20063193000</v>
+        <v>19411745100</v>
       </c>
       <c r="G77">
         <v>42123000</v>
@@ -4228,13 +4228,13 @@
         <v>3435000</v>
       </c>
       <c r="I77">
-        <v>62911941000</v>
+        <v>61357996500</v>
       </c>
       <c r="J77" t="str">
         <v>2023-02-06T13:12:00.000Z</v>
       </c>
       <c r="K77">
-        <v>3746872762000</v>
+        <v>3423427531000</v>
       </c>
       <c r="L77">
         <v>212287600</v>
@@ -4243,13 +4243,13 @@
         <v>-1327900</v>
       </c>
       <c r="N77">
-        <v>-22743432000</v>
+        <v>-22492383300</v>
       </c>
       <c r="O77">
         <v>7890000</v>
       </c>
       <c r="P77">
-        <v>193718279000</v>
+        <v>182555652800</v>
       </c>
     </row>
     <row r="78">
@@ -4266,10 +4266,10 @@
         <v>14400</v>
       </c>
       <c r="E78">
-        <v>45911654000</v>
+        <v>45094671800</v>
       </c>
       <c r="F78">
-        <v>19390692000</v>
+        <v>16929255900</v>
       </c>
       <c r="G78">
         <v>201425000</v>
@@ -4278,13 +4278,13 @@
         <v>4010300</v>
       </c>
       <c r="I78">
-        <v>65503771000</v>
+        <v>62225352700</v>
       </c>
       <c r="J78" t="str">
         <v>2023-02-06T13:14:00.000Z</v>
       </c>
       <c r="K78">
-        <v>3812376533000</v>
+        <v>3485652883700</v>
       </c>
       <c r="L78">
         <v>216297900</v>
@@ -4293,13 +4293,13 @@
         <v>-1979100</v>
       </c>
       <c r="N78">
-        <v>-26520962000</v>
+        <v>-28165415900</v>
       </c>
       <c r="O78">
         <v>5910900</v>
       </c>
       <c r="P78">
-        <v>167197317000</v>
+        <v>154390236900</v>
       </c>
     </row>
     <row r="79">
@@ -4316,10 +4316,10 @@
         <v>12900</v>
       </c>
       <c r="E79">
-        <v>56401425000</v>
+        <v>53542586700</v>
       </c>
       <c r="F79">
-        <v>23458830000</v>
+        <v>21993796500</v>
       </c>
       <c r="G79">
         <v>294910000</v>
@@ -4328,13 +4328,13 @@
         <v>4428200</v>
       </c>
       <c r="I79">
-        <v>80155165000</v>
+        <v>75831293200</v>
       </c>
       <c r="J79" t="str">
         <v>2023-02-06T13:16:00.000Z</v>
       </c>
       <c r="K79">
-        <v>3892531698000</v>
+        <v>3561484176900</v>
       </c>
       <c r="L79">
         <v>220726100</v>
@@ -4343,13 +4343,13 @@
         <v>-2245700</v>
       </c>
       <c r="N79">
-        <v>-32942595000</v>
+        <v>-31548790200</v>
       </c>
       <c r="O79">
         <v>3665200</v>
       </c>
       <c r="P79">
-        <v>134254722000</v>
+        <v>122841446700</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>21800</v>
       </c>
       <c r="E80">
-        <v>41146937000</v>
+        <v>39975809300</v>
       </c>
       <c r="F80">
-        <v>19020674000</v>
+        <v>18510185000</v>
       </c>
       <c r="G80">
         <v>155201000</v>
@@ -4378,13 +4378,13 @@
         <v>3845000</v>
       </c>
       <c r="I80">
-        <v>60322812000</v>
+        <v>58641195300</v>
       </c>
       <c r="J80" t="str">
         <v>2023-02-06T13:18:00.000Z</v>
       </c>
       <c r="K80">
-        <v>3952854510000</v>
+        <v>3620125372200</v>
       </c>
       <c r="L80">
         <v>224571100</v>
@@ -4393,13 +4393,13 @@
         <v>-1218000</v>
       </c>
       <c r="N80">
-        <v>-22126263000</v>
+        <v>-21465624300</v>
       </c>
       <c r="O80">
         <v>2447200</v>
       </c>
       <c r="P80">
-        <v>112128459000</v>
+        <v>101375822400</v>
       </c>
     </row>
     <row r="81">
@@ -4416,25 +4416,25 @@
         <v>11500</v>
       </c>
       <c r="E81">
-        <v>22279835000</v>
+        <v>21447767900</v>
       </c>
       <c r="F81">
-        <v>22722522000</v>
+        <v>20478168600</v>
       </c>
       <c r="G81">
-        <v>285699000</v>
+        <v>207377400</v>
       </c>
       <c r="H81">
         <v>2512700</v>
       </c>
       <c r="I81">
-        <v>45288056000</v>
+        <v>42133313900</v>
       </c>
       <c r="J81" t="str">
         <v>2023-02-06T13:20:00.000Z</v>
       </c>
       <c r="K81">
-        <v>3998142566000</v>
+        <v>3662258686100</v>
       </c>
       <c r="L81">
         <v>227083800</v>
@@ -4443,13 +4443,13 @@
         <v>-107600</v>
       </c>
       <c r="N81">
-        <v>442687000</v>
+        <v>-969599300</v>
       </c>
       <c r="O81">
         <v>2339600</v>
       </c>
       <c r="P81">
-        <v>112571146000</v>
+        <v>100406223100</v>
       </c>
     </row>
     <row r="82">
@@ -4466,25 +4466,25 @@
         <v>5600</v>
       </c>
       <c r="E82">
-        <v>16769021000</v>
+        <v>16369021400</v>
       </c>
       <c r="F82">
-        <v>51878274000</v>
+        <v>50078076000</v>
       </c>
       <c r="G82">
-        <v>89847000</v>
+        <v>82854000</v>
       </c>
       <c r="H82">
         <v>3502700</v>
       </c>
       <c r="I82">
-        <v>68737142000</v>
+        <v>66529951400</v>
       </c>
       <c r="J82" t="str">
         <v>2023-02-06T13:22:00.000Z</v>
       </c>
       <c r="K82">
-        <v>4066879708000</v>
+        <v>3728788637500</v>
       </c>
       <c r="L82">
         <v>230586500</v>
@@ -4493,13 +4493,13 @@
         <v>1422300</v>
       </c>
       <c r="N82">
-        <v>35109253000</v>
+        <v>33709054600</v>
       </c>
       <c r="O82">
         <v>3761900</v>
       </c>
       <c r="P82">
-        <v>147680399000</v>
+        <v>134115277700</v>
       </c>
     </row>
     <row r="83">
@@ -4516,25 +4516,25 @@
         <v>4000</v>
       </c>
       <c r="E83">
-        <v>17730089000</v>
+        <v>17676742400</v>
       </c>
       <c r="F83">
-        <v>47273574000</v>
+        <v>41906146800</v>
       </c>
       <c r="G83">
-        <v>117497000</v>
+        <v>85529000</v>
       </c>
       <c r="H83">
         <v>3369800</v>
       </c>
       <c r="I83">
-        <v>65121160000</v>
+        <v>59668418200</v>
       </c>
       <c r="J83" t="str">
         <v>2023-02-06T13:24:00.000Z</v>
       </c>
       <c r="K83">
-        <v>4132000868000</v>
+        <v>3788457055700</v>
       </c>
       <c r="L83">
         <v>233956300</v>
@@ -4543,13 +4543,13 @@
         <v>1650400</v>
       </c>
       <c r="N83">
-        <v>29543485000</v>
+        <v>24229404400</v>
       </c>
       <c r="O83">
         <v>5412300</v>
       </c>
       <c r="P83">
-        <v>177223884000</v>
+        <v>158344682100</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>11000</v>
       </c>
       <c r="E84">
-        <v>18864390000</v>
+        <v>17754700800</v>
       </c>
       <c r="F84">
-        <v>48405085000</v>
+        <v>42069127300</v>
       </c>
       <c r="G84">
-        <v>418552000</v>
+        <v>172398400</v>
       </c>
       <c r="H84">
         <v>3802300</v>
       </c>
       <c r="I84">
-        <v>67688027000</v>
+        <v>59996226500</v>
       </c>
       <c r="J84" t="str">
         <v>2023-02-06T13:26:00.000Z</v>
       </c>
       <c r="K84">
-        <v>4199688895000</v>
+        <v>3848453282200</v>
       </c>
       <c r="L84">
         <v>237758600</v>
@@ -4593,13 +4593,13 @@
         <v>2122100</v>
       </c>
       <c r="N84">
-        <v>29540695000</v>
+        <v>24314426500</v>
       </c>
       <c r="O84">
         <v>7534400</v>
       </c>
       <c r="P84">
-        <v>206764579000</v>
+        <v>182659108600</v>
       </c>
     </row>
     <row r="85">
@@ -4616,10 +4616,10 @@
         <v>14200</v>
       </c>
       <c r="E85">
-        <v>24613371000</v>
+        <v>21760027200</v>
       </c>
       <c r="F85">
-        <v>28244126000</v>
+        <v>25258015100</v>
       </c>
       <c r="G85">
         <v>444095000</v>
@@ -4628,13 +4628,13 @@
         <v>2873700</v>
       </c>
       <c r="I85">
-        <v>53301592000</v>
+        <v>47462137300</v>
       </c>
       <c r="J85" t="str">
         <v>2023-02-06T13:28:00.000Z</v>
       </c>
       <c r="K85">
-        <v>4252990487000</v>
+        <v>3895915419500</v>
       </c>
       <c r="L85">
         <v>240632300</v>
@@ -4643,13 +4643,13 @@
         <v>238300</v>
       </c>
       <c r="N85">
-        <v>3630755000</v>
+        <v>3497987900</v>
       </c>
       <c r="O85">
         <v>7772700</v>
       </c>
       <c r="P85">
-        <v>210395334000</v>
+        <v>186157096500</v>
       </c>
     </row>
     <row r="86">
@@ -4666,25 +4666,25 @@
         <v>1400</v>
       </c>
       <c r="E86">
-        <v>41193949000</v>
+        <v>35290658200</v>
       </c>
       <c r="F86">
-        <v>14229785000</v>
+        <v>13335879800</v>
       </c>
       <c r="G86">
-        <v>19879000</v>
+        <v>15483400</v>
       </c>
       <c r="H86">
         <v>2805300</v>
       </c>
       <c r="I86">
-        <v>55443613000</v>
+        <v>48642021400</v>
       </c>
       <c r="J86" t="str">
         <v>2023-02-06T13:30:00.000Z</v>
       </c>
       <c r="K86">
-        <v>4308434100000</v>
+        <v>3944557440900</v>
       </c>
       <c r="L86">
         <v>243437600</v>
@@ -4693,13 +4693,13 @@
         <v>-1404900</v>
       </c>
       <c r="N86">
-        <v>-26964164000</v>
+        <v>-21954778400</v>
       </c>
       <c r="O86">
         <v>6367800</v>
       </c>
       <c r="P86">
-        <v>183431170000</v>
+        <v>164202318100</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>69700</v>
       </c>
       <c r="E87">
-        <v>30765704000</v>
+        <v>28787384300</v>
       </c>
       <c r="F87">
-        <v>21631791000</v>
+        <v>19661663100</v>
       </c>
       <c r="G87">
         <v>1123060000</v>
@@ -4728,13 +4728,13 @@
         <v>2863100</v>
       </c>
       <c r="I87">
-        <v>53520555000</v>
+        <v>49572107400</v>
       </c>
       <c r="J87" t="str">
         <v>2023-02-06T13:32:00.000Z</v>
       </c>
       <c r="K87">
-        <v>4361954655000</v>
+        <v>3994129548300</v>
       </c>
       <c r="L87">
         <v>246300700</v>
@@ -4743,13 +4743,13 @@
         <v>-738600</v>
       </c>
       <c r="N87">
-        <v>-9133913000</v>
+        <v>-9125721200</v>
       </c>
       <c r="O87">
         <v>5629200</v>
       </c>
       <c r="P87">
-        <v>174297257000</v>
+        <v>155076596900</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>11200</v>
       </c>
       <c r="E88">
-        <v>40968037000</v>
+        <v>31311203500</v>
       </c>
       <c r="F88">
-        <v>15179667000</v>
+        <v>14623923300</v>
       </c>
       <c r="G88">
         <v>215306000</v>
@@ -4778,13 +4778,13 @@
         <v>2821100</v>
       </c>
       <c r="I88">
-        <v>56363010000</v>
+        <v>46150432800</v>
       </c>
       <c r="J88" t="str">
         <v>2023-02-06T13:34:00.000Z</v>
       </c>
       <c r="K88">
-        <v>4418317665000</v>
+        <v>4040279981100</v>
       </c>
       <c r="L88">
         <v>249121800</v>
@@ -4793,13 +4793,13 @@
         <v>-1227700</v>
       </c>
       <c r="N88">
-        <v>-25788370000</v>
+        <v>-16687280200</v>
       </c>
       <c r="O88">
         <v>4401500</v>
       </c>
       <c r="P88">
-        <v>148508887000</v>
+        <v>138389316700</v>
       </c>
     </row>
     <row r="89">
@@ -4816,10 +4816,10 @@
         <v>14600</v>
       </c>
       <c r="E89">
-        <v>38524998000</v>
+        <v>29931300300</v>
       </c>
       <c r="F89">
-        <v>25342795000</v>
+        <v>18495549100</v>
       </c>
       <c r="G89">
         <v>460556000</v>
@@ -4828,13 +4828,13 @@
         <v>3112000</v>
       </c>
       <c r="I89">
-        <v>64328349000</v>
+        <v>48887405400</v>
       </c>
       <c r="J89" t="str">
         <v>2023-02-06T13:36:00.000Z</v>
       </c>
       <c r="K89">
-        <v>4482646014000</v>
+        <v>4089167386500</v>
       </c>
       <c r="L89">
         <v>252233800</v>
@@ -4843,13 +4843,13 @@
         <v>-774800</v>
       </c>
       <c r="N89">
-        <v>-13182203000</v>
+        <v>-11435751200</v>
       </c>
       <c r="O89">
         <v>3626700</v>
       </c>
       <c r="P89">
-        <v>135326684000</v>
+        <v>126953565500</v>
       </c>
     </row>
     <row r="90">
@@ -4866,10 +4866,10 @@
         <v>12300</v>
       </c>
       <c r="E90">
-        <v>63636537000</v>
+        <v>60553023600</v>
       </c>
       <c r="F90">
-        <v>23295262000</v>
+        <v>22026831700</v>
       </c>
       <c r="G90">
         <v>259694000</v>
@@ -4878,13 +4878,13 @@
         <v>4730000</v>
       </c>
       <c r="I90">
-        <v>87191493000</v>
+        <v>82839549300</v>
       </c>
       <c r="J90" t="str">
         <v>2023-02-06T13:38:00.000Z</v>
       </c>
       <c r="K90">
-        <v>4569837507000</v>
+        <v>4172006935800</v>
       </c>
       <c r="L90">
         <v>256963800</v>
@@ -4893,13 +4893,13 @@
         <v>-2589100</v>
       </c>
       <c r="N90">
-        <v>-40341275000</v>
+        <v>-38526191900</v>
       </c>
       <c r="O90">
         <v>1037600</v>
       </c>
       <c r="P90">
-        <v>94985409000</v>
+        <v>88427373600</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>33200</v>
       </c>
       <c r="E91">
-        <v>49190783000</v>
+        <v>44566212200</v>
       </c>
       <c r="F91">
-        <v>26822835000</v>
+        <v>26006452200</v>
       </c>
       <c r="G91">
-        <v>579935000</v>
+        <v>536478500</v>
       </c>
       <c r="H91">
         <v>3946600</v>
       </c>
       <c r="I91">
-        <v>76593553000</v>
+        <v>71109142900</v>
       </c>
       <c r="J91" t="str">
         <v>2023-02-06T13:40:00.000Z</v>
       </c>
       <c r="K91">
-        <v>4646431060000</v>
+        <v>4243116078700</v>
       </c>
       <c r="L91">
         <v>260910400</v>
@@ -4943,13 +4943,13 @@
         <v>-1869800</v>
       </c>
       <c r="N91">
-        <v>-22367948000</v>
+        <v>-18559760000</v>
       </c>
       <c r="O91">
         <v>-832200</v>
       </c>
       <c r="P91">
-        <v>72617461000</v>
+        <v>69867613600</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>4800</v>
       </c>
       <c r="E92">
-        <v>22962296000</v>
+        <v>19778083400</v>
       </c>
       <c r="F92">
-        <v>30313621000</v>
+        <v>29616418900</v>
       </c>
       <c r="G92">
         <v>50735000</v>
@@ -4978,13 +4978,13 @@
         <v>3181200</v>
       </c>
       <c r="I92">
-        <v>53326652000</v>
+        <v>49445237300</v>
       </c>
       <c r="J92" t="str">
         <v>2023-02-06T13:42:00.000Z</v>
       </c>
       <c r="K92">
-        <v>4699757712000</v>
+        <v>4292561316000</v>
       </c>
       <c r="L92">
         <v>264091600</v>
@@ -4993,13 +4993,13 @@
         <v>449800</v>
       </c>
       <c r="N92">
-        <v>7351325000</v>
+        <v>9838335500</v>
       </c>
       <c r="O92">
         <v>-382400</v>
       </c>
       <c r="P92">
-        <v>79968786000</v>
+        <v>79705949100</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>5300</v>
       </c>
       <c r="E93">
-        <v>24377614000</v>
+        <v>20944550500</v>
       </c>
       <c r="F93">
-        <v>25011789000</v>
+        <v>23150951700</v>
       </c>
       <c r="G93">
         <v>205000000</v>
@@ -5028,13 +5028,13 @@
         <v>2634700</v>
       </c>
       <c r="I93">
-        <v>49594403000</v>
+        <v>44300502200</v>
       </c>
       <c r="J93" t="str">
         <v>2023-02-06T13:44:00.000Z</v>
       </c>
       <c r="K93">
-        <v>4749352115000</v>
+        <v>4336861818200</v>
       </c>
       <c r="L93">
         <v>266726300</v>
@@ -5043,13 +5043,13 @@
         <v>-41000</v>
       </c>
       <c r="N93">
-        <v>634175000</v>
+        <v>2206401200</v>
       </c>
       <c r="O93">
         <v>-423400</v>
       </c>
       <c r="P93">
-        <v>80602961000</v>
+        <v>81912350300</v>
       </c>
     </row>
     <row r="94">
@@ -5066,10 +5066,10 @@
         <v>19500</v>
       </c>
       <c r="E94">
-        <v>40699776000</v>
+        <v>39454122900</v>
       </c>
       <c r="F94">
-        <v>24117634000</v>
+        <v>23394258100</v>
       </c>
       <c r="G94">
         <v>447873000</v>
@@ -5078,13 +5078,13 @@
         <v>3255200</v>
       </c>
       <c r="I94">
-        <v>65265283000</v>
+        <v>63296254000</v>
       </c>
       <c r="J94" t="str">
         <v>2023-02-06T13:46:00.000Z</v>
       </c>
       <c r="K94">
-        <v>4814617398000</v>
+        <v>4400158072200</v>
       </c>
       <c r="L94">
         <v>269981500</v>
@@ -5093,13 +5093,13 @@
         <v>-956500</v>
       </c>
       <c r="N94">
-        <v>-16582142000</v>
+        <v>-16059864800</v>
       </c>
       <c r="O94">
         <v>-1379900</v>
       </c>
       <c r="P94">
-        <v>64020819000</v>
+        <v>65852485500</v>
       </c>
     </row>
     <row r="95">
@@ -5116,25 +5116,25 @@
         <v>16700</v>
       </c>
       <c r="E95">
-        <v>29344203000</v>
+        <v>25212838500</v>
       </c>
       <c r="F95">
-        <v>24152324000</v>
+        <v>22734942800</v>
       </c>
       <c r="G95">
-        <v>143399000</v>
+        <v>139902500</v>
       </c>
       <c r="H95">
         <v>2598300</v>
       </c>
       <c r="I95">
-        <v>53639926000</v>
+        <v>48087683800</v>
       </c>
       <c r="J95" t="str">
         <v>2023-02-06T13:48:00.000Z</v>
       </c>
       <c r="K95">
-        <v>4868257324000</v>
+        <v>4448245756000</v>
       </c>
       <c r="L95">
         <v>272579800</v>
@@ -5143,13 +5143,13 @@
         <v>-218000</v>
       </c>
       <c r="N95">
-        <v>-5191879000</v>
+        <v>-2477895700</v>
       </c>
       <c r="O95">
         <v>-1597900</v>
       </c>
       <c r="P95">
-        <v>58828940000</v>
+        <v>63374589800</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>2900</v>
       </c>
       <c r="E96">
-        <v>57975673000</v>
+        <v>50748607300</v>
       </c>
       <c r="F96">
-        <v>21234696000</v>
+        <v>20264067600</v>
       </c>
       <c r="G96">
         <v>61825000</v>
@@ -5178,13 +5178,13 @@
         <v>3203400</v>
       </c>
       <c r="I96">
-        <v>79272194000</v>
+        <v>71074499900</v>
       </c>
       <c r="J96" t="str">
         <v>2023-02-06T13:50:00.000Z</v>
       </c>
       <c r="K96">
-        <v>4947529518000</v>
+        <v>4519320255900</v>
       </c>
       <c r="L96">
         <v>275783200</v>
@@ -5193,13 +5193,13 @@
         <v>-1094900</v>
       </c>
       <c r="N96">
-        <v>-36740977000</v>
+        <v>-30484539700</v>
       </c>
       <c r="O96">
         <v>-2692800</v>
       </c>
       <c r="P96">
-        <v>22087963000</v>
+        <v>32890050100</v>
       </c>
     </row>
     <row r="97">
@@ -5216,25 +5216,25 @@
         <v>2500</v>
       </c>
       <c r="E97">
-        <v>34068198000</v>
+        <v>33523343400</v>
       </c>
       <c r="F97">
-        <v>21484953000</v>
+        <v>18148392900</v>
       </c>
       <c r="G97">
-        <v>51480000</v>
+        <v>34497000</v>
       </c>
       <c r="H97">
         <v>2741600</v>
       </c>
       <c r="I97">
-        <v>55604631000</v>
+        <v>51706233300</v>
       </c>
       <c r="J97" t="str">
         <v>2023-02-06T13:52:00.000Z</v>
       </c>
       <c r="K97">
-        <v>5003134149000</v>
+        <v>4571026489200</v>
       </c>
       <c r="L97">
         <v>278524800</v>
@@ -5243,13 +5243,13 @@
         <v>-667100</v>
       </c>
       <c r="N97">
-        <v>-12583245000</v>
+        <v>-15374950500</v>
       </c>
       <c r="O97">
         <v>-3359900</v>
       </c>
       <c r="P97">
-        <v>9504718000</v>
+        <v>17515099600</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>39400</v>
       </c>
       <c r="E98">
-        <v>29412427000</v>
+        <v>26410232200</v>
       </c>
       <c r="F98">
-        <v>32455866000</v>
+        <v>29796927600</v>
       </c>
       <c r="G98">
         <v>520850000</v>
@@ -5278,13 +5278,13 @@
         <v>3078600</v>
       </c>
       <c r="I98">
-        <v>62389143000</v>
+        <v>56728009800</v>
       </c>
       <c r="J98" t="str">
         <v>2023-02-06T13:54:00.000Z</v>
       </c>
       <c r="K98">
-        <v>5065523292000</v>
+        <v>4627754499000</v>
       </c>
       <c r="L98">
         <v>281603400</v>
@@ -5293,13 +5293,13 @@
         <v>-209200</v>
       </c>
       <c r="N98">
-        <v>3043439000</v>
+        <v>3386695400</v>
       </c>
       <c r="O98">
         <v>-3569100</v>
       </c>
       <c r="P98">
-        <v>12548157000</v>
+        <v>20901795000</v>
       </c>
     </row>
     <row r="99">
@@ -5316,10 +5316,10 @@
         <v>4200</v>
       </c>
       <c r="E99">
-        <v>24422294000</v>
+        <v>24048068600</v>
       </c>
       <c r="F99">
-        <v>45637922000</v>
+        <v>40709155700</v>
       </c>
       <c r="G99">
         <v>105356000</v>
@@ -5328,13 +5328,13 @@
         <v>3235100</v>
       </c>
       <c r="I99">
-        <v>70165572000</v>
+        <v>64862580300</v>
       </c>
       <c r="J99" t="str">
         <v>2023-02-06T13:56:00.000Z</v>
       </c>
       <c r="K99">
-        <v>5135688864000</v>
+        <v>4692617079300</v>
       </c>
       <c r="L99">
         <v>284838500</v>
@@ -5343,13 +5343,13 @@
         <v>1023500</v>
       </c>
       <c r="N99">
-        <v>21215628000</v>
+        <v>16661087100</v>
       </c>
       <c r="O99">
         <v>-2545600</v>
       </c>
       <c r="P99">
-        <v>33763785000</v>
+        <v>37562882100</v>
       </c>
     </row>
     <row r="100">
@@ -5366,10 +5366,10 @@
         <v>7600</v>
       </c>
       <c r="E100">
-        <v>18167000000</v>
+        <v>16774893500</v>
       </c>
       <c r="F100">
-        <v>41332631000</v>
+        <v>38452514000</v>
       </c>
       <c r="G100">
         <v>159944000</v>
@@ -5378,13 +5378,13 @@
         <v>2641400</v>
       </c>
       <c r="I100">
-        <v>59659575000</v>
+        <v>55387351500</v>
       </c>
       <c r="J100" t="str">
         <v>2023-02-06T13:58:00.000Z</v>
       </c>
       <c r="K100">
-        <v>5195348439000</v>
+        <v>4748004430800</v>
       </c>
       <c r="L100">
         <v>287479900</v>
@@ -5393,13 +5393,13 @@
         <v>1025000</v>
       </c>
       <c r="N100">
-        <v>23165631000</v>
+        <v>21677620500</v>
       </c>
       <c r="O100">
         <v>-1520600</v>
       </c>
       <c r="P100">
-        <v>56929416000</v>
+        <v>59240502600</v>
       </c>
     </row>
     <row r="101">
@@ -5416,10 +5416,10 @@
         <v>22400</v>
       </c>
       <c r="E101">
-        <v>63375826000</v>
+        <v>58674432100</v>
       </c>
       <c r="F101">
-        <v>29870772000</v>
+        <v>27522422700</v>
       </c>
       <c r="G101">
         <v>374295000</v>
@@ -5428,13 +5428,13 @@
         <v>4357100</v>
       </c>
       <c r="I101">
-        <v>93620893000</v>
+        <v>86571149800</v>
       </c>
       <c r="J101" t="str">
         <v>2023-02-06T14:00:00.000Z</v>
       </c>
       <c r="K101">
-        <v>5288969332000</v>
+        <v>4834575580600</v>
       </c>
       <c r="L101">
         <v>291837000</v>
@@ -5443,13 +5443,13 @@
         <v>-1592300</v>
       </c>
       <c r="N101">
-        <v>-33505054000</v>
+        <v>-31152009400</v>
       </c>
       <c r="O101">
         <v>-3112900</v>
       </c>
       <c r="P101">
-        <v>23424362000</v>
+        <v>28088493200</v>
       </c>
     </row>
     <row r="102">
@@ -5466,25 +5466,25 @@
         <v>10500</v>
       </c>
       <c r="E102">
-        <v>79603625000</v>
+        <v>75803528900</v>
       </c>
       <c r="F102">
-        <v>15818173000</v>
+        <v>15411080500</v>
       </c>
       <c r="G102">
-        <v>185317000</v>
+        <v>47055400</v>
       </c>
       <c r="H102">
         <v>5436000</v>
       </c>
       <c r="I102">
-        <v>95607115000</v>
+        <v>91261664800</v>
       </c>
       <c r="J102" t="str">
         <v>2023-02-06T14:02:00.000Z</v>
       </c>
       <c r="K102">
-        <v>5384576447000</v>
+        <v>4925837245400</v>
       </c>
       <c r="L102">
         <v>297273000</v>
@@ -5493,13 +5493,13 @@
         <v>-3728700</v>
       </c>
       <c r="N102">
-        <v>-63785452000</v>
+        <v>-60392448400</v>
       </c>
       <c r="O102">
         <v>-6841600</v>
       </c>
       <c r="P102">
-        <v>-40361090000</v>
+        <v>-32303955200</v>
       </c>
     </row>
     <row r="103">
@@ -5516,10 +5516,10 @@
         <v>18900</v>
       </c>
       <c r="E103">
-        <v>53975150000</v>
+        <v>50065563500</v>
       </c>
       <c r="F103">
-        <v>30276586000</v>
+        <v>26482983400</v>
       </c>
       <c r="G103">
         <v>290129000</v>
@@ -5528,13 +5528,13 @@
         <v>4579500</v>
       </c>
       <c r="I103">
-        <v>84541865000</v>
+        <v>76838675900</v>
       </c>
       <c r="J103" t="str">
         <v>2023-02-06T14:04:00.000Z</v>
       </c>
       <c r="K103">
-        <v>5469118312000</v>
+        <v>5002675921300</v>
       </c>
       <c r="L103">
         <v>301852500</v>
@@ -5543,13 +5543,13 @@
         <v>-1338800</v>
       </c>
       <c r="N103">
-        <v>-23698564000</v>
+        <v>-23582580100</v>
       </c>
       <c r="O103">
         <v>-8180400</v>
       </c>
       <c r="P103">
-        <v>-64059654000</v>
+        <v>-55886535300</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>19600</v>
       </c>
       <c r="E104">
-        <v>43013179000</v>
+        <v>41478315400</v>
       </c>
       <c r="F104">
-        <v>36118317000</v>
+        <v>34910625900</v>
       </c>
       <c r="G104">
         <v>284956000</v>
@@ -5578,13 +5578,13 @@
         <v>4530000</v>
       </c>
       <c r="I104">
-        <v>79416452000</v>
+        <v>76673897300</v>
       </c>
       <c r="J104" t="str">
         <v>2023-02-06T14:06:00.000Z</v>
       </c>
       <c r="K104">
-        <v>5548534764000</v>
+        <v>5079349818600</v>
       </c>
       <c r="L104">
         <v>306382500</v>
@@ -5593,13 +5593,13 @@
         <v>-1097800</v>
       </c>
       <c r="N104">
-        <v>-6894862000</v>
+        <v>-6567689500</v>
       </c>
       <c r="O104">
         <v>-9278200</v>
       </c>
       <c r="P104">
-        <v>-70954516000</v>
+        <v>-62454224800</v>
       </c>
     </row>
     <row r="105">
@@ -5616,25 +5616,25 @@
         <v>28500</v>
       </c>
       <c r="E105">
-        <v>22489794000</v>
+        <v>21810973500</v>
       </c>
       <c r="F105">
-        <v>33615225000</v>
+        <v>31887854100</v>
       </c>
       <c r="G105">
-        <v>1104705000</v>
+        <v>1089220500</v>
       </c>
       <c r="H105">
         <v>3088300</v>
       </c>
       <c r="I105">
-        <v>57209724000</v>
+        <v>54788048100</v>
       </c>
       <c r="J105" t="str">
         <v>2023-02-06T14:08:00.000Z</v>
       </c>
       <c r="K105">
-        <v>5605744488000</v>
+        <v>5134137866700</v>
       </c>
       <c r="L105">
         <v>309470800</v>
@@ -5643,13 +5643,13 @@
         <v>495400</v>
       </c>
       <c r="N105">
-        <v>11125431000</v>
+        <v>10076880600</v>
       </c>
       <c r="O105">
         <v>-8782800</v>
       </c>
       <c r="P105">
-        <v>-59829085000</v>
+        <v>-52377344200</v>
       </c>
     </row>
     <row r="106">
@@ -5666,25 +5666,25 @@
         <v>33400</v>
       </c>
       <c r="E106">
-        <v>23082089000</v>
+        <v>21092980100</v>
       </c>
       <c r="F106">
-        <v>41886556000</v>
+        <v>38087858500</v>
       </c>
       <c r="G106">
-        <v>1232028000</v>
+        <v>130530600</v>
       </c>
       <c r="H106">
         <v>3508100</v>
       </c>
       <c r="I106">
-        <v>66200673000</v>
+        <v>59311369200</v>
       </c>
       <c r="J106" t="str">
         <v>2023-02-06T14:10:00.000Z</v>
       </c>
       <c r="K106">
-        <v>5671945161000</v>
+        <v>5193449235900</v>
       </c>
       <c r="L106">
         <v>312978900</v>
@@ -5693,13 +5693,13 @@
         <v>1072500</v>
       </c>
       <c r="N106">
-        <v>18804467000</v>
+        <v>16994878400</v>
       </c>
       <c r="O106">
         <v>-7710300</v>
       </c>
       <c r="P106">
-        <v>-41024618000</v>
+        <v>-35382465800</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>3200</v>
       </c>
       <c r="E107">
-        <v>21167620000</v>
+        <v>19524265000</v>
       </c>
       <c r="F107">
-        <v>42142910000</v>
+        <v>40402751900</v>
       </c>
       <c r="G107">
         <v>19810000</v>
@@ -5728,13 +5728,13 @@
         <v>3043900</v>
       </c>
       <c r="I107">
-        <v>63330340000</v>
+        <v>59946826900</v>
       </c>
       <c r="J107" t="str">
         <v>2023-02-06T14:12:00.000Z</v>
       </c>
       <c r="K107">
-        <v>5735275501000</v>
+        <v>5253396062800</v>
       </c>
       <c r="L107">
         <v>316022800</v>
@@ -5743,13 +5743,13 @@
         <v>754100</v>
       </c>
       <c r="N107">
-        <v>20975290000</v>
+        <v>20878486900</v>
       </c>
       <c r="O107">
         <v>-6956200</v>
       </c>
       <c r="P107">
-        <v>-20049328000</v>
+        <v>-14503978900</v>
       </c>
     </row>
     <row r="108">
@@ -5766,10 +5766,10 @@
         <v>4900</v>
       </c>
       <c r="E108">
-        <v>19375115000</v>
+        <v>18218872400</v>
       </c>
       <c r="F108">
-        <v>37877472000</v>
+        <v>36353097900</v>
       </c>
       <c r="G108">
         <v>31945000</v>
@@ -5778,13 +5778,13 @@
         <v>3007000</v>
       </c>
       <c r="I108">
-        <v>57284532000</v>
+        <v>54603915300</v>
       </c>
       <c r="J108" t="str">
         <v>2023-02-06T14:14:00.000Z</v>
       </c>
       <c r="K108">
-        <v>5792560033000</v>
+        <v>5307999978100</v>
       </c>
       <c r="L108">
         <v>319029800</v>
@@ -5793,13 +5793,13 @@
         <v>1012100</v>
       </c>
       <c r="N108">
-        <v>18502357000</v>
+        <v>18134225500</v>
       </c>
       <c r="O108">
         <v>-5944100</v>
       </c>
       <c r="P108">
-        <v>-1546971000</v>
+        <v>3630246600</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>3100</v>
       </c>
       <c r="E109">
-        <v>22553968000</v>
+        <v>21229194100</v>
       </c>
       <c r="F109">
-        <v>81179542000</v>
+        <v>74205622900</v>
       </c>
       <c r="G109">
-        <v>114529000</v>
+        <v>110133400</v>
       </c>
       <c r="H109">
         <v>4659400</v>
       </c>
       <c r="I109">
-        <v>103848039000</v>
+        <v>95544950400</v>
       </c>
       <c r="J109" t="str">
         <v>2023-02-06T14:16:00.000Z</v>
       </c>
       <c r="K109">
-        <v>5896408072000</v>
+        <v>5403544928500</v>
       </c>
       <c r="L109">
         <v>323689200</v>
@@ -5843,13 +5843,13 @@
         <v>2495700</v>
       </c>
       <c r="N109">
-        <v>58625574000</v>
+        <v>52976428800</v>
       </c>
       <c r="O109">
         <v>-3448400</v>
       </c>
       <c r="P109">
-        <v>57078603000</v>
+        <v>56606675400</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>24500</v>
       </c>
       <c r="E110">
-        <v>17904610000</v>
+        <v>16306409800</v>
       </c>
       <c r="F110">
-        <v>109621184000</v>
+        <v>93912008900</v>
       </c>
       <c r="G110">
         <v>665876000</v>
@@ -5878,13 +5878,13 @@
         <v>7146100</v>
       </c>
       <c r="I110">
-        <v>128191670000</v>
+        <v>110884294700</v>
       </c>
       <c r="J110" t="str">
         <v>2023-02-06T14:18:00.000Z</v>
       </c>
       <c r="K110">
-        <v>6024599742000</v>
+        <v>5514429223200</v>
       </c>
       <c r="L110">
         <v>330835300</v>
@@ -5893,13 +5893,13 @@
         <v>4841800</v>
       </c>
       <c r="N110">
-        <v>91716574000</v>
+        <v>77605599100</v>
       </c>
       <c r="O110">
         <v>1393400</v>
       </c>
       <c r="P110">
-        <v>148795177000</v>
+        <v>134212274500</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>2100</v>
       </c>
       <c r="E111">
-        <v>27761228000</v>
+        <v>23994098900</v>
       </c>
       <c r="F111">
-        <v>75926723000</v>
+        <v>70091064500</v>
       </c>
       <c r="G111">
         <v>53793000</v>
@@ -5928,13 +5928,13 @@
         <v>5385700</v>
       </c>
       <c r="I111">
-        <v>103741744000</v>
+        <v>94138956400</v>
       </c>
       <c r="J111" t="str">
         <v>2023-02-06T14:20:00.000Z</v>
       </c>
       <c r="K111">
-        <v>6128341486000</v>
+        <v>5608568179600</v>
       </c>
       <c r="L111">
         <v>336221000</v>
@@ -5943,13 +5943,13 @@
         <v>2735800</v>
       </c>
       <c r="N111">
-        <v>48165495000</v>
+        <v>46096965600</v>
       </c>
       <c r="O111">
         <v>4129200</v>
       </c>
       <c r="P111">
-        <v>196960672000</v>
+        <v>180309240100</v>
       </c>
     </row>
     <row r="112">
@@ -5966,25 +5966,25 @@
         <v>30000</v>
       </c>
       <c r="E112">
-        <v>32269918000</v>
+        <v>29586204400</v>
       </c>
       <c r="F112">
-        <v>110168702000</v>
+        <v>98325656900</v>
       </c>
       <c r="G112">
-        <v>854046000</v>
+        <v>404496000</v>
       </c>
       <c r="H112">
         <v>7038700</v>
       </c>
       <c r="I112">
-        <v>143292666000</v>
+        <v>128316357300</v>
       </c>
       <c r="J112" t="str">
         <v>2023-02-06T14:22:00.000Z</v>
       </c>
       <c r="K112">
-        <v>6271634152000</v>
+        <v>5736884536900</v>
       </c>
       <c r="L112">
         <v>343259700</v>
@@ -5993,13 +5993,13 @@
         <v>3596900</v>
       </c>
       <c r="N112">
-        <v>77898784000</v>
+        <v>68739452500</v>
       </c>
       <c r="O112">
         <v>7726100</v>
       </c>
       <c r="P112">
-        <v>274859456000</v>
+        <v>249048692600</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>7000</v>
       </c>
       <c r="E113">
-        <v>26269391000</v>
+        <v>24753108800</v>
       </c>
       <c r="F113">
-        <v>123231424000</v>
+        <v>113049516100</v>
       </c>
       <c r="G113">
         <v>139777000</v>
@@ -6028,13 +6028,13 @@
         <v>7111500</v>
       </c>
       <c r="I113">
-        <v>149640592000</v>
+        <v>137942401900</v>
       </c>
       <c r="J113" t="str">
         <v>2023-02-06T14:24:00.000Z</v>
       </c>
       <c r="K113">
-        <v>6421274744000</v>
+        <v>5874826938800</v>
       </c>
       <c r="L113">
         <v>350371200</v>
@@ -6043,13 +6043,13 @@
         <v>3797300</v>
       </c>
       <c r="N113">
-        <v>96962033000</v>
+        <v>88296407300</v>
       </c>
       <c r="O113">
         <v>11523400</v>
       </c>
       <c r="P113">
-        <v>371821489000</v>
+        <v>337345099900</v>
       </c>
     </row>
     <row r="114">
@@ -6066,10 +6066,10 @@
         <v>101200</v>
       </c>
       <c r="E114">
-        <v>46142834000</v>
+        <v>43794884300</v>
       </c>
       <c r="F114">
-        <v>78570283000</v>
+        <v>67982581300</v>
       </c>
       <c r="G114">
         <v>962942000</v>
@@ -6078,13 +6078,13 @@
         <v>7209500</v>
       </c>
       <c r="I114">
-        <v>125676059000</v>
+        <v>112740407600</v>
       </c>
       <c r="J114" t="str">
         <v>2023-02-06T14:26:00.000Z</v>
       </c>
       <c r="K114">
-        <v>6546950803000</v>
+        <v>5987567346400</v>
       </c>
       <c r="L114">
         <v>357580700</v>
@@ -6093,13 +6093,13 @@
         <v>1280700</v>
       </c>
       <c r="N114">
-        <v>32427449000</v>
+        <v>24187697000</v>
       </c>
       <c r="O114">
         <v>12804100</v>
       </c>
       <c r="P114">
-        <v>404248938000</v>
+        <v>361532796900</v>
       </c>
     </row>
     <row r="115">
@@ -6116,10 +6116,10 @@
         <v>20600</v>
       </c>
       <c r="E115">
-        <v>58632088000</v>
+        <v>47627403700</v>
       </c>
       <c r="F115">
-        <v>71175623000</v>
+        <v>60824584400</v>
       </c>
       <c r="G115">
         <v>445268000</v>
@@ -6128,13 +6128,13 @@
         <v>7016800</v>
       </c>
       <c r="I115">
-        <v>130252979000</v>
+        <v>108897256100</v>
       </c>
       <c r="J115" t="str">
         <v>2023-02-06T14:28:00.000Z</v>
       </c>
       <c r="K115">
-        <v>6677203782000</v>
+        <v>6096464602500</v>
       </c>
       <c r="L115">
         <v>364597500</v>
@@ -6143,13 +6143,13 @@
         <v>421400</v>
       </c>
       <c r="N115">
-        <v>12543535000</v>
+        <v>13197180700</v>
       </c>
       <c r="O115">
         <v>13225500</v>
       </c>
       <c r="P115">
-        <v>416792473000</v>
+        <v>374729977600</v>
       </c>
     </row>
     <row r="116">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="E116">
-        <v>448620000</v>
+        <v>277191600</v>
       </c>
       <c r="F116">
         <v>61375000</v>
@@ -6178,13 +6178,13 @@
         <v>23400</v>
       </c>
       <c r="I116">
-        <v>509995000</v>
+        <v>338566600</v>
       </c>
       <c r="J116" t="str">
         <v>2023-02-06T14:30:00.000Z</v>
       </c>
       <c r="K116">
-        <v>6677713777000</v>
+        <v>6096803169100</v>
       </c>
       <c r="L116">
         <v>364620900</v>
@@ -6193,13 +6193,13 @@
         <v>-17400</v>
       </c>
       <c r="N116">
-        <v>-387245000</v>
+        <v>-215816600</v>
       </c>
       <c r="O116">
         <v>13208100</v>
       </c>
       <c r="P116">
-        <v>416405228000</v>
+        <v>374514161000</v>
       </c>
     </row>
     <row r="117">
@@ -6216,25 +6216,25 @@
         <v>14640500</v>
       </c>
       <c r="E117">
-        <v>88367027000</v>
+        <v>83826372200</v>
       </c>
       <c r="F117">
-        <v>151673771000</v>
+        <v>123160712600</v>
       </c>
       <c r="G117">
-        <v>295735316000</v>
+        <v>258292396400</v>
       </c>
       <c r="H117">
         <v>25249800</v>
       </c>
       <c r="I117">
-        <v>535776114000</v>
+        <v>465279481200</v>
       </c>
       <c r="J117" t="str">
         <v>2023-02-06T14:44:00.000Z</v>
       </c>
       <c r="K117">
-        <v>7213489891000</v>
+        <v>6562082650300</v>
       </c>
       <c r="L117">
         <v>389870700</v>
@@ -6243,13 +6243,13 @@
         <v>650700</v>
       </c>
       <c r="N117">
-        <v>63306744000</v>
+        <v>39334340400</v>
       </c>
       <c r="O117">
         <v>13858800</v>
       </c>
       <c r="P117">
-        <v>479711972000</v>
+        <v>413848501400</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230206/VNINDEX_HOSE_5p_20230206.xlsx
+++ b/name/vnindex/20230206/VNINDEX_HOSE_5p_20230206.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P117"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-19182791700</v>
       </c>
+      <c r="Q2">
+        <v>20158126000</v>
+      </c>
+      <c r="R2">
+        <v>39340917700</v>
+      </c>
+      <c r="S2">
+        <v>1217000</v>
+      </c>
+      <c r="T2">
+        <v>2829300</v>
+      </c>
+      <c r="U2">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V2">
+        <v>25064752731</v>
+      </c>
+      <c r="W2">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X2">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y2">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z2">
+        <v>1531825</v>
+      </c>
+      <c r="AA2">
+        <v>119472.4</v>
+      </c>
+      <c r="AB2">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC2">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>-29074450400</v>
       </c>
+      <c r="Q3">
+        <v>40695136500</v>
+      </c>
+      <c r="R3">
+        <v>69769586900</v>
+      </c>
+      <c r="S3">
+        <v>2704800</v>
+      </c>
+      <c r="T3">
+        <v>4657000</v>
+      </c>
+      <c r="U3">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V3">
+        <v>25064752731</v>
+      </c>
+      <c r="W3">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X3">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y3">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z3">
+        <v>1531825</v>
+      </c>
+      <c r="AA3">
+        <v>119472.4</v>
+      </c>
+      <c r="AB3">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC3">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>-39620890200</v>
       </c>
+      <c r="Q4">
+        <v>68538530500</v>
+      </c>
+      <c r="R4">
+        <v>108159420700</v>
+      </c>
+      <c r="S4">
+        <v>4476700</v>
+      </c>
+      <c r="T4">
+        <v>6919900</v>
+      </c>
+      <c r="U4">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V4">
+        <v>25064752731</v>
+      </c>
+      <c r="W4">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X4">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y4">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z4">
+        <v>1531825</v>
+      </c>
+      <c r="AA4">
+        <v>119472.4</v>
+      </c>
+      <c r="AB4">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC4">
+        <v>3</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>-52952704800</v>
       </c>
+      <c r="Q5">
+        <v>94484753100</v>
+      </c>
+      <c r="R5">
+        <v>147437457900</v>
+      </c>
+      <c r="S5">
+        <v>6278300</v>
+      </c>
+      <c r="T5">
+        <v>9302100</v>
+      </c>
+      <c r="U5">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V5">
+        <v>25064752731</v>
+      </c>
+      <c r="W5">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X5">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y5">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z5">
+        <v>1531825</v>
+      </c>
+      <c r="AA5">
+        <v>119472.4</v>
+      </c>
+      <c r="AB5">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC5">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>-63037464600</v>
       </c>
+      <c r="Q6">
+        <v>123774571800</v>
+      </c>
+      <c r="R6">
+        <v>186812036400</v>
+      </c>
+      <c r="S6">
+        <v>7939400</v>
+      </c>
+      <c r="T6">
+        <v>12068500</v>
+      </c>
+      <c r="U6">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V6">
+        <v>25064752731</v>
+      </c>
+      <c r="W6">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X6">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y6">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z6">
+        <v>1531825</v>
+      </c>
+      <c r="AA6">
+        <v>119472.4</v>
+      </c>
+      <c r="AB6">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC6">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-72634699100</v>
       </c>
+      <c r="Q7">
+        <v>153726319300</v>
+      </c>
+      <c r="R7">
+        <v>226361018400</v>
+      </c>
+      <c r="S7">
+        <v>9818100</v>
+      </c>
+      <c r="T7">
+        <v>14671800</v>
+      </c>
+      <c r="U7">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V7">
+        <v>25064752731</v>
+      </c>
+      <c r="W7">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X7">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y7">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z7">
+        <v>1531825</v>
+      </c>
+      <c r="AA7">
+        <v>119472.4</v>
+      </c>
+      <c r="AB7">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC7">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-64812424000</v>
       </c>
+      <c r="Q8">
+        <v>187445667700</v>
+      </c>
+      <c r="R8">
+        <v>252258091700</v>
+      </c>
+      <c r="S8">
+        <v>12279200</v>
+      </c>
+      <c r="T8">
+        <v>16598700</v>
+      </c>
+      <c r="U8">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V8">
+        <v>25064752731</v>
+      </c>
+      <c r="W8">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X8">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y8">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z8">
+        <v>1531825</v>
+      </c>
+      <c r="AA8">
+        <v>119472.4</v>
+      </c>
+      <c r="AB8">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC8">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-50673031500</v>
       </c>
+      <c r="Q9">
+        <v>231437226900</v>
+      </c>
+      <c r="R9">
+        <v>282110258400</v>
+      </c>
+      <c r="S9">
+        <v>15416400</v>
+      </c>
+      <c r="T9">
+        <v>18357700</v>
+      </c>
+      <c r="U9">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V9">
+        <v>25064752731</v>
+      </c>
+      <c r="W9">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X9">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y9">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z9">
+        <v>1531825</v>
+      </c>
+      <c r="AA9">
+        <v>119472.4</v>
+      </c>
+      <c r="AB9">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC9">
+        <v>4</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-58815140400</v>
       </c>
+      <c r="Q10">
+        <v>253302337300</v>
+      </c>
+      <c r="R10">
+        <v>312117477700</v>
+      </c>
+      <c r="S10">
+        <v>17037900</v>
+      </c>
+      <c r="T10">
+        <v>20492900</v>
+      </c>
+      <c r="U10">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V10">
+        <v>25064752731</v>
+      </c>
+      <c r="W10">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X10">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y10">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z10">
+        <v>1531825</v>
+      </c>
+      <c r="AA10">
+        <v>119472.4</v>
+      </c>
+      <c r="AB10">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC10">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-76425520800</v>
       </c>
+      <c r="Q11">
+        <v>274711563600</v>
+      </c>
+      <c r="R11">
+        <v>351137084400</v>
+      </c>
+      <c r="S11">
+        <v>18541900</v>
+      </c>
+      <c r="T11">
+        <v>23277800</v>
+      </c>
+      <c r="U11">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V11">
+        <v>25064752731</v>
+      </c>
+      <c r="W11">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X11">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y11">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z11">
+        <v>1531825</v>
+      </c>
+      <c r="AA11">
+        <v>119472.4</v>
+      </c>
+      <c r="AB11">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC11">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-86449717600</v>
       </c>
+      <c r="Q12">
+        <v>299760424500</v>
+      </c>
+      <c r="R12">
+        <v>386210142100</v>
+      </c>
+      <c r="S12">
+        <v>20334300</v>
+      </c>
+      <c r="T12">
+        <v>25493200</v>
+      </c>
+      <c r="U12">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V12">
+        <v>25064752731</v>
+      </c>
+      <c r="W12">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X12">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y12">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z12">
+        <v>1531825</v>
+      </c>
+      <c r="AA12">
+        <v>119472.4</v>
+      </c>
+      <c r="AB12">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC12">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-93659200800</v>
       </c>
+      <c r="Q13">
+        <v>323048274400</v>
+      </c>
+      <c r="R13">
+        <v>416707475200</v>
+      </c>
+      <c r="S13">
+        <v>21807300</v>
+      </c>
+      <c r="T13">
+        <v>27484500</v>
+      </c>
+      <c r="U13">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V13">
+        <v>25064752731</v>
+      </c>
+      <c r="W13">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X13">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y13">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z13">
+        <v>1531825</v>
+      </c>
+      <c r="AA13">
+        <v>119472.4</v>
+      </c>
+      <c r="AB13">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC13">
+        <v>2</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>-115038033600</v>
       </c>
+      <c r="Q14">
+        <v>358903148400</v>
+      </c>
+      <c r="R14">
+        <v>473941182000</v>
+      </c>
+      <c r="S14">
+        <v>23802200</v>
+      </c>
+      <c r="T14">
+        <v>30599400</v>
+      </c>
+      <c r="U14">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V14">
+        <v>25064752731</v>
+      </c>
+      <c r="W14">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X14">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y14">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z14">
+        <v>1531825</v>
+      </c>
+      <c r="AA14">
+        <v>119472.4</v>
+      </c>
+      <c r="AB14">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC14">
+        <v>6</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>-99833365200</v>
       </c>
+      <c r="Q15">
+        <v>389400096200</v>
+      </c>
+      <c r="R15">
+        <v>489233461400</v>
+      </c>
+      <c r="S15">
+        <v>25747800</v>
+      </c>
+      <c r="T15">
+        <v>31670000</v>
+      </c>
+      <c r="U15">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V15">
+        <v>25064752731</v>
+      </c>
+      <c r="W15">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X15">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y15">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z15">
+        <v>1531825</v>
+      </c>
+      <c r="AA15">
+        <v>119472.4</v>
+      </c>
+      <c r="AB15">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC15">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>-75782591600</v>
       </c>
+      <c r="Q16">
+        <v>429977552600</v>
+      </c>
+      <c r="R16">
+        <v>505760144200</v>
+      </c>
+      <c r="S16">
+        <v>28553900</v>
+      </c>
+      <c r="T16">
+        <v>32719100</v>
+      </c>
+      <c r="U16">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V16">
+        <v>25064752731</v>
+      </c>
+      <c r="W16">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X16">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y16">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z16">
+        <v>1531825</v>
+      </c>
+      <c r="AA16">
+        <v>119472.4</v>
+      </c>
+      <c r="AB16">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC16">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>-53767646700</v>
       </c>
+      <c r="Q17">
+        <v>474521213800</v>
+      </c>
+      <c r="R17">
+        <v>528288860500</v>
+      </c>
+      <c r="S17">
+        <v>31623700</v>
+      </c>
+      <c r="T17">
+        <v>34169900</v>
+      </c>
+      <c r="U17">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V17">
+        <v>25064752731</v>
+      </c>
+      <c r="W17">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X17">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y17">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z17">
+        <v>1531825</v>
+      </c>
+      <c r="AA17">
+        <v>119472.4</v>
+      </c>
+      <c r="AB17">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC17">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>-49871691700</v>
       </c>
+      <c r="Q18">
+        <v>482226223000</v>
+      </c>
+      <c r="R18">
+        <v>532097914700</v>
+      </c>
+      <c r="S18">
+        <v>32067800</v>
+      </c>
+      <c r="T18">
+        <v>34392400</v>
+      </c>
+      <c r="U18">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V18">
+        <v>25064752731</v>
+      </c>
+      <c r="W18">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X18">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y18">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z18">
+        <v>1531825</v>
+      </c>
+      <c r="AA18">
+        <v>119472.4</v>
+      </c>
+      <c r="AB18">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC18">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>-54975478300</v>
       </c>
+      <c r="Q19">
+        <v>492413187700</v>
+      </c>
+      <c r="R19">
+        <v>547388666000</v>
+      </c>
+      <c r="S19">
+        <v>32778400</v>
+      </c>
+      <c r="T19">
+        <v>35228700</v>
+      </c>
+      <c r="U19">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V19">
+        <v>25064752731</v>
+      </c>
+      <c r="W19">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X19">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y19">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z19">
+        <v>1531825</v>
+      </c>
+      <c r="AA19">
+        <v>119472.4</v>
+      </c>
+      <c r="AB19">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC19">
+        <v>1.4</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>-45063166000</v>
       </c>
+      <c r="Q20">
+        <v>527204102100</v>
+      </c>
+      <c r="R20">
+        <v>572267268100</v>
+      </c>
+      <c r="S20">
+        <v>35085500</v>
+      </c>
+      <c r="T20">
+        <v>36816100</v>
+      </c>
+      <c r="U20">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V20">
+        <v>25064752731</v>
+      </c>
+      <c r="W20">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X20">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y20">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z20">
+        <v>1531825</v>
+      </c>
+      <c r="AA20">
+        <v>119472.4</v>
+      </c>
+      <c r="AB20">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC20">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>-10041209700</v>
       </c>
+      <c r="Q21">
+        <v>582501483900</v>
+      </c>
+      <c r="R21">
+        <v>592542693600</v>
+      </c>
+      <c r="S21">
+        <v>38595600</v>
+      </c>
+      <c r="T21">
+        <v>37935900</v>
+      </c>
+      <c r="U21">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V21">
+        <v>25064752731</v>
+      </c>
+      <c r="W21">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X21">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y21">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z21">
+        <v>1531825</v>
+      </c>
+      <c r="AA21">
+        <v>119472.4</v>
+      </c>
+      <c r="AB21">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC21">
+        <v>9.8</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>17206548700</v>
       </c>
+      <c r="Q22">
+        <v>628399758700</v>
+      </c>
+      <c r="R22">
+        <v>611193210000</v>
+      </c>
+      <c r="S22">
+        <v>41448600</v>
+      </c>
+      <c r="T22">
+        <v>39258900</v>
+      </c>
+      <c r="U22">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V22">
+        <v>25064752731</v>
+      </c>
+      <c r="W22">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X22">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y22">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z22">
+        <v>1531825</v>
+      </c>
+      <c r="AA22">
+        <v>119472.4</v>
+      </c>
+      <c r="AB22">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC22">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>51602025900</v>
       </c>
+      <c r="Q23">
+        <v>678776823100</v>
+      </c>
+      <c r="R23">
+        <v>627174797200</v>
+      </c>
+      <c r="S23">
+        <v>44795700</v>
+      </c>
+      <c r="T23">
+        <v>40448400</v>
+      </c>
+      <c r="U23">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V23">
+        <v>25064752731</v>
+      </c>
+      <c r="W23">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X23">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y23">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z23">
+        <v>1531825</v>
+      </c>
+      <c r="AA23">
+        <v>119472.4</v>
+      </c>
+      <c r="AB23">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC23">
+        <v>9.6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>79254988000</v>
       </c>
+      <c r="Q24">
+        <v>721527122000</v>
+      </c>
+      <c r="R24">
+        <v>642272134000</v>
+      </c>
+      <c r="S24">
+        <v>47435900</v>
+      </c>
+      <c r="T24">
+        <v>41643700</v>
+      </c>
+      <c r="U24">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V24">
+        <v>25064752731</v>
+      </c>
+      <c r="W24">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X24">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y24">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z24">
+        <v>1531825</v>
+      </c>
+      <c r="AA24">
+        <v>119472.4</v>
+      </c>
+      <c r="AB24">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC24">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>82268607900</v>
       </c>
+      <c r="Q25">
+        <v>749914662100</v>
+      </c>
+      <c r="R25">
+        <v>667646054200</v>
+      </c>
+      <c r="S25">
+        <v>49255500</v>
+      </c>
+      <c r="T25">
+        <v>43262100</v>
+      </c>
+      <c r="U25">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V25">
+        <v>25064752731</v>
+      </c>
+      <c r="W25">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X25">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y25">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z25">
+        <v>1531825</v>
+      </c>
+      <c r="AA25">
+        <v>119472.4</v>
+      </c>
+      <c r="AB25">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC25">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>72789399100</v>
       </c>
+      <c r="Q26">
+        <v>765364629500</v>
+      </c>
+      <c r="R26">
+        <v>692575230400</v>
+      </c>
+      <c r="S26">
+        <v>50308000</v>
+      </c>
+      <c r="T26">
+        <v>44895400</v>
+      </c>
+      <c r="U26">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V26">
+        <v>25064752731</v>
+      </c>
+      <c r="W26">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X26">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y26">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z26">
+        <v>1531825</v>
+      </c>
+      <c r="AA26">
+        <v>119472.4</v>
+      </c>
+      <c r="AB26">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC26">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>69471574100</v>
       </c>
+      <c r="Q27">
+        <v>785522701600</v>
+      </c>
+      <c r="R27">
+        <v>716051127500</v>
+      </c>
+      <c r="S27">
+        <v>51489400</v>
+      </c>
+      <c r="T27">
+        <v>46482800</v>
+      </c>
+      <c r="U27">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V27">
+        <v>25064752731</v>
+      </c>
+      <c r="W27">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X27">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y27">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z27">
+        <v>1531825</v>
+      </c>
+      <c r="AA27">
+        <v>119472.4</v>
+      </c>
+      <c r="AB27">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC27">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>100060909300</v>
       </c>
+      <c r="Q28">
+        <v>838942346000</v>
+      </c>
+      <c r="R28">
+        <v>738881436700</v>
+      </c>
+      <c r="S28">
+        <v>54449800</v>
+      </c>
+      <c r="T28">
+        <v>48168000</v>
+      </c>
+      <c r="U28">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V28">
+        <v>25064752731</v>
+      </c>
+      <c r="W28">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X28">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y28">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z28">
+        <v>1531825</v>
+      </c>
+      <c r="AA28">
+        <v>119472.4</v>
+      </c>
+      <c r="AB28">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC28">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>100745506400</v>
       </c>
+      <c r="Q29">
+        <v>857138742400</v>
+      </c>
+      <c r="R29">
+        <v>756393236000</v>
+      </c>
+      <c r="S29">
+        <v>55353800</v>
+      </c>
+      <c r="T29">
+        <v>49313500</v>
+      </c>
+      <c r="U29">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V29">
+        <v>25064752731</v>
+      </c>
+      <c r="W29">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X29">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y29">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z29">
+        <v>1531825</v>
+      </c>
+      <c r="AA29">
+        <v>119472.4</v>
+      </c>
+      <c r="AB29">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC29">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>104160681400</v>
       </c>
+      <c r="Q30">
+        <v>881326914600</v>
+      </c>
+      <c r="R30">
+        <v>777166233200</v>
+      </c>
+      <c r="S30">
+        <v>56597600</v>
+      </c>
+      <c r="T30">
+        <v>50456300</v>
+      </c>
+      <c r="U30">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V30">
+        <v>25064752731</v>
+      </c>
+      <c r="W30">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X30">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y30">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z30">
+        <v>1531825</v>
+      </c>
+      <c r="AA30">
+        <v>119472.4</v>
+      </c>
+      <c r="AB30">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC30">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>99791750200</v>
       </c>
+      <c r="Q31">
+        <v>901986627700</v>
+      </c>
+      <c r="R31">
+        <v>802194877500</v>
+      </c>
+      <c r="S31">
+        <v>57773200</v>
+      </c>
+      <c r="T31">
+        <v>51854200</v>
+      </c>
+      <c r="U31">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V31">
+        <v>25064752731</v>
+      </c>
+      <c r="W31">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X31">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y31">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z31">
+        <v>1531825</v>
+      </c>
+      <c r="AA31">
+        <v>119472.4</v>
+      </c>
+      <c r="AB31">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC31">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>86502618000</v>
       </c>
+      <c r="Q32">
+        <v>924053201400</v>
+      </c>
+      <c r="R32">
+        <v>837550583400</v>
+      </c>
+      <c r="S32">
+        <v>58814100</v>
+      </c>
+      <c r="T32">
+        <v>54026900</v>
+      </c>
+      <c r="U32">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V32">
+        <v>25064752731</v>
+      </c>
+      <c r="W32">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X32">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y32">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z32">
+        <v>1531825</v>
+      </c>
+      <c r="AA32">
+        <v>119472.4</v>
+      </c>
+      <c r="AB32">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC32">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>82778932500</v>
       </c>
+      <c r="Q33">
+        <v>940486853700</v>
+      </c>
+      <c r="R33">
+        <v>857707921200</v>
+      </c>
+      <c r="S33">
+        <v>59566000</v>
+      </c>
+      <c r="T33">
+        <v>55447300</v>
+      </c>
+      <c r="U33">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V33">
+        <v>25064752731</v>
+      </c>
+      <c r="W33">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X33">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y33">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z33">
+        <v>1531825</v>
+      </c>
+      <c r="AA33">
+        <v>119472.4</v>
+      </c>
+      <c r="AB33">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC33">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>75003199300</v>
       </c>
+      <c r="Q34">
+        <v>952469979100</v>
+      </c>
+      <c r="R34">
+        <v>877466779800</v>
+      </c>
+      <c r="S34">
+        <v>60246400</v>
+      </c>
+      <c r="T34">
+        <v>56689200</v>
+      </c>
+      <c r="U34">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V34">
+        <v>25064752731</v>
+      </c>
+      <c r="W34">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X34">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y34">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z34">
+        <v>1531825</v>
+      </c>
+      <c r="AA34">
+        <v>119472.4</v>
+      </c>
+      <c r="AB34">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC34">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>75365374100</v>
       </c>
+      <c r="Q35">
+        <v>966120411700</v>
+      </c>
+      <c r="R35">
+        <v>890755037600</v>
+      </c>
+      <c r="S35">
+        <v>61036600</v>
+      </c>
+      <c r="T35">
+        <v>57523300</v>
+      </c>
+      <c r="U35">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V35">
+        <v>25064752731</v>
+      </c>
+      <c r="W35">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X35">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y35">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z35">
+        <v>1531825</v>
+      </c>
+      <c r="AA35">
+        <v>119472.4</v>
+      </c>
+      <c r="AB35">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC35">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>82166010500</v>
       </c>
+      <c r="Q36">
+        <v>982319746800</v>
+      </c>
+      <c r="R36">
+        <v>900153736300</v>
+      </c>
+      <c r="S36">
+        <v>61950900</v>
+      </c>
+      <c r="T36">
+        <v>58307800</v>
+      </c>
+      <c r="U36">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V36">
+        <v>25064752731</v>
+      </c>
+      <c r="W36">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X36">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y36">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z36">
+        <v>1531825</v>
+      </c>
+      <c r="AA36">
+        <v>119472.4</v>
+      </c>
+      <c r="AB36">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC36">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>81416785700</v>
       </c>
+      <c r="Q37">
+        <v>1002561781800</v>
+      </c>
+      <c r="R37">
+        <v>921144996100</v>
+      </c>
+      <c r="S37">
+        <v>62925800</v>
+      </c>
+      <c r="T37">
+        <v>59304700</v>
+      </c>
+      <c r="U37">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V37">
+        <v>25064752731</v>
+      </c>
+      <c r="W37">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X37">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y37">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z37">
+        <v>1531825</v>
+      </c>
+      <c r="AA37">
+        <v>119472.4</v>
+      </c>
+      <c r="AB37">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC37">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>97376765700</v>
       </c>
+      <c r="Q38">
+        <v>1026031699400</v>
+      </c>
+      <c r="R38">
+        <v>928654933700</v>
+      </c>
+      <c r="S38">
+        <v>64238200</v>
+      </c>
+      <c r="T38">
+        <v>59734200</v>
+      </c>
+      <c r="U38">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V38">
+        <v>25064752731</v>
+      </c>
+      <c r="W38">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X38">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y38">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z38">
+        <v>1531825</v>
+      </c>
+      <c r="AA38">
+        <v>119472.4</v>
+      </c>
+      <c r="AB38">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC38">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>95182866800</v>
       </c>
+      <c r="Q39">
+        <v>1045851589800</v>
+      </c>
+      <c r="R39">
+        <v>950668723000</v>
+      </c>
+      <c r="S39">
+        <v>65276400</v>
+      </c>
+      <c r="T39">
+        <v>60766400</v>
+      </c>
+      <c r="U39">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V39">
+        <v>25064752731</v>
+      </c>
+      <c r="W39">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X39">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y39">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z39">
+        <v>1531825</v>
+      </c>
+      <c r="AA39">
+        <v>119472.4</v>
+      </c>
+      <c r="AB39">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC39">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>105919921800</v>
       </c>
+      <c r="Q40">
+        <v>1064112259200</v>
+      </c>
+      <c r="R40">
+        <v>958192337400</v>
+      </c>
+      <c r="S40">
+        <v>66375600</v>
+      </c>
+      <c r="T40">
+        <v>61212000</v>
+      </c>
+      <c r="U40">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V40">
+        <v>25064752731</v>
+      </c>
+      <c r="W40">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X40">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y40">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z40">
+        <v>1531825</v>
+      </c>
+      <c r="AA40">
+        <v>119472.4</v>
+      </c>
+      <c r="AB40">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC40">
+        <v>3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>129122130300</v>
       </c>
+      <c r="Q41">
+        <v>1094659809500</v>
+      </c>
+      <c r="R41">
+        <v>965537679200</v>
+      </c>
+      <c r="S41">
+        <v>68183900</v>
+      </c>
+      <c r="T41">
+        <v>61659500</v>
+      </c>
+      <c r="U41">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V41">
+        <v>25064752731</v>
+      </c>
+      <c r="W41">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X41">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y41">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z41">
+        <v>1531825</v>
+      </c>
+      <c r="AA41">
+        <v>119472.4</v>
+      </c>
+      <c r="AB41">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC41">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>146773673100</v>
       </c>
+      <c r="Q42">
+        <v>1121882978700</v>
+      </c>
+      <c r="R42">
+        <v>975109305600</v>
+      </c>
+      <c r="S42">
+        <v>69941400</v>
+      </c>
+      <c r="T42">
+        <v>62235100</v>
+      </c>
+      <c r="U42">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V42">
+        <v>25064752731</v>
+      </c>
+      <c r="W42">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X42">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y42">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z42">
+        <v>1531825</v>
+      </c>
+      <c r="AA42">
+        <v>119472.4</v>
+      </c>
+      <c r="AB42">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC42">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>171357168300</v>
       </c>
+      <c r="Q43">
+        <v>1157676710200</v>
+      </c>
+      <c r="R43">
+        <v>986319541900</v>
+      </c>
+      <c r="S43">
+        <v>72323400</v>
+      </c>
+      <c r="T43">
+        <v>62913800</v>
+      </c>
+      <c r="U43">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V43">
+        <v>25064752731</v>
+      </c>
+      <c r="W43">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X43">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y43">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z43">
+        <v>1531825</v>
+      </c>
+      <c r="AA43">
+        <v>119472.4</v>
+      </c>
+      <c r="AB43">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC43">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>179746327800</v>
       </c>
+      <c r="Q44">
+        <v>1181747675200</v>
+      </c>
+      <c r="R44">
+        <v>1002001347400</v>
+      </c>
+      <c r="S44">
+        <v>73795400</v>
+      </c>
+      <c r="T44">
+        <v>63689000</v>
+      </c>
+      <c r="U44">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V44">
+        <v>25064752731</v>
+      </c>
+      <c r="W44">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X44">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y44">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z44">
+        <v>1531825</v>
+      </c>
+      <c r="AA44">
+        <v>119472.4</v>
+      </c>
+      <c r="AB44">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC44">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>173602183700</v>
       </c>
+      <c r="Q45">
+        <v>1207665092100</v>
+      </c>
+      <c r="R45">
+        <v>1034062908400</v>
+      </c>
+      <c r="S45">
+        <v>75473000</v>
+      </c>
+      <c r="T45">
+        <v>65225900</v>
+      </c>
+      <c r="U45">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V45">
+        <v>25064752731</v>
+      </c>
+      <c r="W45">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X45">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y45">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z45">
+        <v>1531825</v>
+      </c>
+      <c r="AA45">
+        <v>119472.4</v>
+      </c>
+      <c r="AB45">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC45">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>165535826600</v>
       </c>
+      <c r="Q46">
+        <v>1219635993400</v>
+      </c>
+      <c r="R46">
+        <v>1054100166800</v>
+      </c>
+      <c r="S46">
+        <v>76218300</v>
+      </c>
+      <c r="T46">
+        <v>66473700</v>
+      </c>
+      <c r="U46">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V46">
+        <v>25064752731</v>
+      </c>
+      <c r="W46">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X46">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y46">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z46">
+        <v>1531825</v>
+      </c>
+      <c r="AA46">
+        <v>119472.4</v>
+      </c>
+      <c r="AB46">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC46">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>174270981700</v>
       </c>
+      <c r="Q47">
+        <v>1242895451800</v>
+      </c>
+      <c r="R47">
+        <v>1068624470100</v>
+      </c>
+      <c r="S47">
+        <v>77582400</v>
+      </c>
+      <c r="T47">
+        <v>67349300</v>
+      </c>
+      <c r="U47">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V47">
+        <v>25064752731</v>
+      </c>
+      <c r="W47">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X47">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y47">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z47">
+        <v>1531825</v>
+      </c>
+      <c r="AA47">
+        <v>119472.4</v>
+      </c>
+      <c r="AB47">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC47">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>185042252800</v>
       </c>
+      <c r="Q48">
+        <v>1263437706700</v>
+      </c>
+      <c r="R48">
+        <v>1078395453900</v>
+      </c>
+      <c r="S48">
+        <v>78711100</v>
+      </c>
+      <c r="T48">
+        <v>67881600</v>
+      </c>
+      <c r="U48">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V48">
+        <v>25064752731</v>
+      </c>
+      <c r="W48">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X48">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y48">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z48">
+        <v>1531825</v>
+      </c>
+      <c r="AA48">
+        <v>119472.4</v>
+      </c>
+      <c r="AB48">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC48">
+        <v>3</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>183717343900</v>
       </c>
+      <c r="Q49">
+        <v>1279584382100</v>
+      </c>
+      <c r="R49">
+        <v>1095867038200</v>
+      </c>
+      <c r="S49">
+        <v>79611900</v>
+      </c>
+      <c r="T49">
+        <v>68510500</v>
+      </c>
+      <c r="U49">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V49">
+        <v>25064752731</v>
+      </c>
+      <c r="W49">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X49">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y49">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z49">
+        <v>1531825</v>
+      </c>
+      <c r="AA49">
+        <v>119472.4</v>
+      </c>
+      <c r="AB49">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC49">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>198126424400</v>
       </c>
+      <c r="Q50">
+        <v>1303027812400</v>
+      </c>
+      <c r="R50">
+        <v>1104901388000</v>
+      </c>
+      <c r="S50">
+        <v>81163600</v>
+      </c>
+      <c r="T50">
+        <v>69079600</v>
+      </c>
+      <c r="U50">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V50">
+        <v>25064752731</v>
+      </c>
+      <c r="W50">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X50">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y50">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z50">
+        <v>1531825</v>
+      </c>
+      <c r="AA50">
+        <v>119472.4</v>
+      </c>
+      <c r="AB50">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC50">
+        <v>4</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>212922049800</v>
       </c>
+      <c r="Q51">
+        <v>1330360504700</v>
+      </c>
+      <c r="R51">
+        <v>1117438454900</v>
+      </c>
+      <c r="S51">
+        <v>82605400</v>
+      </c>
+      <c r="T51">
+        <v>69827600</v>
+      </c>
+      <c r="U51">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V51">
+        <v>25064752731</v>
+      </c>
+      <c r="W51">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X51">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y51">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z51">
+        <v>1531825</v>
+      </c>
+      <c r="AA51">
+        <v>119472.4</v>
+      </c>
+      <c r="AB51">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC51">
+        <v>4.1</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>224220865400</v>
       </c>
+      <c r="Q52">
+        <v>1357874123400</v>
+      </c>
+      <c r="R52">
+        <v>1133653258000</v>
+      </c>
+      <c r="S52">
+        <v>84229800</v>
+      </c>
+      <c r="T52">
+        <v>70686900</v>
+      </c>
+      <c r="U52">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V52">
+        <v>25064752731</v>
+      </c>
+      <c r="W52">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X52">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y52">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z52">
+        <v>1531825</v>
+      </c>
+      <c r="AA52">
+        <v>119472.4</v>
+      </c>
+      <c r="AB52">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC52">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>233045797500</v>
       </c>
+      <c r="Q53">
+        <v>1380410545900</v>
+      </c>
+      <c r="R53">
+        <v>1147364748400</v>
+      </c>
+      <c r="S53">
+        <v>85873600</v>
+      </c>
+      <c r="T53">
+        <v>71459800</v>
+      </c>
+      <c r="U53">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V53">
+        <v>25064752731</v>
+      </c>
+      <c r="W53">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X53">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y53">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z53">
+        <v>1531825</v>
+      </c>
+      <c r="AA53">
+        <v>119472.4</v>
+      </c>
+      <c r="AB53">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC53">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>226763765100</v>
       </c>
+      <c r="Q54">
+        <v>1395792980900</v>
+      </c>
+      <c r="R54">
+        <v>1169029215800</v>
+      </c>
+      <c r="S54">
+        <v>86911100</v>
+      </c>
+      <c r="T54">
+        <v>72720900</v>
+      </c>
+      <c r="U54">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V54">
+        <v>25064752731</v>
+      </c>
+      <c r="W54">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X54">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y54">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z54">
+        <v>1531825</v>
+      </c>
+      <c r="AA54">
+        <v>119472.4</v>
+      </c>
+      <c r="AB54">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC54">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>230834431600</v>
       </c>
+      <c r="Q55">
+        <v>1407295862800</v>
+      </c>
+      <c r="R55">
+        <v>1176461431200</v>
+      </c>
+      <c r="S55">
+        <v>87588900</v>
+      </c>
+      <c r="T55">
+        <v>73322900</v>
+      </c>
+      <c r="U55">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V55">
+        <v>25064752731</v>
+      </c>
+      <c r="W55">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X55">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y55">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z55">
+        <v>1531825</v>
+      </c>
+      <c r="AA55">
+        <v>119472.4</v>
+      </c>
+      <c r="AB55">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC55">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>241648321000</v>
       </c>
+      <c r="Q56">
+        <v>1424639113900</v>
+      </c>
+      <c r="R56">
+        <v>1182990792900</v>
+      </c>
+      <c r="S56">
+        <v>88541600</v>
+      </c>
+      <c r="T56">
+        <v>73877700</v>
+      </c>
+      <c r="U56">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V56">
+        <v>25064752731</v>
+      </c>
+      <c r="W56">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X56">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y56">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z56">
+        <v>1531825</v>
+      </c>
+      <c r="AA56">
+        <v>119472.4</v>
+      </c>
+      <c r="AB56">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC56">
+        <v>3</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>252051424900</v>
       </c>
+      <c r="Q57">
+        <v>1441245703600</v>
+      </c>
+      <c r="R57">
+        <v>1189194278700</v>
+      </c>
+      <c r="S57">
+        <v>89726500</v>
+      </c>
+      <c r="T57">
+        <v>74272300</v>
+      </c>
+      <c r="U57">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V57">
+        <v>25064752731</v>
+      </c>
+      <c r="W57">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X57">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y57">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z57">
+        <v>1531825</v>
+      </c>
+      <c r="AA57">
+        <v>119472.4</v>
+      </c>
+      <c r="AB57">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC57">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>261106281900</v>
       </c>
+      <c r="Q58">
+        <v>1461893384600</v>
+      </c>
+      <c r="R58">
+        <v>1200787102700</v>
+      </c>
+      <c r="S58">
+        <v>90936800</v>
+      </c>
+      <c r="T58">
+        <v>74905300</v>
+      </c>
+      <c r="U58">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V58">
+        <v>25064752731</v>
+      </c>
+      <c r="W58">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X58">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y58">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z58">
+        <v>1531825</v>
+      </c>
+      <c r="AA58">
+        <v>119472.4</v>
+      </c>
+      <c r="AB58">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC58">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>272749108600</v>
       </c>
+      <c r="Q59">
+        <v>1481561892600</v>
+      </c>
+      <c r="R59">
+        <v>1208812784000</v>
+      </c>
+      <c r="S59">
+        <v>92009900</v>
+      </c>
+      <c r="T59">
+        <v>75443800</v>
+      </c>
+      <c r="U59">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V59">
+        <v>25064752731</v>
+      </c>
+      <c r="W59">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X59">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y59">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z59">
+        <v>1531825</v>
+      </c>
+      <c r="AA59">
+        <v>119472.4</v>
+      </c>
+      <c r="AB59">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC59">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>286705217200</v>
       </c>
+      <c r="Q60">
+        <v>1507422933800</v>
+      </c>
+      <c r="R60">
+        <v>1220717716600</v>
+      </c>
+      <c r="S60">
+        <v>93332700</v>
+      </c>
+      <c r="T60">
+        <v>76125000</v>
+      </c>
+      <c r="U60">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V60">
+        <v>25064752731</v>
+      </c>
+      <c r="W60">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X60">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y60">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z60">
+        <v>1531825</v>
+      </c>
+      <c r="AA60">
+        <v>119472.4</v>
+      </c>
+      <c r="AB60">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC60">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>289924905900</v>
       </c>
+      <c r="Q61">
+        <v>1524022524300</v>
+      </c>
+      <c r="R61">
+        <v>1234097618400</v>
+      </c>
+      <c r="S61">
+        <v>94313200</v>
+      </c>
+      <c r="T61">
+        <v>76892700</v>
+      </c>
+      <c r="U61">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V61">
+        <v>25064752731</v>
+      </c>
+      <c r="W61">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X61">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y61">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z61">
+        <v>1531825</v>
+      </c>
+      <c r="AA61">
+        <v>119472.4</v>
+      </c>
+      <c r="AB61">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC61">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>283718230400</v>
       </c>
+      <c r="Q62">
+        <v>1542939339300</v>
+      </c>
+      <c r="R62">
+        <v>1259221108900</v>
+      </c>
+      <c r="S62">
+        <v>95281600</v>
+      </c>
+      <c r="T62">
+        <v>78335000</v>
+      </c>
+      <c r="U62">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V62">
+        <v>25064752731</v>
+      </c>
+      <c r="W62">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X62">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y62">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z62">
+        <v>1531825</v>
+      </c>
+      <c r="AA62">
+        <v>119472.4</v>
+      </c>
+      <c r="AB62">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC62">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>277274890100</v>
       </c>
+      <c r="Q63">
+        <v>1553691853800</v>
+      </c>
+      <c r="R63">
+        <v>1276416963700</v>
+      </c>
+      <c r="S63">
+        <v>95851500</v>
+      </c>
+      <c r="T63">
+        <v>79672600</v>
+      </c>
+      <c r="U63">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V63">
+        <v>25064752731</v>
+      </c>
+      <c r="W63">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X63">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y63">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z63">
+        <v>1531825</v>
+      </c>
+      <c r="AA63">
+        <v>119472.4</v>
+      </c>
+      <c r="AB63">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC63">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>276862745000</v>
       </c>
+      <c r="Q64">
+        <v>1564460982100</v>
+      </c>
+      <c r="R64">
+        <v>1287598237100</v>
+      </c>
+      <c r="S64">
+        <v>96483500</v>
+      </c>
+      <c r="T64">
+        <v>80485900</v>
+      </c>
+      <c r="U64">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V64">
+        <v>25064752731</v>
+      </c>
+      <c r="W64">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X64">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y64">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z64">
+        <v>1531825</v>
+      </c>
+      <c r="AA64">
+        <v>119472.4</v>
+      </c>
+      <c r="AB64">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC64">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>265483827900</v>
       </c>
+      <c r="Q65">
+        <v>1571368603200</v>
+      </c>
+      <c r="R65">
+        <v>1305884775300</v>
+      </c>
+      <c r="S65">
+        <v>96871100</v>
+      </c>
+      <c r="T65">
+        <v>81822800</v>
+      </c>
+      <c r="U65">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V65">
+        <v>25064752731</v>
+      </c>
+      <c r="W65">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X65">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y65">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z65">
+        <v>1531825</v>
+      </c>
+      <c r="AA65">
+        <v>119472.4</v>
+      </c>
+      <c r="AB65">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC65">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>249691583800</v>
       </c>
+      <c r="Q66">
+        <v>1579383375600</v>
+      </c>
+      <c r="R66">
+        <v>1329691791800</v>
+      </c>
+      <c r="S66">
+        <v>97296200</v>
+      </c>
+      <c r="T66">
+        <v>83222800</v>
+      </c>
+      <c r="U66">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V66">
+        <v>25064752731</v>
+      </c>
+      <c r="W66">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X66">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y66">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z66">
+        <v>1531825</v>
+      </c>
+      <c r="AA66">
+        <v>119472.4</v>
+      </c>
+      <c r="AB66">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC66">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>247498713700</v>
       </c>
+      <c r="Q67">
+        <v>1590139416300</v>
+      </c>
+      <c r="R67">
+        <v>1342640702600</v>
+      </c>
+      <c r="S67">
+        <v>97898000</v>
+      </c>
+      <c r="T67">
+        <v>84100100</v>
+      </c>
+      <c r="U67">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V67">
+        <v>25064752731</v>
+      </c>
+      <c r="W67">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X67">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y67">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z67">
+        <v>1531825</v>
+      </c>
+      <c r="AA67">
+        <v>119472.4</v>
+      </c>
+      <c r="AB67">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC67">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>246377063000</v>
       </c>
+      <c r="Q68">
+        <v>1606527717600</v>
+      </c>
+      <c r="R68">
+        <v>1360150654600</v>
+      </c>
+      <c r="S68">
+        <v>98406300</v>
+      </c>
+      <c r="T68">
+        <v>85023500</v>
+      </c>
+      <c r="U68">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V68">
+        <v>25064752731</v>
+      </c>
+      <c r="W68">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X68">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y68">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z68">
+        <v>1531825</v>
+      </c>
+      <c r="AA68">
+        <v>119472.4</v>
+      </c>
+      <c r="AB68">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC68">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>251832455900</v>
       </c>
+      <c r="Q69">
+        <v>1629860212100</v>
+      </c>
+      <c r="R69">
+        <v>1378027756200</v>
+      </c>
+      <c r="S69">
+        <v>99483300</v>
+      </c>
+      <c r="T69">
+        <v>86027100</v>
+      </c>
+      <c r="U69">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V69">
+        <v>25064752731</v>
+      </c>
+      <c r="W69">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X69">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y69">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z69">
+        <v>1531825</v>
+      </c>
+      <c r="AA69">
+        <v>119472.4</v>
+      </c>
+      <c r="AB69">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC69">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>251765813900</v>
       </c>
+      <c r="Q70">
+        <v>1629862235100</v>
+      </c>
+      <c r="R70">
+        <v>1378096421200</v>
+      </c>
+      <c r="S70">
+        <v>99484000</v>
+      </c>
+      <c r="T70">
+        <v>86031400</v>
+      </c>
+      <c r="U70">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V70">
+        <v>25064752731</v>
+      </c>
+      <c r="W70">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X70">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y70">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z70">
+        <v>1531825</v>
+      </c>
+      <c r="AA70">
+        <v>119472.4</v>
+      </c>
+      <c r="AB70">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>242240520700</v>
       </c>
+      <c r="Q71">
+        <v>1673939037300</v>
+      </c>
+      <c r="R71">
+        <v>1431698516600</v>
+      </c>
+      <c r="S71">
+        <v>102019100</v>
+      </c>
+      <c r="T71">
+        <v>89777200</v>
+      </c>
+      <c r="U71">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V71">
+        <v>25064752731</v>
+      </c>
+      <c r="W71">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X71">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y71">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z71">
+        <v>1531825</v>
+      </c>
+      <c r="AA71">
+        <v>119472.4</v>
+      </c>
+      <c r="AB71">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC71">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>241826062400</v>
       </c>
+      <c r="Q72">
+        <v>1689100997500</v>
+      </c>
+      <c r="R72">
+        <v>1447274935100</v>
+      </c>
+      <c r="S72">
+        <v>102961600</v>
+      </c>
+      <c r="T72">
+        <v>91058900</v>
+      </c>
+      <c r="U72">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V72">
+        <v>25064752731</v>
+      </c>
+      <c r="W72">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X72">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y72">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z72">
+        <v>1531825</v>
+      </c>
+      <c r="AA72">
+        <v>119472.4</v>
+      </c>
+      <c r="AB72">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC72">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>228282790900</v>
       </c>
+      <c r="Q73">
+        <v>1701150775400</v>
+      </c>
+      <c r="R73">
+        <v>1472867984500</v>
+      </c>
+      <c r="S73">
+        <v>103777000</v>
+      </c>
+      <c r="T73">
+        <v>92704600</v>
+      </c>
+      <c r="U73">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V73">
+        <v>25064752731</v>
+      </c>
+      <c r="W73">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X73">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y73">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z73">
+        <v>1531825</v>
+      </c>
+      <c r="AA73">
+        <v>119472.4</v>
+      </c>
+      <c r="AB73">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC73">
+        <v>3.8</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>221433770000</v>
       </c>
+      <c r="Q74">
+        <v>1716578815200</v>
+      </c>
+      <c r="R74">
+        <v>1495145045200</v>
+      </c>
+      <c r="S74">
+        <v>104650800</v>
+      </c>
+      <c r="T74">
+        <v>94061300</v>
+      </c>
+      <c r="U74">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V74">
+        <v>25064752731</v>
+      </c>
+      <c r="W74">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X74">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y74">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z74">
+        <v>1531825</v>
+      </c>
+      <c r="AA74">
+        <v>119472.4</v>
+      </c>
+      <c r="AB74">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC74">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>223135261200</v>
       </c>
+      <c r="Q75">
+        <v>1734308302300</v>
+      </c>
+      <c r="R75">
+        <v>1511173041100</v>
+      </c>
+      <c r="S75">
+        <v>105547700</v>
+      </c>
+      <c r="T75">
+        <v>95303100</v>
+      </c>
+      <c r="U75">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V75">
+        <v>25064752731</v>
+      </c>
+      <c r="W75">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X75">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y75">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z75">
+        <v>1531825</v>
+      </c>
+      <c r="AA75">
+        <v>119472.4</v>
+      </c>
+      <c r="AB75">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC75">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>205048036100</v>
       </c>
+      <c r="Q76">
+        <v>1751635575900</v>
+      </c>
+      <c r="R76">
+        <v>1546587539800</v>
+      </c>
+      <c r="S76">
+        <v>106378600</v>
+      </c>
+      <c r="T76">
+        <v>97160700</v>
+      </c>
+      <c r="U76">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V76">
+        <v>25064752731</v>
+      </c>
+      <c r="W76">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X76">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y76">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z76">
+        <v>1531825</v>
+      </c>
+      <c r="AA76">
+        <v>119472.4</v>
+      </c>
+      <c r="AB76">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC76">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>182555652800</v>
       </c>
+      <c r="Q77">
+        <v>1771047321000</v>
+      </c>
+      <c r="R77">
+        <v>1588491668200</v>
+      </c>
+      <c r="S77">
+        <v>107430100</v>
+      </c>
+      <c r="T77">
+        <v>99540100</v>
+      </c>
+      <c r="U77">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V77">
+        <v>25064752731</v>
+      </c>
+      <c r="W77">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X77">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y77">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z77">
+        <v>1531825</v>
+      </c>
+      <c r="AA77">
+        <v>119472.4</v>
+      </c>
+      <c r="AB77">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC77">
+        <v>6.3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>154390236900</v>
       </c>
+      <c r="Q78">
+        <v>1787976576900</v>
+      </c>
+      <c r="R78">
+        <v>1633586340000</v>
+      </c>
+      <c r="S78">
+        <v>108438500</v>
+      </c>
+      <c r="T78">
+        <v>102527600</v>
+      </c>
+      <c r="U78">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V78">
+        <v>25064752731</v>
+      </c>
+      <c r="W78">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X78">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y78">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z78">
+        <v>1531825</v>
+      </c>
+      <c r="AA78">
+        <v>119472.4</v>
+      </c>
+      <c r="AB78">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC78">
+        <v>7.9</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>122841446700</v>
       </c>
+      <c r="Q79">
+        <v>1809970373400</v>
+      </c>
+      <c r="R79">
+        <v>1687128926700</v>
+      </c>
+      <c r="S79">
+        <v>109523300</v>
+      </c>
+      <c r="T79">
+        <v>105858100</v>
+      </c>
+      <c r="U79">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V79">
+        <v>25064752731</v>
+      </c>
+      <c r="W79">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X79">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y79">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z79">
+        <v>1531825</v>
+      </c>
+      <c r="AA79">
+        <v>119472.4</v>
+      </c>
+      <c r="AB79">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC79">
+        <v>8.8</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>101375822400</v>
       </c>
+      <c r="Q80">
+        <v>1828480558400</v>
+      </c>
+      <c r="R80">
+        <v>1727104736000</v>
+      </c>
+      <c r="S80">
+        <v>110825900</v>
+      </c>
+      <c r="T80">
+        <v>108378700</v>
+      </c>
+      <c r="U80">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V80">
+        <v>25064752731</v>
+      </c>
+      <c r="W80">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X80">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y80">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z80">
+        <v>1531825</v>
+      </c>
+      <c r="AA80">
+        <v>119472.4</v>
+      </c>
+      <c r="AB80">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC80">
+        <v>6</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>100406223100</v>
       </c>
+      <c r="Q81">
+        <v>1848958727000</v>
+      </c>
+      <c r="R81">
+        <v>1748552503900</v>
+      </c>
+      <c r="S81">
+        <v>112022700</v>
+      </c>
+      <c r="T81">
+        <v>109683100</v>
+      </c>
+      <c r="U81">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V81">
+        <v>25064752731</v>
+      </c>
+      <c r="W81">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X81">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y81">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z81">
+        <v>1531825</v>
+      </c>
+      <c r="AA81">
+        <v>119472.4</v>
+      </c>
+      <c r="AB81">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC81">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>134115277700</v>
       </c>
+      <c r="Q82">
+        <v>1899036803000</v>
+      </c>
+      <c r="R82">
+        <v>1764921525300</v>
+      </c>
+      <c r="S82">
+        <v>114482400</v>
+      </c>
+      <c r="T82">
+        <v>110720500</v>
+      </c>
+      <c r="U82">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V82">
+        <v>25064752731</v>
+      </c>
+      <c r="W82">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X82">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y82">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z82">
+        <v>1531825</v>
+      </c>
+      <c r="AA82">
+        <v>119472.4</v>
+      </c>
+      <c r="AB82">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC82">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>158344682100</v>
       </c>
+      <c r="Q83">
+        <v>1940942949800</v>
+      </c>
+      <c r="R83">
+        <v>1782598267700</v>
+      </c>
+      <c r="S83">
+        <v>116990500</v>
+      </c>
+      <c r="T83">
+        <v>111578200</v>
+      </c>
+      <c r="U83">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V83">
+        <v>25064752731</v>
+      </c>
+      <c r="W83">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X83">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y83">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z83">
+        <v>1531825</v>
+      </c>
+      <c r="AA83">
+        <v>119472.4</v>
+      </c>
+      <c r="AB83">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC83">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>182659108600</v>
       </c>
+      <c r="Q84">
+        <v>1983012077100</v>
+      </c>
+      <c r="R84">
+        <v>1800352968500</v>
+      </c>
+      <c r="S84">
+        <v>119947200</v>
+      </c>
+      <c r="T84">
+        <v>112412800</v>
+      </c>
+      <c r="U84">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V84">
+        <v>25064752731</v>
+      </c>
+      <c r="W84">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X84">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y84">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z84">
+        <v>1531825</v>
+      </c>
+      <c r="AA84">
+        <v>119472.4</v>
+      </c>
+      <c r="AB84">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC84">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>186157096500</v>
       </c>
+      <c r="Q85">
+        <v>2008270092200</v>
+      </c>
+      <c r="R85">
+        <v>1822112995700</v>
+      </c>
+      <c r="S85">
+        <v>121496100</v>
+      </c>
+      <c r="T85">
+        <v>113723400</v>
+      </c>
+      <c r="U85">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V85">
+        <v>25064752731</v>
+      </c>
+      <c r="W85">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X85">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y85">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z85">
+        <v>1531825</v>
+      </c>
+      <c r="AA85">
+        <v>119472.4</v>
+      </c>
+      <c r="AB85">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC85">
+        <v>1</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>164202318100</v>
       </c>
+      <c r="Q86">
+        <v>2021605972000</v>
+      </c>
+      <c r="R86">
+        <v>1857403653900</v>
+      </c>
+      <c r="S86">
+        <v>122195600</v>
+      </c>
+      <c r="T86">
+        <v>115827800</v>
+      </c>
+      <c r="U86">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V86">
+        <v>25064752731</v>
+      </c>
+      <c r="W86">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X86">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y86">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z86">
+        <v>1531825</v>
+      </c>
+      <c r="AA86">
+        <v>119472.4</v>
+      </c>
+      <c r="AB86">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC86">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>155076596900</v>
       </c>
+      <c r="Q87">
+        <v>2041267635100</v>
+      </c>
+      <c r="R87">
+        <v>1886191038200</v>
+      </c>
+      <c r="S87">
+        <v>123223000</v>
+      </c>
+      <c r="T87">
+        <v>117593800</v>
+      </c>
+      <c r="U87">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V87">
+        <v>25064752731</v>
+      </c>
+      <c r="W87">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X87">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y87">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z87">
+        <v>1531825</v>
+      </c>
+      <c r="AA87">
+        <v>119472.4</v>
+      </c>
+      <c r="AB87">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC87">
+        <v>2.6</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>138389316700</v>
       </c>
+      <c r="Q88">
+        <v>2055891558400</v>
+      </c>
+      <c r="R88">
+        <v>1917502241700</v>
+      </c>
+      <c r="S88">
+        <v>124014100</v>
+      </c>
+      <c r="T88">
+        <v>119612600</v>
+      </c>
+      <c r="U88">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V88">
+        <v>25064752731</v>
+      </c>
+      <c r="W88">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X88">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y88">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z88">
+        <v>1531825</v>
+      </c>
+      <c r="AA88">
+        <v>119472.4</v>
+      </c>
+      <c r="AB88">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC88">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>126953565500</v>
       </c>
+      <c r="Q89">
+        <v>2074387107500</v>
+      </c>
+      <c r="R89">
+        <v>1947433542000</v>
+      </c>
+      <c r="S89">
+        <v>125175400</v>
+      </c>
+      <c r="T89">
+        <v>121548700</v>
+      </c>
+      <c r="U89">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V89">
+        <v>25064752731</v>
+      </c>
+      <c r="W89">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X89">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y89">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z89">
+        <v>1531825</v>
+      </c>
+      <c r="AA89">
+        <v>119472.4</v>
+      </c>
+      <c r="AB89">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC89">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>88427373600</v>
       </c>
+      <c r="Q90">
+        <v>2096413939200</v>
+      </c>
+      <c r="R90">
+        <v>2007986565600</v>
+      </c>
+      <c r="S90">
+        <v>126239700</v>
+      </c>
+      <c r="T90">
+        <v>125202100</v>
+      </c>
+      <c r="U90">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V90">
+        <v>25064752731</v>
+      </c>
+      <c r="W90">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X90">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y90">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z90">
+        <v>1531825</v>
+      </c>
+      <c r="AA90">
+        <v>119472.4</v>
+      </c>
+      <c r="AB90">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC90">
+        <v>10.8</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>69867613600</v>
       </c>
+      <c r="Q91">
+        <v>2122420391400</v>
+      </c>
+      <c r="R91">
+        <v>2052552777800</v>
+      </c>
+      <c r="S91">
+        <v>127261500</v>
+      </c>
+      <c r="T91">
+        <v>128093700</v>
+      </c>
+      <c r="U91">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V91">
+        <v>25064752731</v>
+      </c>
+      <c r="W91">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X91">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y91">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z91">
+        <v>1531825</v>
+      </c>
+      <c r="AA91">
+        <v>119472.4</v>
+      </c>
+      <c r="AB91">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC91">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>79705949100</v>
       </c>
+      <c r="Q92">
+        <v>2152036810300</v>
+      </c>
+      <c r="R92">
+        <v>2072330861200</v>
+      </c>
+      <c r="S92">
+        <v>129074600</v>
+      </c>
+      <c r="T92">
+        <v>129457000</v>
+      </c>
+      <c r="U92">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V92">
+        <v>25064752731</v>
+      </c>
+      <c r="W92">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X92">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y92">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z92">
+        <v>1531825</v>
+      </c>
+      <c r="AA92">
+        <v>119472.4</v>
+      </c>
+      <c r="AB92">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC92">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>81912350300</v>
       </c>
+      <c r="Q93">
+        <v>2175187762000</v>
+      </c>
+      <c r="R93">
+        <v>2093275411700</v>
+      </c>
+      <c r="S93">
+        <v>130368800</v>
+      </c>
+      <c r="T93">
+        <v>130792200</v>
+      </c>
+      <c r="U93">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V93">
+        <v>25064752731</v>
+      </c>
+      <c r="W93">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X93">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y93">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z93">
+        <v>1531825</v>
+      </c>
+      <c r="AA93">
+        <v>119472.4</v>
+      </c>
+      <c r="AB93">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC93">
+        <v>0.6</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>65852485500</v>
       </c>
+      <c r="Q94">
+        <v>2198582020100</v>
+      </c>
+      <c r="R94">
+        <v>2132729534600</v>
+      </c>
+      <c r="S94">
+        <v>131508400</v>
+      </c>
+      <c r="T94">
+        <v>132888300</v>
+      </c>
+      <c r="U94">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V94">
+        <v>25064752731</v>
+      </c>
+      <c r="W94">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X94">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y94">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z94">
+        <v>1531825</v>
+      </c>
+      <c r="AA94">
+        <v>119472.4</v>
+      </c>
+      <c r="AB94">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC94">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>63374589800</v>
       </c>
+      <c r="Q95">
+        <v>2221316962900</v>
+      </c>
+      <c r="R95">
+        <v>2157942373100</v>
+      </c>
+      <c r="S95">
+        <v>132690200</v>
+      </c>
+      <c r="T95">
+        <v>134288100</v>
+      </c>
+      <c r="U95">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V95">
+        <v>25064752731</v>
+      </c>
+      <c r="W95">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X95">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y95">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z95">
+        <v>1531825</v>
+      </c>
+      <c r="AA95">
+        <v>119472.4</v>
+      </c>
+      <c r="AB95">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC95">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>32890050100</v>
       </c>
+      <c r="Q96">
+        <v>2241581030500</v>
+      </c>
+      <c r="R96">
+        <v>2208690980400</v>
+      </c>
+      <c r="S96">
+        <v>133743000</v>
+      </c>
+      <c r="T96">
+        <v>136435800</v>
+      </c>
+      <c r="U96">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V96">
+        <v>25064752731</v>
+      </c>
+      <c r="W96">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X96">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y96">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z96">
+        <v>1531825</v>
+      </c>
+      <c r="AA96">
+        <v>119472.4</v>
+      </c>
+      <c r="AB96">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC96">
+        <v>8.5</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>17515099600</v>
       </c>
+      <c r="Q97">
+        <v>2259729423400</v>
+      </c>
+      <c r="R97">
+        <v>2242214323800</v>
+      </c>
+      <c r="S97">
+        <v>134779000</v>
+      </c>
+      <c r="T97">
+        <v>138138900</v>
+      </c>
+      <c r="U97">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V97">
+        <v>25064752731</v>
+      </c>
+      <c r="W97">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X97">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y97">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z97">
+        <v>1531825</v>
+      </c>
+      <c r="AA97">
+        <v>119472.4</v>
+      </c>
+      <c r="AB97">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC97">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>20901795000</v>
       </c>
+      <c r="Q98">
+        <v>2289526351000</v>
+      </c>
+      <c r="R98">
+        <v>2268624556000</v>
+      </c>
+      <c r="S98">
+        <v>136194000</v>
+      </c>
+      <c r="T98">
+        <v>139763100</v>
+      </c>
+      <c r="U98">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V98">
+        <v>25064752731</v>
+      </c>
+      <c r="W98">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X98">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y98">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z98">
+        <v>1531825</v>
+      </c>
+      <c r="AA98">
+        <v>119472.4</v>
+      </c>
+      <c r="AB98">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC98">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>37562882100</v>
       </c>
+      <c r="Q99">
+        <v>2330235506700</v>
+      </c>
+      <c r="R99">
+        <v>2292672624600</v>
+      </c>
+      <c r="S99">
+        <v>138321200</v>
+      </c>
+      <c r="T99">
+        <v>140866800</v>
+      </c>
+      <c r="U99">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V99">
+        <v>25064752731</v>
+      </c>
+      <c r="W99">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X99">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y99">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z99">
+        <v>1531825</v>
+      </c>
+      <c r="AA99">
+        <v>119472.4</v>
+      </c>
+      <c r="AB99">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC99">
+        <v>4.7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>59240502600</v>
       </c>
+      <c r="Q100">
+        <v>2368688020700</v>
+      </c>
+      <c r="R100">
+        <v>2309447518100</v>
+      </c>
+      <c r="S100">
+        <v>140150600</v>
+      </c>
+      <c r="T100">
+        <v>141671200</v>
+      </c>
+      <c r="U100">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V100">
+        <v>25064752731</v>
+      </c>
+      <c r="W100">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X100">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y100">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z100">
+        <v>1531825</v>
+      </c>
+      <c r="AA100">
+        <v>119472.4</v>
+      </c>
+      <c r="AB100">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC100">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>28088493200</v>
       </c>
+      <c r="Q101">
+        <v>2396210443400</v>
+      </c>
+      <c r="R101">
+        <v>2368121950200</v>
+      </c>
+      <c r="S101">
+        <v>141521800</v>
+      </c>
+      <c r="T101">
+        <v>144634700</v>
+      </c>
+      <c r="U101">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V101">
+        <v>25064752731</v>
+      </c>
+      <c r="W101">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X101">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y101">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z101">
+        <v>1531825</v>
+      </c>
+      <c r="AA101">
+        <v>119472.4</v>
+      </c>
+      <c r="AB101">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC101">
+        <v>8.7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-32303955200</v>
       </c>
+      <c r="Q102">
+        <v>2411621523900</v>
+      </c>
+      <c r="R102">
+        <v>2443925479100</v>
+      </c>
+      <c r="S102">
+        <v>142370200</v>
+      </c>
+      <c r="T102">
+        <v>149211800</v>
+      </c>
+      <c r="U102">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V102">
+        <v>25064752731</v>
+      </c>
+      <c r="W102">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X102">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y102">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z102">
+        <v>1531825</v>
+      </c>
+      <c r="AA102">
+        <v>119472.4</v>
+      </c>
+      <c r="AB102">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC102">
+        <v>16.9</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-55886535300</v>
       </c>
+      <c r="Q103">
+        <v>2438104507300</v>
+      </c>
+      <c r="R103">
+        <v>2493991042600</v>
+      </c>
+      <c r="S103">
+        <v>143981100</v>
+      </c>
+      <c r="T103">
+        <v>152161500</v>
+      </c>
+      <c r="U103">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V103">
+        <v>25064752731</v>
+      </c>
+      <c r="W103">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X103">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y103">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z103">
+        <v>1531825</v>
+      </c>
+      <c r="AA103">
+        <v>119472.4</v>
+      </c>
+      <c r="AB103">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC103">
+        <v>6.6</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-62454224800</v>
       </c>
+      <c r="Q104">
+        <v>2473015133200</v>
+      </c>
+      <c r="R104">
+        <v>2535469358000</v>
+      </c>
+      <c r="S104">
+        <v>145687400</v>
+      </c>
+      <c r="T104">
+        <v>154965600</v>
+      </c>
+      <c r="U104">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V104">
+        <v>25064752731</v>
+      </c>
+      <c r="W104">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X104">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y104">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z104">
+        <v>1531825</v>
+      </c>
+      <c r="AA104">
+        <v>119472.4</v>
+      </c>
+      <c r="AB104">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC104">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-52377344200</v>
       </c>
+      <c r="Q105">
+        <v>2504902987300</v>
+      </c>
+      <c r="R105">
+        <v>2557280331500</v>
+      </c>
+      <c r="S105">
+        <v>147465000</v>
+      </c>
+      <c r="T105">
+        <v>156247800</v>
+      </c>
+      <c r="U105">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V105">
+        <v>25064752731</v>
+      </c>
+      <c r="W105">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X105">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y105">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z105">
+        <v>1531825</v>
+      </c>
+      <c r="AA105">
+        <v>119472.4</v>
+      </c>
+      <c r="AB105">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC105">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-35382465800</v>
       </c>
+      <c r="Q106">
+        <v>2542990845800</v>
+      </c>
+      <c r="R106">
+        <v>2578373311600</v>
+      </c>
+      <c r="S106">
+        <v>149738600</v>
+      </c>
+      <c r="T106">
+        <v>157448900</v>
+      </c>
+      <c r="U106">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V106">
+        <v>25064752731</v>
+      </c>
+      <c r="W106">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X106">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y106">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z106">
+        <v>1531825</v>
+      </c>
+      <c r="AA106">
+        <v>119472.4</v>
+      </c>
+      <c r="AB106">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC106">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-14503978900</v>
       </c>
+      <c r="Q107">
+        <v>2583393597700</v>
+      </c>
+      <c r="R107">
+        <v>2597897576600</v>
+      </c>
+      <c r="S107">
+        <v>151636000</v>
+      </c>
+      <c r="T107">
+        <v>158592200</v>
+      </c>
+      <c r="U107">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V107">
+        <v>25064752731</v>
+      </c>
+      <c r="W107">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X107">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y107">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z107">
+        <v>1531825</v>
+      </c>
+      <c r="AA107">
+        <v>119472.4</v>
+      </c>
+      <c r="AB107">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC107">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>3630246600</v>
       </c>
+      <c r="Q108">
+        <v>2619746695600</v>
+      </c>
+      <c r="R108">
+        <v>2616116449000</v>
+      </c>
+      <c r="S108">
+        <v>153643100</v>
+      </c>
+      <c r="T108">
+        <v>159587200</v>
+      </c>
+      <c r="U108">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V108">
+        <v>25064752731</v>
+      </c>
+      <c r="W108">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X108">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y108">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z108">
+        <v>1531825</v>
+      </c>
+      <c r="AA108">
+        <v>119472.4</v>
+      </c>
+      <c r="AB108">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC108">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>56606675400</v>
       </c>
+      <c r="Q109">
+        <v>2693952318500</v>
+      </c>
+      <c r="R109">
+        <v>2637345643100</v>
+      </c>
+      <c r="S109">
+        <v>157219100</v>
+      </c>
+      <c r="T109">
+        <v>160667500</v>
+      </c>
+      <c r="U109">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V109">
+        <v>25064752731</v>
+      </c>
+      <c r="W109">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X109">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y109">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z109">
+        <v>1531825</v>
+      </c>
+      <c r="AA109">
+        <v>119472.4</v>
+      </c>
+      <c r="AB109">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC109">
+        <v>14.8</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>134212274500</v>
       </c>
+      <c r="Q110">
+        <v>2787864327400</v>
+      </c>
+      <c r="R110">
+        <v>2653652052900</v>
+      </c>
+      <c r="S110">
+        <v>163200800</v>
+      </c>
+      <c r="T110">
+        <v>161807400</v>
+      </c>
+      <c r="U110">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V110">
+        <v>25064752731</v>
+      </c>
+      <c r="W110">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X110">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y110">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z110">
+        <v>1531825</v>
+      </c>
+      <c r="AA110">
+        <v>119472.4</v>
+      </c>
+      <c r="AB110">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC110">
+        <v>21.8</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>180309240100</v>
       </c>
+      <c r="Q111">
+        <v>2857955391900</v>
+      </c>
+      <c r="R111">
+        <v>2677646151800</v>
+      </c>
+      <c r="S111">
+        <v>167260500</v>
+      </c>
+      <c r="T111">
+        <v>163131300</v>
+      </c>
+      <c r="U111">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V111">
+        <v>25064752731</v>
+      </c>
+      <c r="W111">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X111">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y111">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z111">
+        <v>1531825</v>
+      </c>
+      <c r="AA111">
+        <v>119472.4</v>
+      </c>
+      <c r="AB111">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC111">
+        <v>12.9</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>249048692600</v>
       </c>
+      <c r="Q112">
+        <v>2956281048800</v>
+      </c>
+      <c r="R112">
+        <v>2707232356200</v>
+      </c>
+      <c r="S112">
+        <v>172563300</v>
+      </c>
+      <c r="T112">
+        <v>164837200</v>
+      </c>
+      <c r="U112">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V112">
+        <v>25064752731</v>
+      </c>
+      <c r="W112">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X112">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y112">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z112">
+        <v>1531825</v>
+      </c>
+      <c r="AA112">
+        <v>119472.4</v>
+      </c>
+      <c r="AB112">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC112">
+        <v>19.3</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>337345099900</v>
       </c>
+      <c r="Q113">
+        <v>3069330564900</v>
+      </c>
+      <c r="R113">
+        <v>2731985465000</v>
+      </c>
+      <c r="S113">
+        <v>178014200</v>
+      </c>
+      <c r="T113">
+        <v>166490800</v>
+      </c>
+      <c r="U113">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V113">
+        <v>25064752731</v>
+      </c>
+      <c r="W113">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X113">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y113">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z113">
+        <v>1531825</v>
+      </c>
+      <c r="AA113">
+        <v>119472.4</v>
+      </c>
+      <c r="AB113">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC113">
+        <v>24.7</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>361532796900</v>
       </c>
+      <c r="Q114">
+        <v>3137313146200</v>
+      </c>
+      <c r="R114">
+        <v>2775780349300</v>
+      </c>
+      <c r="S114">
+        <v>182208700</v>
+      </c>
+      <c r="T114">
+        <v>169404600</v>
+      </c>
+      <c r="U114">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V114">
+        <v>25064752731</v>
+      </c>
+      <c r="W114">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X114">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y114">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z114">
+        <v>1531825</v>
+      </c>
+      <c r="AA114">
+        <v>119472.4</v>
+      </c>
+      <c r="AB114">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC114">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>374729977600</v>
       </c>
+      <c r="Q115">
+        <v>3198137730600</v>
+      </c>
+      <c r="R115">
+        <v>2823407753000</v>
+      </c>
+      <c r="S115">
+        <v>185917500</v>
+      </c>
+      <c r="T115">
+        <v>172692000</v>
+      </c>
+      <c r="U115">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V115">
+        <v>25064752731</v>
+      </c>
+      <c r="W115">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X115">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y115">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z115">
+        <v>1531825</v>
+      </c>
+      <c r="AA115">
+        <v>119472.4</v>
+      </c>
+      <c r="AB115">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC115">
+        <v>3.7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,6 +10686,45 @@
       <c r="P116">
         <v>374514161000</v>
       </c>
+      <c r="Q116">
+        <v>3198199105600</v>
+      </c>
+      <c r="R116">
+        <v>2823684944600</v>
+      </c>
+      <c r="S116">
+        <v>185920500</v>
+      </c>
+      <c r="T116">
+        <v>172712400</v>
+      </c>
+      <c r="U116">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V116">
+        <v>25064752731</v>
+      </c>
+      <c r="W116">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X116">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y116">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z116">
+        <v>1531825</v>
+      </c>
+      <c r="AA116">
+        <v>119472.4</v>
+      </c>
+      <c r="AB116">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC116">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117">
@@ -6251,10 +10775,49 @@
       <c r="P117">
         <v>413848501400</v>
       </c>
+      <c r="Q117">
+        <v>3321359818200</v>
+      </c>
+      <c r="R117">
+        <v>2907511316800</v>
+      </c>
+      <c r="S117">
+        <v>191550500</v>
+      </c>
+      <c r="T117">
+        <v>177691700</v>
+      </c>
+      <c r="U117">
+        <v>28632412225.9</v>
+      </c>
+      <c r="V117">
+        <v>25064752731</v>
+      </c>
+      <c r="W117">
+        <v>56569678019.8</v>
+      </c>
+      <c r="X117">
+        <v>3360954.3</v>
+      </c>
+      <c r="Y117">
+        <v>1651297.4</v>
+      </c>
+      <c r="Z117">
+        <v>1531825</v>
+      </c>
+      <c r="AA117">
+        <v>119472.4</v>
+      </c>
+      <c r="AB117">
+        <v>3567659494.8</v>
+      </c>
+      <c r="AC117">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P117"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC117"/>
   </ignoredErrors>
 </worksheet>
 </file>